--- a/EHOTEL Gantt.xlsx
+++ b/EHOTEL Gantt.xlsx
@@ -7,16 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9RUf5PRLYSagGF2zbWRtfj1dXqHOdpROcsBVD9vIBqI="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
   <si>
     <t>GANTT ŞEMASI ŞABLONU</t>
   </si>
@@ -375,18 +370,21 @@
     <t>1000-601</t>
   </si>
   <si>
-    <t>Web sitesini test ortamında yayınlama</t>
+    <t>Web Sitesini Test Ortamında Yayınlama</t>
   </si>
   <si>
     <t>1000-602</t>
   </si>
   <si>
-    <t>Mobil uyumluluğu testi</t>
+    <t>Mobil Uyumluluğu Testi</t>
   </si>
   <si>
     <t>1000-603</t>
   </si>
   <si>
+    <t>Müşterinin Değerlendirmesi</t>
+  </si>
+  <si>
     <t>1000-700</t>
   </si>
   <si>
@@ -396,25 +394,104 @@
     <t>1000-701</t>
   </si>
   <si>
-    <t>Web sitesini canlı ortamda yayınlama</t>
+    <t>Web Sitesini Canlı Ortamda Yayınlama</t>
   </si>
   <si>
     <t>1000-702</t>
   </si>
   <si>
-    <t>Web sitesini arama motorlarına kaydetme</t>
+    <t>Web Sitesini Arama Motorlarına Kaydetme</t>
+  </si>
+  <si>
+    <t>Bütçe Hesaplamaları</t>
+  </si>
+  <si>
+    <t>Projeye İçin Verilecek Fiyat</t>
+  </si>
+  <si>
+    <t>İnternet Sitesi Yıllık Bakım Verilecek Fiyat</t>
+  </si>
+  <si>
+    <t>Ofis Ekipman Harcamalar</t>
+  </si>
+  <si>
+    <t>Ofis Aylık Kira</t>
+  </si>
+  <si>
+    <t>Bir Personel Aylık Masrafı</t>
+  </si>
+  <si>
+    <t>1 Yıllık Sunucu Masrafı</t>
+  </si>
+  <si>
+    <t>Başa Baş Noktası</t>
+  </si>
+  <si>
+    <t>Bugüne Kadar Olan Toplam Net Kazanç</t>
+  </si>
+  <si>
+    <t>Tablolar İçin Veri Alanı. BURADAN AŞAĞISI VERİLERİ OTOMATİK ALIR.</t>
+  </si>
+  <si>
+    <t>NET GELİRLER</t>
+  </si>
+  <si>
+    <t>Proje İçin Verilen Fiyat Günlük Gelir</t>
+  </si>
+  <si>
+    <t>Proje Bitiminden Elde Edilecek Net Gelir</t>
+  </si>
+  <si>
+    <t>İnternet Sitesi Yıllık Bakımın Net geliri</t>
+  </si>
+  <si>
+    <t>GİDERLER</t>
+  </si>
+  <si>
+    <t>Ofis Kira GÜNLÜK</t>
+  </si>
+  <si>
+    <t>Personel GÜNLÜK Masrafı</t>
+  </si>
+  <si>
+    <t>Personel Aylık Masrafı</t>
+  </si>
+  <si>
+    <t>Yıllık Sunucu ve Bakım Masrafları</t>
+  </si>
+  <si>
+    <t>Ofis PROJE DÖNEMLİK Kira</t>
+  </si>
+  <si>
+    <t>5 Personel PROJE DÖNEMLİK Masrafı</t>
+  </si>
+  <si>
+    <t>Proje Maliyeti</t>
+  </si>
+  <si>
+    <t>ZAMAN</t>
+  </si>
+  <si>
+    <t>Çalışılacak Gün Sayısı</t>
+  </si>
+  <si>
+    <t>Baş Başa Gün Sonra</t>
+  </si>
+  <si>
+    <t>Çalışılacak Gün - Başa Baş</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yy"/>
     <numFmt numFmtId="165" formatCode="%0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="dd.mm.yy"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ [$TRY-41F]"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -616,9 +693,10 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="22">
@@ -993,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="164">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1166,6 +1244,9 @@
     </xf>
     <xf borderId="10" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1264,11 +1345,8 @@
     <xf borderId="17" fillId="2" fontId="30" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="10" fillId="0" fontId="17" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1348,7 +1426,6 @@
     <xf borderId="17" fillId="0" fontId="36" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="17" fontId="36" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="18" fontId="36" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="17" fillId="19" fontId="36" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="20" fontId="36" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="36" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1377,6 +1454,43 @@
     <xf borderId="26" fillId="0" fontId="36" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="17" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="27" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="21" fontId="29" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="17" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="21" fontId="29" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="21" fontId="29" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="36" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,8 +1541,427 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Proje Dönemi Boyunca Toplam Giderler</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C0504D"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8064A2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gantt Şeması'!$H$74:$H$77</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gantt Şeması'!$H$74:$H$77</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Net Gelirler</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C0504D"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gantt Şeması'!$H$67:$H$68</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gantt Şeması'!$H$67:$H$68</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Çalışılacak Günün Başa Baş'a Oranı</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C0504D"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gantt Şeması'!$H$81:$H$82</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gantt Şeması'!$H$81:$H$82</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5010150" cy="3095625"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Grafik"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5010150" cy="3095625"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Grafik"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5010150" cy="3095625"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Grafik"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1643,6 +2176,7 @@
     <col customWidth="1" min="4" max="4" width="12.13"/>
     <col customWidth="1" min="5" max="6" width="10.5"/>
     <col customWidth="1" min="7" max="7" width="8.63"/>
+    <col customWidth="1" min="8" max="8" width="16.5"/>
     <col customWidth="1" min="9" max="68" width="3.0"/>
     <col customWidth="1" min="69" max="69" width="3.38"/>
   </cols>
@@ -2561,83 +3095,83 @@
         <v>40</v>
       </c>
       <c r="E12" s="63">
-        <v>45363.0</v>
-      </c>
-      <c r="F12" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F12" s="64">
         <v>45366.0</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="65">
         <f t="shared" ref="G12:G16" si="1">NETWORKDAYS(E12,F12)</f>
-        <v>4</v>
-      </c>
-      <c r="H12" s="65">
+        <v>5</v>
+      </c>
+      <c r="H12" s="66">
         <v>1.0</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="73"/>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="72"/>
-      <c r="BC12" s="69"/>
-      <c r="BD12" s="69"/>
-      <c r="BE12" s="69"/>
-      <c r="BF12" s="69"/>
-      <c r="BG12" s="74"/>
-      <c r="BH12" s="74"/>
-      <c r="BI12" s="74"/>
-      <c r="BJ12" s="74"/>
-      <c r="BK12" s="74"/>
-      <c r="BL12" s="72"/>
-      <c r="BM12" s="69"/>
-      <c r="BN12" s="69"/>
-      <c r="BO12" s="69"/>
-      <c r="BP12" s="75"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="70"/>
+      <c r="AL12" s="70"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="70"/>
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="70"/>
+      <c r="BE12" s="70"/>
+      <c r="BF12" s="70"/>
+      <c r="BG12" s="75"/>
+      <c r="BH12" s="75"/>
+      <c r="BI12" s="75"/>
+      <c r="BJ12" s="75"/>
+      <c r="BK12" s="75"/>
+      <c r="BL12" s="73"/>
+      <c r="BM12" s="70"/>
+      <c r="BN12" s="70"/>
+      <c r="BO12" s="70"/>
+      <c r="BP12" s="76"/>
       <c r="BQ12" s="60"/>
     </row>
     <row r="13" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A13" s="60"/>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="77" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="62" t="s">
@@ -2646,79 +3180,79 @@
       <c r="D13" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="64">
         <v>45363.0</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="64">
         <v>45366.0</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="78">
         <v>1.0</v>
       </c>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="83"/>
-      <c r="AE13" s="83"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="81"/>
-      <c r="AL13" s="81"/>
-      <c r="AM13" s="81"/>
-      <c r="AN13" s="81"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="81"/>
-      <c r="AQ13" s="81"/>
-      <c r="AR13" s="84"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="81"/>
-      <c r="AX13" s="81"/>
-      <c r="AY13" s="81"/>
-      <c r="AZ13" s="81"/>
-      <c r="BA13" s="81"/>
-      <c r="BB13" s="81"/>
-      <c r="BC13" s="81"/>
-      <c r="BD13" s="81"/>
-      <c r="BE13" s="81"/>
-      <c r="BF13" s="81"/>
-      <c r="BG13" s="85"/>
-      <c r="BH13" s="85"/>
-      <c r="BI13" s="85"/>
-      <c r="BJ13" s="85"/>
-      <c r="BK13" s="85"/>
-      <c r="BL13" s="81"/>
-      <c r="BM13" s="81"/>
-      <c r="BN13" s="81"/>
-      <c r="BO13" s="81"/>
-      <c r="BP13" s="86"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="85"/>
+      <c r="AS13" s="85"/>
+      <c r="AT13" s="85"/>
+      <c r="AU13" s="85"/>
+      <c r="AV13" s="85"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="82"/>
+      <c r="BA13" s="82"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="82"/>
+      <c r="BD13" s="82"/>
+      <c r="BE13" s="82"/>
+      <c r="BF13" s="82"/>
+      <c r="BG13" s="86"/>
+      <c r="BH13" s="86"/>
+      <c r="BI13" s="86"/>
+      <c r="BJ13" s="86"/>
+      <c r="BK13" s="86"/>
+      <c r="BL13" s="82"/>
+      <c r="BM13" s="82"/>
+      <c r="BN13" s="82"/>
+      <c r="BO13" s="82"/>
+      <c r="BP13" s="87"/>
       <c r="BQ13" s="60"/>
     </row>
     <row r="14" ht="17.25" customHeight="1" outlineLevel="1">
@@ -2732,79 +3266,79 @@
       <c r="D14" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="64">
         <v>45364.0</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="64">
         <v>45364.0</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="66">
         <v>1.0</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="83"/>
-      <c r="AE14" s="83"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="81"/>
-      <c r="AI14" s="81"/>
-      <c r="AJ14" s="81"/>
-      <c r="AK14" s="81"/>
-      <c r="AL14" s="81"/>
-      <c r="AM14" s="81"/>
-      <c r="AN14" s="81"/>
-      <c r="AO14" s="81"/>
-      <c r="AP14" s="81"/>
-      <c r="AQ14" s="81"/>
-      <c r="AR14" s="84"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="84"/>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="81"/>
-      <c r="AX14" s="81"/>
-      <c r="AY14" s="81"/>
-      <c r="AZ14" s="81"/>
-      <c r="BA14" s="81"/>
-      <c r="BB14" s="81"/>
-      <c r="BC14" s="81"/>
-      <c r="BD14" s="81"/>
-      <c r="BE14" s="81"/>
-      <c r="BF14" s="81"/>
-      <c r="BG14" s="85"/>
-      <c r="BH14" s="85"/>
-      <c r="BI14" s="85"/>
-      <c r="BJ14" s="85"/>
-      <c r="BK14" s="85"/>
-      <c r="BL14" s="81"/>
-      <c r="BM14" s="81"/>
-      <c r="BN14" s="81"/>
-      <c r="BO14" s="81"/>
-      <c r="BP14" s="86"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="85"/>
+      <c r="AS14" s="85"/>
+      <c r="AT14" s="85"/>
+      <c r="AU14" s="85"/>
+      <c r="AV14" s="85"/>
+      <c r="AW14" s="82"/>
+      <c r="AX14" s="82"/>
+      <c r="AY14" s="82"/>
+      <c r="AZ14" s="82"/>
+      <c r="BA14" s="82"/>
+      <c r="BB14" s="82"/>
+      <c r="BC14" s="82"/>
+      <c r="BD14" s="82"/>
+      <c r="BE14" s="82"/>
+      <c r="BF14" s="82"/>
+      <c r="BG14" s="86"/>
+      <c r="BH14" s="86"/>
+      <c r="BI14" s="86"/>
+      <c r="BJ14" s="86"/>
+      <c r="BK14" s="86"/>
+      <c r="BL14" s="82"/>
+      <c r="BM14" s="82"/>
+      <c r="BN14" s="82"/>
+      <c r="BO14" s="82"/>
+      <c r="BP14" s="87"/>
       <c r="BQ14" s="60"/>
     </row>
     <row r="15" ht="17.25" customHeight="1" outlineLevel="1">
@@ -2818,79 +3352,79 @@
       <c r="D15" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="64">
         <v>45363.0</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="64">
         <v>45365.0</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="65">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="66">
         <v>1.0</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="83"/>
-      <c r="AF15" s="83"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="81"/>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="81"/>
-      <c r="AK15" s="81"/>
-      <c r="AL15" s="81"/>
-      <c r="AM15" s="81"/>
-      <c r="AN15" s="81"/>
-      <c r="AO15" s="81"/>
-      <c r="AP15" s="81"/>
-      <c r="AQ15" s="81"/>
-      <c r="AR15" s="84"/>
-      <c r="AS15" s="84"/>
-      <c r="AT15" s="84"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="81"/>
-      <c r="AX15" s="81"/>
-      <c r="AY15" s="81"/>
-      <c r="AZ15" s="81"/>
-      <c r="BA15" s="81"/>
-      <c r="BB15" s="81"/>
-      <c r="BC15" s="81"/>
-      <c r="BD15" s="81"/>
-      <c r="BE15" s="81"/>
-      <c r="BF15" s="81"/>
-      <c r="BG15" s="85"/>
-      <c r="BH15" s="85"/>
-      <c r="BI15" s="85"/>
-      <c r="BJ15" s="85"/>
-      <c r="BK15" s="85"/>
-      <c r="BL15" s="81"/>
-      <c r="BM15" s="81"/>
-      <c r="BN15" s="81"/>
-      <c r="BO15" s="81"/>
-      <c r="BP15" s="86"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="85"/>
+      <c r="AS15" s="85"/>
+      <c r="AT15" s="85"/>
+      <c r="AU15" s="85"/>
+      <c r="AV15" s="85"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="82"/>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="82"/>
+      <c r="BC15" s="82"/>
+      <c r="BD15" s="82"/>
+      <c r="BE15" s="82"/>
+      <c r="BF15" s="82"/>
+      <c r="BG15" s="86"/>
+      <c r="BH15" s="86"/>
+      <c r="BI15" s="86"/>
+      <c r="BJ15" s="86"/>
+      <c r="BK15" s="86"/>
+      <c r="BL15" s="82"/>
+      <c r="BM15" s="82"/>
+      <c r="BN15" s="82"/>
+      <c r="BO15" s="82"/>
+      <c r="BP15" s="87"/>
       <c r="BQ15" s="60"/>
     </row>
     <row r="16" ht="17.25" customHeight="1" outlineLevel="1">
@@ -2904,79 +3438,79 @@
       <c r="D16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="64">
         <v>45365.0</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="64">
         <v>45365.0</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="66">
         <v>1.0</v>
       </c>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="83"/>
-      <c r="AE16" s="83"/>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="81"/>
-      <c r="AI16" s="81"/>
-      <c r="AJ16" s="81"/>
-      <c r="AK16" s="81"/>
-      <c r="AL16" s="81"/>
-      <c r="AM16" s="81"/>
-      <c r="AN16" s="81"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="81"/>
-      <c r="AQ16" s="81"/>
-      <c r="AR16" s="84"/>
-      <c r="AS16" s="84"/>
-      <c r="AT16" s="84"/>
-      <c r="AU16" s="84"/>
-      <c r="AV16" s="84"/>
-      <c r="AW16" s="81"/>
-      <c r="AX16" s="81"/>
-      <c r="AY16" s="81"/>
-      <c r="AZ16" s="81"/>
-      <c r="BA16" s="81"/>
-      <c r="BB16" s="81"/>
-      <c r="BC16" s="81"/>
-      <c r="BD16" s="81"/>
-      <c r="BE16" s="81"/>
-      <c r="BF16" s="81"/>
-      <c r="BG16" s="85"/>
-      <c r="BH16" s="85"/>
-      <c r="BI16" s="85"/>
-      <c r="BJ16" s="85"/>
-      <c r="BK16" s="85"/>
-      <c r="BL16" s="81"/>
-      <c r="BM16" s="81"/>
-      <c r="BN16" s="81"/>
-      <c r="BO16" s="81"/>
-      <c r="BP16" s="86"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="82"/>
+      <c r="AM16" s="82"/>
+      <c r="AN16" s="82"/>
+      <c r="AO16" s="82"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="82"/>
+      <c r="AR16" s="85"/>
+      <c r="AS16" s="85"/>
+      <c r="AT16" s="85"/>
+      <c r="AU16" s="85"/>
+      <c r="AV16" s="85"/>
+      <c r="AW16" s="82"/>
+      <c r="AX16" s="82"/>
+      <c r="AY16" s="82"/>
+      <c r="AZ16" s="82"/>
+      <c r="BA16" s="82"/>
+      <c r="BB16" s="82"/>
+      <c r="BC16" s="82"/>
+      <c r="BD16" s="82"/>
+      <c r="BE16" s="82"/>
+      <c r="BF16" s="82"/>
+      <c r="BG16" s="86"/>
+      <c r="BH16" s="86"/>
+      <c r="BI16" s="86"/>
+      <c r="BJ16" s="86"/>
+      <c r="BK16" s="86"/>
+      <c r="BL16" s="82"/>
+      <c r="BM16" s="82"/>
+      <c r="BN16" s="82"/>
+      <c r="BO16" s="82"/>
+      <c r="BP16" s="87"/>
       <c r="BQ16" s="60"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
@@ -2992,66 +3526,66 @@
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="89"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="89"/>
-      <c r="AO17" s="89"/>
-      <c r="AP17" s="89"/>
-      <c r="AQ17" s="89"/>
-      <c r="AR17" s="89"/>
-      <c r="AS17" s="89"/>
-      <c r="AT17" s="89"/>
-      <c r="AU17" s="89"/>
-      <c r="AV17" s="89"/>
-      <c r="AW17" s="89"/>
-      <c r="AX17" s="89"/>
-      <c r="AY17" s="89"/>
-      <c r="AZ17" s="89"/>
-      <c r="BA17" s="89"/>
-      <c r="BB17" s="89"/>
-      <c r="BC17" s="89"/>
-      <c r="BD17" s="89"/>
-      <c r="BE17" s="89"/>
-      <c r="BF17" s="89"/>
-      <c r="BG17" s="89"/>
-      <c r="BH17" s="89"/>
-      <c r="BI17" s="89"/>
-      <c r="BJ17" s="89"/>
-      <c r="BK17" s="89"/>
-      <c r="BL17" s="89"/>
-      <c r="BM17" s="89"/>
-      <c r="BN17" s="89"/>
-      <c r="BO17" s="89"/>
-      <c r="BP17" s="89"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="90"/>
+      <c r="AJ17" s="90"/>
+      <c r="AK17" s="90"/>
+      <c r="AL17" s="90"/>
+      <c r="AM17" s="90"/>
+      <c r="AN17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="90"/>
+      <c r="AT17" s="90"/>
+      <c r="AU17" s="90"/>
+      <c r="AV17" s="90"/>
+      <c r="AW17" s="90"/>
+      <c r="AX17" s="90"/>
+      <c r="AY17" s="90"/>
+      <c r="AZ17" s="90"/>
+      <c r="BA17" s="90"/>
+      <c r="BB17" s="90"/>
+      <c r="BC17" s="90"/>
+      <c r="BD17" s="90"/>
+      <c r="BE17" s="90"/>
+      <c r="BF17" s="90"/>
+      <c r="BG17" s="90"/>
+      <c r="BH17" s="90"/>
+      <c r="BI17" s="90"/>
+      <c r="BJ17" s="90"/>
+      <c r="BK17" s="90"/>
+      <c r="BL17" s="90"/>
+      <c r="BM17" s="90"/>
+      <c r="BN17" s="90"/>
+      <c r="BO17" s="90"/>
+      <c r="BP17" s="90"/>
       <c r="BQ17" s="31"/>
     </row>
     <row r="18" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3065,79 +3599,79 @@
       <c r="D18" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="64">
         <v>45369.0</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="64">
         <v>45376.0</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="65">
         <f t="shared" ref="G18:G20" si="2">NETWORKDAYS(E18,F18)</f>
         <v>6</v>
       </c>
-      <c r="H18" s="92">
+      <c r="H18" s="93">
         <v>1.0</v>
       </c>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
-      <c r="BC18" s="69"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="69"/>
-      <c r="BF18" s="69"/>
-      <c r="BG18" s="74"/>
-      <c r="BH18" s="74"/>
-      <c r="BI18" s="74"/>
-      <c r="BJ18" s="74"/>
-      <c r="BK18" s="74"/>
-      <c r="BL18" s="69"/>
-      <c r="BM18" s="69"/>
-      <c r="BN18" s="69"/>
-      <c r="BO18" s="69"/>
-      <c r="BP18" s="75"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="70"/>
+      <c r="AL18" s="70"/>
+      <c r="AM18" s="70"/>
+      <c r="AN18" s="70"/>
+      <c r="AO18" s="70"/>
+      <c r="AP18" s="70"/>
+      <c r="AQ18" s="70"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="70"/>
+      <c r="AZ18" s="70"/>
+      <c r="BA18" s="70"/>
+      <c r="BB18" s="70"/>
+      <c r="BC18" s="70"/>
+      <c r="BD18" s="70"/>
+      <c r="BE18" s="70"/>
+      <c r="BF18" s="70"/>
+      <c r="BG18" s="75"/>
+      <c r="BH18" s="75"/>
+      <c r="BI18" s="75"/>
+      <c r="BJ18" s="75"/>
+      <c r="BK18" s="75"/>
+      <c r="BL18" s="70"/>
+      <c r="BM18" s="70"/>
+      <c r="BN18" s="70"/>
+      <c r="BO18" s="70"/>
+      <c r="BP18" s="76"/>
       <c r="BQ18" s="60"/>
     </row>
     <row r="19" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3151,79 +3685,79 @@
       <c r="D19" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="64">
         <v>45372.0</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="64">
         <v>45376.0</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="65">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="78">
         <v>0.0</v>
       </c>
-      <c r="I19" s="88"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="83"/>
-      <c r="AE19" s="83"/>
-      <c r="AF19" s="83"/>
-      <c r="AG19" s="83"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="81"/>
-      <c r="AL19" s="81"/>
-      <c r="AM19" s="81"/>
-      <c r="AN19" s="81"/>
-      <c r="AO19" s="81"/>
-      <c r="AP19" s="81"/>
-      <c r="AQ19" s="81"/>
-      <c r="AR19" s="84"/>
-      <c r="AS19" s="84"/>
-      <c r="AT19" s="84"/>
-      <c r="AU19" s="84"/>
-      <c r="AV19" s="84"/>
-      <c r="AW19" s="81"/>
-      <c r="AX19" s="81"/>
-      <c r="AY19" s="81"/>
-      <c r="AZ19" s="81"/>
-      <c r="BA19" s="81"/>
-      <c r="BB19" s="81"/>
-      <c r="BC19" s="81"/>
-      <c r="BD19" s="81"/>
-      <c r="BE19" s="81"/>
-      <c r="BF19" s="81"/>
-      <c r="BG19" s="85"/>
-      <c r="BH19" s="85"/>
-      <c r="BI19" s="85"/>
-      <c r="BJ19" s="85"/>
-      <c r="BK19" s="85"/>
-      <c r="BL19" s="81"/>
-      <c r="BM19" s="81"/>
-      <c r="BN19" s="81"/>
-      <c r="BO19" s="81"/>
-      <c r="BP19" s="86"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="96"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="84"/>
+      <c r="AG19" s="84"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="82"/>
+      <c r="AM19" s="82"/>
+      <c r="AN19" s="82"/>
+      <c r="AO19" s="82"/>
+      <c r="AP19" s="82"/>
+      <c r="AQ19" s="82"/>
+      <c r="AR19" s="85"/>
+      <c r="AS19" s="85"/>
+      <c r="AT19" s="85"/>
+      <c r="AU19" s="85"/>
+      <c r="AV19" s="85"/>
+      <c r="AW19" s="82"/>
+      <c r="AX19" s="82"/>
+      <c r="AY19" s="82"/>
+      <c r="AZ19" s="82"/>
+      <c r="BA19" s="82"/>
+      <c r="BB19" s="82"/>
+      <c r="BC19" s="82"/>
+      <c r="BD19" s="82"/>
+      <c r="BE19" s="82"/>
+      <c r="BF19" s="82"/>
+      <c r="BG19" s="86"/>
+      <c r="BH19" s="86"/>
+      <c r="BI19" s="86"/>
+      <c r="BJ19" s="86"/>
+      <c r="BK19" s="86"/>
+      <c r="BL19" s="82"/>
+      <c r="BM19" s="82"/>
+      <c r="BN19" s="82"/>
+      <c r="BO19" s="82"/>
+      <c r="BP19" s="87"/>
       <c r="BQ19" s="60"/>
     </row>
     <row r="20" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3237,79 +3771,79 @@
       <c r="D20" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="64">
         <v>45376.0</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="64">
         <v>45377.0</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="65">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="66">
         <v>0.0</v>
       </c>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="83"/>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="81"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="81"/>
-      <c r="AK20" s="81"/>
-      <c r="AL20" s="81"/>
-      <c r="AM20" s="81"/>
-      <c r="AN20" s="81"/>
-      <c r="AO20" s="81"/>
-      <c r="AP20" s="81"/>
-      <c r="AQ20" s="81"/>
-      <c r="AR20" s="84"/>
-      <c r="AS20" s="84"/>
-      <c r="AT20" s="84"/>
-      <c r="AU20" s="84"/>
-      <c r="AV20" s="84"/>
-      <c r="AW20" s="81"/>
-      <c r="AX20" s="81"/>
-      <c r="AY20" s="81"/>
-      <c r="AZ20" s="81"/>
-      <c r="BA20" s="81"/>
-      <c r="BB20" s="81"/>
-      <c r="BC20" s="81"/>
-      <c r="BD20" s="81"/>
-      <c r="BE20" s="81"/>
-      <c r="BF20" s="81"/>
-      <c r="BG20" s="85"/>
-      <c r="BH20" s="85"/>
-      <c r="BI20" s="85"/>
-      <c r="BJ20" s="85"/>
-      <c r="BK20" s="85"/>
-      <c r="BL20" s="81"/>
-      <c r="BM20" s="81"/>
-      <c r="BN20" s="81"/>
-      <c r="BO20" s="81"/>
-      <c r="BP20" s="86"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="84"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="82"/>
+      <c r="AM20" s="82"/>
+      <c r="AN20" s="82"/>
+      <c r="AO20" s="82"/>
+      <c r="AP20" s="82"/>
+      <c r="AQ20" s="82"/>
+      <c r="AR20" s="85"/>
+      <c r="AS20" s="85"/>
+      <c r="AT20" s="85"/>
+      <c r="AU20" s="85"/>
+      <c r="AV20" s="85"/>
+      <c r="AW20" s="82"/>
+      <c r="AX20" s="82"/>
+      <c r="AY20" s="82"/>
+      <c r="AZ20" s="82"/>
+      <c r="BA20" s="82"/>
+      <c r="BB20" s="82"/>
+      <c r="BC20" s="82"/>
+      <c r="BD20" s="82"/>
+      <c r="BE20" s="82"/>
+      <c r="BF20" s="82"/>
+      <c r="BG20" s="86"/>
+      <c r="BH20" s="86"/>
+      <c r="BI20" s="86"/>
+      <c r="BJ20" s="86"/>
+      <c r="BK20" s="86"/>
+      <c r="BL20" s="82"/>
+      <c r="BM20" s="82"/>
+      <c r="BN20" s="82"/>
+      <c r="BO20" s="82"/>
+      <c r="BP20" s="87"/>
       <c r="BQ20" s="60"/>
     </row>
     <row r="21" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3323,76 +3857,76 @@
       <c r="D21" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="64">
         <v>45369.0</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="64">
         <v>45377.0</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="65">
+      <c r="G21" s="65"/>
+      <c r="H21" s="66">
         <v>0.0</v>
       </c>
-      <c r="I21" s="96"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="83"/>
-      <c r="AE21" s="83"/>
-      <c r="AF21" s="83"/>
-      <c r="AG21" s="83"/>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="81"/>
-      <c r="AM21" s="81"/>
-      <c r="AN21" s="81"/>
-      <c r="AO21" s="81"/>
-      <c r="AP21" s="81"/>
-      <c r="AQ21" s="81"/>
-      <c r="AR21" s="84"/>
-      <c r="AS21" s="84"/>
-      <c r="AT21" s="84"/>
-      <c r="AU21" s="84"/>
-      <c r="AV21" s="84"/>
-      <c r="AW21" s="81"/>
-      <c r="AX21" s="81"/>
-      <c r="AY21" s="81"/>
-      <c r="AZ21" s="81"/>
-      <c r="BA21" s="81"/>
-      <c r="BB21" s="81"/>
-      <c r="BC21" s="81"/>
-      <c r="BD21" s="81"/>
-      <c r="BE21" s="81"/>
-      <c r="BF21" s="81"/>
-      <c r="BG21" s="85"/>
-      <c r="BH21" s="85"/>
-      <c r="BI21" s="85"/>
-      <c r="BJ21" s="85"/>
-      <c r="BK21" s="85"/>
-      <c r="BL21" s="81"/>
-      <c r="BM21" s="81"/>
-      <c r="BN21" s="81"/>
-      <c r="BO21" s="81"/>
-      <c r="BP21" s="86"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="96"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="82"/>
+      <c r="AI21" s="82"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="82"/>
+      <c r="AL21" s="82"/>
+      <c r="AM21" s="82"/>
+      <c r="AN21" s="82"/>
+      <c r="AO21" s="82"/>
+      <c r="AP21" s="82"/>
+      <c r="AQ21" s="82"/>
+      <c r="AR21" s="85"/>
+      <c r="AS21" s="85"/>
+      <c r="AT21" s="85"/>
+      <c r="AU21" s="85"/>
+      <c r="AV21" s="85"/>
+      <c r="AW21" s="82"/>
+      <c r="AX21" s="82"/>
+      <c r="AY21" s="82"/>
+      <c r="AZ21" s="82"/>
+      <c r="BA21" s="82"/>
+      <c r="BB21" s="82"/>
+      <c r="BC21" s="82"/>
+      <c r="BD21" s="82"/>
+      <c r="BE21" s="82"/>
+      <c r="BF21" s="82"/>
+      <c r="BG21" s="86"/>
+      <c r="BH21" s="86"/>
+      <c r="BI21" s="86"/>
+      <c r="BJ21" s="86"/>
+      <c r="BK21" s="86"/>
+      <c r="BL21" s="82"/>
+      <c r="BM21" s="82"/>
+      <c r="BN21" s="82"/>
+      <c r="BO21" s="82"/>
+      <c r="BP21" s="87"/>
       <c r="BQ21" s="60"/>
     </row>
     <row r="22" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3406,79 +3940,79 @@
       <c r="D22" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="64">
         <v>45372.0</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="64">
         <v>45378.0</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="65">
         <f t="shared" ref="G22:G24" si="3">NETWORKDAYS(E22,F22)</f>
         <v>5</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="66">
         <v>0.3</v>
       </c>
-      <c r="I22" s="88"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="83"/>
-      <c r="AE22" s="83"/>
-      <c r="AF22" s="83"/>
-      <c r="AG22" s="83"/>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="81"/>
-      <c r="AJ22" s="81"/>
-      <c r="AK22" s="81"/>
-      <c r="AL22" s="81"/>
-      <c r="AM22" s="81"/>
-      <c r="AN22" s="81"/>
-      <c r="AO22" s="81"/>
-      <c r="AP22" s="81"/>
-      <c r="AQ22" s="81"/>
-      <c r="AR22" s="84"/>
-      <c r="AS22" s="84"/>
-      <c r="AT22" s="84"/>
-      <c r="AU22" s="84"/>
-      <c r="AV22" s="84"/>
-      <c r="AW22" s="81"/>
-      <c r="AX22" s="81"/>
-      <c r="AY22" s="81"/>
-      <c r="AZ22" s="81"/>
-      <c r="BA22" s="81"/>
-      <c r="BB22" s="81"/>
-      <c r="BC22" s="81"/>
-      <c r="BD22" s="81"/>
-      <c r="BE22" s="81"/>
-      <c r="BF22" s="81"/>
-      <c r="BG22" s="85"/>
-      <c r="BH22" s="85"/>
-      <c r="BI22" s="85"/>
-      <c r="BJ22" s="85"/>
-      <c r="BK22" s="85"/>
-      <c r="BL22" s="81"/>
-      <c r="BM22" s="81"/>
-      <c r="BN22" s="81"/>
-      <c r="BO22" s="81"/>
-      <c r="BP22" s="86"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="84"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="82"/>
+      <c r="AM22" s="82"/>
+      <c r="AN22" s="82"/>
+      <c r="AO22" s="82"/>
+      <c r="AP22" s="82"/>
+      <c r="AQ22" s="82"/>
+      <c r="AR22" s="85"/>
+      <c r="AS22" s="85"/>
+      <c r="AT22" s="85"/>
+      <c r="AU22" s="85"/>
+      <c r="AV22" s="85"/>
+      <c r="AW22" s="82"/>
+      <c r="AX22" s="82"/>
+      <c r="AY22" s="82"/>
+      <c r="AZ22" s="82"/>
+      <c r="BA22" s="82"/>
+      <c r="BB22" s="82"/>
+      <c r="BC22" s="82"/>
+      <c r="BD22" s="82"/>
+      <c r="BE22" s="82"/>
+      <c r="BF22" s="82"/>
+      <c r="BG22" s="86"/>
+      <c r="BH22" s="86"/>
+      <c r="BI22" s="86"/>
+      <c r="BJ22" s="86"/>
+      <c r="BK22" s="86"/>
+      <c r="BL22" s="82"/>
+      <c r="BM22" s="82"/>
+      <c r="BN22" s="82"/>
+      <c r="BO22" s="82"/>
+      <c r="BP22" s="87"/>
       <c r="BQ22" s="60"/>
     </row>
     <row r="23" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3486,19 +4020,19 @@
       <c r="B23" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D23" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="64">
         <v>45371.0</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="64">
         <v>45378.0</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="65">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -3506,66 +4040,66 @@
         <f>COUNTIF(D12:D54,"&gt;0)")/(42-6)</f>
         <v>0.6111111111</v>
       </c>
-      <c r="I23" s="88"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="83"/>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="83"/>
-      <c r="AG23" s="83"/>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="81"/>
-      <c r="AL23" s="81"/>
-      <c r="AM23" s="81"/>
-      <c r="AN23" s="81"/>
-      <c r="AO23" s="81"/>
-      <c r="AP23" s="81"/>
-      <c r="AQ23" s="81"/>
-      <c r="AR23" s="84"/>
-      <c r="AS23" s="84"/>
-      <c r="AT23" s="84"/>
-      <c r="AU23" s="84"/>
-      <c r="AV23" s="84"/>
-      <c r="AW23" s="81"/>
-      <c r="AX23" s="81"/>
-      <c r="AY23" s="81"/>
-      <c r="AZ23" s="81"/>
-      <c r="BA23" s="81"/>
-      <c r="BB23" s="81"/>
-      <c r="BC23" s="81"/>
-      <c r="BD23" s="81"/>
-      <c r="BE23" s="81"/>
-      <c r="BF23" s="81"/>
-      <c r="BG23" s="85"/>
-      <c r="BH23" s="85"/>
-      <c r="BI23" s="85"/>
-      <c r="BJ23" s="85"/>
-      <c r="BK23" s="85"/>
-      <c r="BL23" s="81"/>
-      <c r="BM23" s="81"/>
-      <c r="BN23" s="81"/>
-      <c r="BO23" s="81"/>
-      <c r="BP23" s="86"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="84"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="82"/>
+      <c r="AM23" s="82"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="82"/>
+      <c r="AR23" s="85"/>
+      <c r="AS23" s="85"/>
+      <c r="AT23" s="85"/>
+      <c r="AU23" s="85"/>
+      <c r="AV23" s="85"/>
+      <c r="AW23" s="82"/>
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="82"/>
+      <c r="BA23" s="82"/>
+      <c r="BB23" s="82"/>
+      <c r="BC23" s="82"/>
+      <c r="BD23" s="82"/>
+      <c r="BE23" s="82"/>
+      <c r="BF23" s="82"/>
+      <c r="BG23" s="86"/>
+      <c r="BH23" s="86"/>
+      <c r="BI23" s="86"/>
+      <c r="BJ23" s="86"/>
+      <c r="BK23" s="86"/>
+      <c r="BL23" s="82"/>
+      <c r="BM23" s="82"/>
+      <c r="BN23" s="82"/>
+      <c r="BO23" s="82"/>
+      <c r="BP23" s="87"/>
       <c r="BQ23" s="60"/>
     </row>
     <row r="24" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3585,7 +4119,7 @@
       <c r="F24" s="102">
         <v>45378.0</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3668,66 +4202,66 @@
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
       <c r="H25" s="56"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="89"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="89"/>
-      <c r="AJ25" s="89"/>
-      <c r="AK25" s="89"/>
-      <c r="AL25" s="89"/>
-      <c r="AM25" s="89"/>
-      <c r="AN25" s="89"/>
-      <c r="AO25" s="89"/>
-      <c r="AP25" s="89"/>
-      <c r="AQ25" s="89"/>
-      <c r="AR25" s="89"/>
-      <c r="AS25" s="89"/>
-      <c r="AT25" s="89"/>
-      <c r="AU25" s="89"/>
-      <c r="AV25" s="89"/>
-      <c r="AW25" s="89"/>
-      <c r="AX25" s="89"/>
-      <c r="AY25" s="89"/>
-      <c r="AZ25" s="89"/>
-      <c r="BA25" s="89"/>
-      <c r="BB25" s="89"/>
-      <c r="BC25" s="89"/>
-      <c r="BD25" s="89"/>
-      <c r="BE25" s="89"/>
-      <c r="BF25" s="89"/>
-      <c r="BG25" s="89"/>
-      <c r="BH25" s="89"/>
-      <c r="BI25" s="89"/>
-      <c r="BJ25" s="89"/>
-      <c r="BK25" s="89"/>
-      <c r="BL25" s="89"/>
-      <c r="BM25" s="89"/>
-      <c r="BN25" s="89"/>
-      <c r="BO25" s="89"/>
-      <c r="BP25" s="89"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="90"/>
+      <c r="AK25" s="90"/>
+      <c r="AL25" s="90"/>
+      <c r="AM25" s="90"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="90"/>
+      <c r="AU25" s="90"/>
+      <c r="AV25" s="90"/>
+      <c r="AW25" s="90"/>
+      <c r="AX25" s="90"/>
+      <c r="AY25" s="90"/>
+      <c r="AZ25" s="90"/>
+      <c r="BA25" s="90"/>
+      <c r="BB25" s="90"/>
+      <c r="BC25" s="90"/>
+      <c r="BD25" s="90"/>
+      <c r="BE25" s="90"/>
+      <c r="BF25" s="90"/>
+      <c r="BG25" s="90"/>
+      <c r="BH25" s="90"/>
+      <c r="BI25" s="90"/>
+      <c r="BJ25" s="90"/>
+      <c r="BK25" s="90"/>
+      <c r="BL25" s="90"/>
+      <c r="BM25" s="90"/>
+      <c r="BN25" s="90"/>
+      <c r="BO25" s="90"/>
+      <c r="BP25" s="90"/>
       <c r="BQ25" s="31"/>
     </row>
     <row r="26" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3741,84 +4275,84 @@
       <c r="D26" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="64">
         <v>45379.0</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="64">
         <v>45413.0</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="65">
         <f t="shared" ref="G26:G31" si="4">NETWORKDAYS(E26,F26)</f>
         <v>25</v>
       </c>
-      <c r="H26" s="92">
+      <c r="H26" s="93">
         <v>0.0</v>
       </c>
-      <c r="I26" s="68"/>
+      <c r="I26" s="69"/>
       <c r="J26" s="114"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="71"/>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="71"/>
-      <c r="AG26" s="71"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="69"/>
-      <c r="AL26" s="69"/>
-      <c r="AM26" s="69"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="73"/>
-      <c r="AS26" s="73"/>
-      <c r="AT26" s="73"/>
-      <c r="AU26" s="73"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="69"/>
-      <c r="BA26" s="69"/>
-      <c r="BB26" s="69"/>
-      <c r="BC26" s="69"/>
-      <c r="BD26" s="69"/>
-      <c r="BE26" s="69"/>
-      <c r="BF26" s="69"/>
-      <c r="BG26" s="74"/>
-      <c r="BH26" s="74"/>
-      <c r="BI26" s="74"/>
-      <c r="BJ26" s="74"/>
-      <c r="BK26" s="74"/>
-      <c r="BL26" s="69"/>
-      <c r="BM26" s="69"/>
-      <c r="BN26" s="69"/>
-      <c r="BO26" s="69"/>
-      <c r="BP26" s="75"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="70"/>
+      <c r="AL26" s="70"/>
+      <c r="AM26" s="70"/>
+      <c r="AN26" s="70"/>
+      <c r="AO26" s="70"/>
+      <c r="AP26" s="70"/>
+      <c r="AQ26" s="70"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="74"/>
+      <c r="AV26" s="74"/>
+      <c r="AW26" s="70"/>
+      <c r="AX26" s="70"/>
+      <c r="AY26" s="70"/>
+      <c r="AZ26" s="70"/>
+      <c r="BA26" s="70"/>
+      <c r="BB26" s="70"/>
+      <c r="BC26" s="70"/>
+      <c r="BD26" s="70"/>
+      <c r="BE26" s="70"/>
+      <c r="BF26" s="70"/>
+      <c r="BG26" s="75"/>
+      <c r="BH26" s="75"/>
+      <c r="BI26" s="75"/>
+      <c r="BJ26" s="75"/>
+      <c r="BK26" s="75"/>
+      <c r="BL26" s="70"/>
+      <c r="BM26" s="70"/>
+      <c r="BN26" s="70"/>
+      <c r="BO26" s="70"/>
+      <c r="BP26" s="76"/>
       <c r="BQ26" s="60"/>
     </row>
     <row r="27" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="77" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="62" t="s">
@@ -3827,84 +4361,84 @@
       <c r="D27" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="63">
+      <c r="E27" s="64">
         <v>45379.0</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="64">
         <v>45413.0</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="65">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H27" s="92">
+      <c r="H27" s="93">
         <v>0.0</v>
       </c>
-      <c r="I27" s="88"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="83"/>
-      <c r="AH27" s="81"/>
-      <c r="AI27" s="81"/>
-      <c r="AJ27" s="81"/>
-      <c r="AK27" s="81"/>
-      <c r="AL27" s="81"/>
-      <c r="AM27" s="81"/>
-      <c r="AN27" s="81"/>
-      <c r="AO27" s="81"/>
-      <c r="AP27" s="81"/>
-      <c r="AQ27" s="81"/>
-      <c r="AR27" s="84"/>
-      <c r="AS27" s="84"/>
-      <c r="AT27" s="84"/>
-      <c r="AU27" s="84"/>
-      <c r="AV27" s="84"/>
-      <c r="AW27" s="81"/>
-      <c r="AX27" s="81"/>
-      <c r="AY27" s="81"/>
-      <c r="AZ27" s="81"/>
-      <c r="BA27" s="81"/>
-      <c r="BB27" s="81"/>
-      <c r="BC27" s="81"/>
-      <c r="BD27" s="81"/>
-      <c r="BE27" s="81"/>
-      <c r="BF27" s="81"/>
-      <c r="BG27" s="85"/>
-      <c r="BH27" s="85"/>
-      <c r="BI27" s="85"/>
-      <c r="BJ27" s="85"/>
-      <c r="BK27" s="85"/>
-      <c r="BL27" s="81"/>
-      <c r="BM27" s="81"/>
-      <c r="BN27" s="81"/>
-      <c r="BO27" s="81"/>
-      <c r="BP27" s="86"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="84"/>
+      <c r="AG27" s="84"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="82"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="85"/>
+      <c r="AS27" s="85"/>
+      <c r="AT27" s="85"/>
+      <c r="AU27" s="85"/>
+      <c r="AV27" s="85"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="82"/>
+      <c r="BB27" s="82"/>
+      <c r="BC27" s="82"/>
+      <c r="BD27" s="82"/>
+      <c r="BE27" s="82"/>
+      <c r="BF27" s="82"/>
+      <c r="BG27" s="86"/>
+      <c r="BH27" s="86"/>
+      <c r="BI27" s="86"/>
+      <c r="BJ27" s="86"/>
+      <c r="BK27" s="86"/>
+      <c r="BL27" s="82"/>
+      <c r="BM27" s="82"/>
+      <c r="BN27" s="82"/>
+      <c r="BO27" s="82"/>
+      <c r="BP27" s="87"/>
       <c r="BQ27" s="60"/>
     </row>
     <row r="28" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A28" s="60"/>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="77" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="62" t="s">
@@ -3913,79 +4447,79 @@
       <c r="D28" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="63">
+      <c r="E28" s="64">
         <v>45379.0</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="64">
         <v>45413.0</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="65">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H28" s="92">
+      <c r="H28" s="93">
         <v>0.0</v>
       </c>
-      <c r="I28" s="88"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="83"/>
-      <c r="AD28" s="83"/>
-      <c r="AE28" s="83"/>
-      <c r="AF28" s="83"/>
-      <c r="AG28" s="83"/>
-      <c r="AH28" s="81"/>
-      <c r="AI28" s="81"/>
-      <c r="AJ28" s="81"/>
-      <c r="AK28" s="81"/>
-      <c r="AL28" s="81"/>
-      <c r="AM28" s="81"/>
-      <c r="AN28" s="81"/>
-      <c r="AO28" s="81"/>
-      <c r="AP28" s="81"/>
-      <c r="AQ28" s="81"/>
-      <c r="AR28" s="84"/>
-      <c r="AS28" s="84"/>
-      <c r="AT28" s="84"/>
-      <c r="AU28" s="84"/>
-      <c r="AV28" s="84"/>
-      <c r="AW28" s="81"/>
-      <c r="AX28" s="81"/>
-      <c r="AY28" s="81"/>
-      <c r="AZ28" s="81"/>
-      <c r="BA28" s="81"/>
-      <c r="BB28" s="81"/>
-      <c r="BC28" s="81"/>
-      <c r="BD28" s="81"/>
-      <c r="BE28" s="81"/>
-      <c r="BF28" s="81"/>
-      <c r="BG28" s="85"/>
-      <c r="BH28" s="85"/>
-      <c r="BI28" s="85"/>
-      <c r="BJ28" s="85"/>
-      <c r="BK28" s="85"/>
-      <c r="BL28" s="81"/>
-      <c r="BM28" s="81"/>
-      <c r="BN28" s="81"/>
-      <c r="BO28" s="81"/>
-      <c r="BP28" s="86"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="84"/>
+      <c r="AD28" s="84"/>
+      <c r="AE28" s="84"/>
+      <c r="AF28" s="84"/>
+      <c r="AG28" s="84"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="82"/>
+      <c r="AM28" s="82"/>
+      <c r="AN28" s="82"/>
+      <c r="AO28" s="82"/>
+      <c r="AP28" s="82"/>
+      <c r="AQ28" s="82"/>
+      <c r="AR28" s="85"/>
+      <c r="AS28" s="85"/>
+      <c r="AT28" s="85"/>
+      <c r="AU28" s="85"/>
+      <c r="AV28" s="85"/>
+      <c r="AW28" s="82"/>
+      <c r="AX28" s="82"/>
+      <c r="AY28" s="82"/>
+      <c r="AZ28" s="82"/>
+      <c r="BA28" s="82"/>
+      <c r="BB28" s="82"/>
+      <c r="BC28" s="82"/>
+      <c r="BD28" s="82"/>
+      <c r="BE28" s="82"/>
+      <c r="BF28" s="82"/>
+      <c r="BG28" s="86"/>
+      <c r="BH28" s="86"/>
+      <c r="BI28" s="86"/>
+      <c r="BJ28" s="86"/>
+      <c r="BK28" s="86"/>
+      <c r="BL28" s="82"/>
+      <c r="BM28" s="82"/>
+      <c r="BN28" s="82"/>
+      <c r="BO28" s="82"/>
+      <c r="BP28" s="87"/>
       <c r="BQ28" s="60"/>
     </row>
     <row r="29" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3999,79 +4533,79 @@
       <c r="D29" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="63">
+      <c r="E29" s="64">
         <v>45379.0</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="64">
         <v>45413.0</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="65">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H29" s="92">
+      <c r="H29" s="93">
         <v>0.0</v>
       </c>
-      <c r="I29" s="88"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="81"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="81"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="83"/>
-      <c r="AE29" s="83"/>
-      <c r="AF29" s="83"/>
-      <c r="AG29" s="83"/>
-      <c r="AH29" s="81"/>
-      <c r="AI29" s="81"/>
-      <c r="AJ29" s="81"/>
-      <c r="AK29" s="81"/>
-      <c r="AL29" s="81"/>
-      <c r="AM29" s="81"/>
-      <c r="AN29" s="81"/>
-      <c r="AO29" s="81"/>
-      <c r="AP29" s="81"/>
-      <c r="AQ29" s="81"/>
-      <c r="AR29" s="84"/>
-      <c r="AS29" s="84"/>
-      <c r="AT29" s="84"/>
-      <c r="AU29" s="84"/>
-      <c r="AV29" s="84"/>
-      <c r="AW29" s="81"/>
-      <c r="AX29" s="81"/>
-      <c r="AY29" s="81"/>
-      <c r="AZ29" s="81"/>
-      <c r="BA29" s="81"/>
-      <c r="BB29" s="81"/>
-      <c r="BC29" s="81"/>
-      <c r="BD29" s="81"/>
-      <c r="BE29" s="81"/>
-      <c r="BF29" s="81"/>
-      <c r="BG29" s="85"/>
-      <c r="BH29" s="85"/>
-      <c r="BI29" s="85"/>
-      <c r="BJ29" s="85"/>
-      <c r="BK29" s="85"/>
-      <c r="BL29" s="81"/>
-      <c r="BM29" s="81"/>
-      <c r="BN29" s="81"/>
-      <c r="BO29" s="81"/>
-      <c r="BP29" s="86"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="82"/>
+      <c r="AC29" s="84"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AG29" s="84"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="82"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="85"/>
+      <c r="AS29" s="85"/>
+      <c r="AT29" s="85"/>
+      <c r="AU29" s="85"/>
+      <c r="AV29" s="85"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="82"/>
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="82"/>
+      <c r="BA29" s="82"/>
+      <c r="BB29" s="82"/>
+      <c r="BC29" s="82"/>
+      <c r="BD29" s="82"/>
+      <c r="BE29" s="82"/>
+      <c r="BF29" s="82"/>
+      <c r="BG29" s="86"/>
+      <c r="BH29" s="86"/>
+      <c r="BI29" s="86"/>
+      <c r="BJ29" s="86"/>
+      <c r="BK29" s="86"/>
+      <c r="BL29" s="82"/>
+      <c r="BM29" s="82"/>
+      <c r="BN29" s="82"/>
+      <c r="BO29" s="82"/>
+      <c r="BP29" s="87"/>
       <c r="BQ29" s="60"/>
     </row>
     <row r="30" ht="17.25" customHeight="1" outlineLevel="1">
@@ -4085,84 +4619,84 @@
       <c r="D30" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="63">
+      <c r="E30" s="64">
         <v>45379.0</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="64">
         <v>45413.0</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="65">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="H30" s="115">
         <v>0.0</v>
       </c>
-      <c r="I30" s="88"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="81"/>
-      <c r="X30" s="81"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="81"/>
-      <c r="AB30" s="81"/>
-      <c r="AC30" s="83"/>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="83"/>
-      <c r="AF30" s="83"/>
-      <c r="AG30" s="83"/>
-      <c r="AH30" s="81"/>
-      <c r="AI30" s="81"/>
-      <c r="AJ30" s="81"/>
-      <c r="AK30" s="81"/>
-      <c r="AL30" s="81"/>
-      <c r="AM30" s="81"/>
-      <c r="AN30" s="81"/>
-      <c r="AO30" s="81"/>
-      <c r="AP30" s="81"/>
-      <c r="AQ30" s="81"/>
-      <c r="AR30" s="84"/>
-      <c r="AS30" s="84"/>
-      <c r="AT30" s="84"/>
-      <c r="AU30" s="84"/>
-      <c r="AV30" s="84"/>
-      <c r="AW30" s="81"/>
-      <c r="AX30" s="81"/>
-      <c r="AY30" s="81"/>
-      <c r="AZ30" s="81"/>
-      <c r="BA30" s="81"/>
-      <c r="BB30" s="81"/>
-      <c r="BC30" s="81"/>
-      <c r="BD30" s="81"/>
-      <c r="BE30" s="81"/>
-      <c r="BF30" s="81"/>
-      <c r="BG30" s="85"/>
-      <c r="BH30" s="85"/>
-      <c r="BI30" s="85"/>
-      <c r="BJ30" s="85"/>
-      <c r="BK30" s="85"/>
-      <c r="BL30" s="81"/>
-      <c r="BM30" s="81"/>
-      <c r="BN30" s="81"/>
-      <c r="BO30" s="81"/>
-      <c r="BP30" s="86"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="84"/>
+      <c r="AD30" s="84"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="84"/>
+      <c r="AG30" s="84"/>
+      <c r="AH30" s="82"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="82"/>
+      <c r="AK30" s="82"/>
+      <c r="AL30" s="82"/>
+      <c r="AM30" s="82"/>
+      <c r="AN30" s="82"/>
+      <c r="AO30" s="82"/>
+      <c r="AP30" s="82"/>
+      <c r="AQ30" s="82"/>
+      <c r="AR30" s="85"/>
+      <c r="AS30" s="85"/>
+      <c r="AT30" s="85"/>
+      <c r="AU30" s="85"/>
+      <c r="AV30" s="85"/>
+      <c r="AW30" s="82"/>
+      <c r="AX30" s="82"/>
+      <c r="AY30" s="82"/>
+      <c r="AZ30" s="82"/>
+      <c r="BA30" s="82"/>
+      <c r="BB30" s="82"/>
+      <c r="BC30" s="82"/>
+      <c r="BD30" s="82"/>
+      <c r="BE30" s="82"/>
+      <c r="BF30" s="82"/>
+      <c r="BG30" s="86"/>
+      <c r="BH30" s="86"/>
+      <c r="BI30" s="86"/>
+      <c r="BJ30" s="86"/>
+      <c r="BK30" s="86"/>
+      <c r="BL30" s="82"/>
+      <c r="BM30" s="82"/>
+      <c r="BN30" s="82"/>
+      <c r="BO30" s="82"/>
+      <c r="BP30" s="87"/>
       <c r="BQ30" s="60"/>
     </row>
     <row r="31" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A31" s="60"/>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="77" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="62" t="s">
@@ -4171,80 +4705,80 @@
       <c r="D31" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="63">
+      <c r="E31" s="64">
         <v>45379.0</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="64">
         <v>45413.0</v>
       </c>
-      <c r="G31" s="64">
+      <c r="G31" s="65">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="66">
         <f>AVERAGE(H12:H15,H18:H24,H33:H40,H42:H47,H49:H51,H53:H54)</f>
         <v>0.207654321</v>
       </c>
-      <c r="I31" s="88"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="83"/>
-      <c r="AD31" s="83"/>
-      <c r="AE31" s="83"/>
-      <c r="AF31" s="83"/>
-      <c r="AG31" s="83"/>
-      <c r="AH31" s="81"/>
-      <c r="AI31" s="81"/>
-      <c r="AJ31" s="81"/>
-      <c r="AK31" s="81"/>
-      <c r="AL31" s="81"/>
-      <c r="AM31" s="81"/>
-      <c r="AN31" s="81"/>
-      <c r="AO31" s="81"/>
-      <c r="AP31" s="81"/>
-      <c r="AQ31" s="81"/>
-      <c r="AR31" s="84"/>
-      <c r="AS31" s="84"/>
-      <c r="AT31" s="84"/>
-      <c r="AU31" s="84"/>
-      <c r="AV31" s="84"/>
-      <c r="AW31" s="81"/>
-      <c r="AX31" s="81"/>
-      <c r="AY31" s="81"/>
-      <c r="AZ31" s="81"/>
-      <c r="BA31" s="81"/>
-      <c r="BB31" s="81"/>
-      <c r="BC31" s="81"/>
-      <c r="BD31" s="81"/>
-      <c r="BE31" s="81"/>
-      <c r="BF31" s="81"/>
-      <c r="BG31" s="85"/>
-      <c r="BH31" s="85"/>
-      <c r="BI31" s="85"/>
-      <c r="BJ31" s="85"/>
-      <c r="BK31" s="85"/>
-      <c r="BL31" s="81"/>
-      <c r="BM31" s="81"/>
-      <c r="BN31" s="81"/>
-      <c r="BO31" s="81"/>
-      <c r="BP31" s="86"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="96"/>
+      <c r="AC31" s="84"/>
+      <c r="AD31" s="84"/>
+      <c r="AE31" s="84"/>
+      <c r="AF31" s="84"/>
+      <c r="AG31" s="84"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
+      <c r="AR31" s="85"/>
+      <c r="AS31" s="85"/>
+      <c r="AT31" s="85"/>
+      <c r="AU31" s="85"/>
+      <c r="AV31" s="85"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="82"/>
+      <c r="BA31" s="82"/>
+      <c r="BB31" s="82"/>
+      <c r="BC31" s="82"/>
+      <c r="BD31" s="82"/>
+      <c r="BE31" s="82"/>
+      <c r="BF31" s="82"/>
+      <c r="BG31" s="86"/>
+      <c r="BH31" s="86"/>
+      <c r="BI31" s="86"/>
+      <c r="BJ31" s="86"/>
+      <c r="BK31" s="86"/>
+      <c r="BL31" s="82"/>
+      <c r="BM31" s="82"/>
+      <c r="BN31" s="82"/>
+      <c r="BO31" s="82"/>
+      <c r="BP31" s="87"/>
       <c r="BQ31" s="60"/>
     </row>
     <row r="32" ht="21.0" customHeight="1">
@@ -4324,175 +4858,175 @@
     </row>
     <row r="33" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A33" s="60"/>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="77" t="s">
         <v>86</v>
       </c>
       <c r="C33" s="62" t="s">
         <v>87</v>
       </c>
       <c r="D33" s="62"/>
-      <c r="E33" s="63">
+      <c r="E33" s="64">
         <v>45379.0</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="64">
         <v>45379.0</v>
       </c>
-      <c r="G33" s="64">
+      <c r="G33" s="65">
         <f t="shared" ref="G33:G40" si="5">NETWORKDAYS(E33,F33)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="65">
+      <c r="H33" s="66">
         <v>0.0</v>
       </c>
-      <c r="I33" s="68"/>
+      <c r="I33" s="69"/>
       <c r="J33" s="114"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="71"/>
-      <c r="AE33" s="71"/>
-      <c r="AF33" s="71"/>
-      <c r="AG33" s="71"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="69"/>
-      <c r="AK33" s="69"/>
-      <c r="AL33" s="69"/>
-      <c r="AM33" s="69"/>
-      <c r="AN33" s="69"/>
-      <c r="AO33" s="69"/>
-      <c r="AP33" s="69"/>
-      <c r="AQ33" s="69"/>
-      <c r="AR33" s="73"/>
-      <c r="AS33" s="73"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="69"/>
-      <c r="AX33" s="69"/>
-      <c r="AY33" s="69"/>
-      <c r="AZ33" s="69"/>
-      <c r="BA33" s="69"/>
-      <c r="BB33" s="69"/>
-      <c r="BC33" s="69"/>
-      <c r="BD33" s="69"/>
-      <c r="BE33" s="69"/>
-      <c r="BF33" s="69"/>
-      <c r="BG33" s="74"/>
-      <c r="BH33" s="74"/>
-      <c r="BI33" s="74"/>
-      <c r="BJ33" s="74"/>
-      <c r="BK33" s="74"/>
-      <c r="BL33" s="69"/>
-      <c r="BM33" s="69"/>
-      <c r="BN33" s="69"/>
-      <c r="BO33" s="69"/>
-      <c r="BP33" s="75"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="70"/>
+      <c r="AJ33" s="70"/>
+      <c r="AK33" s="70"/>
+      <c r="AL33" s="70"/>
+      <c r="AM33" s="70"/>
+      <c r="AN33" s="70"/>
+      <c r="AO33" s="70"/>
+      <c r="AP33" s="70"/>
+      <c r="AQ33" s="70"/>
+      <c r="AR33" s="74"/>
+      <c r="AS33" s="74"/>
+      <c r="AT33" s="74"/>
+      <c r="AU33" s="74"/>
+      <c r="AV33" s="74"/>
+      <c r="AW33" s="70"/>
+      <c r="AX33" s="70"/>
+      <c r="AY33" s="70"/>
+      <c r="AZ33" s="70"/>
+      <c r="BA33" s="70"/>
+      <c r="BB33" s="70"/>
+      <c r="BC33" s="70"/>
+      <c r="BD33" s="70"/>
+      <c r="BE33" s="70"/>
+      <c r="BF33" s="70"/>
+      <c r="BG33" s="75"/>
+      <c r="BH33" s="75"/>
+      <c r="BI33" s="75"/>
+      <c r="BJ33" s="75"/>
+      <c r="BK33" s="75"/>
+      <c r="BL33" s="70"/>
+      <c r="BM33" s="70"/>
+      <c r="BN33" s="70"/>
+      <c r="BO33" s="70"/>
+      <c r="BP33" s="76"/>
       <c r="BQ33" s="60"/>
     </row>
     <row r="34" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A34" s="60"/>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="77" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="62" t="s">
         <v>89</v>
       </c>
       <c r="D34" s="62"/>
-      <c r="E34" s="63">
+      <c r="E34" s="64">
         <v>45379.0</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="64">
         <v>45380.0</v>
       </c>
-      <c r="G34" s="64">
+      <c r="G34" s="65">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H34" s="65">
+      <c r="H34" s="66">
         <v>0.0</v>
       </c>
-      <c r="I34" s="68"/>
+      <c r="I34" s="69"/>
       <c r="J34" s="114"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="69"/>
-      <c r="AB34" s="69"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="71"/>
-      <c r="AF34" s="71"/>
-      <c r="AG34" s="71"/>
-      <c r="AH34" s="69"/>
-      <c r="AI34" s="69"/>
-      <c r="AJ34" s="69"/>
-      <c r="AK34" s="69"/>
-      <c r="AL34" s="69"/>
-      <c r="AM34" s="69"/>
-      <c r="AN34" s="69"/>
-      <c r="AO34" s="69"/>
-      <c r="AP34" s="69"/>
-      <c r="AQ34" s="69"/>
-      <c r="AR34" s="73"/>
-      <c r="AS34" s="73"/>
-      <c r="AT34" s="73"/>
-      <c r="AU34" s="73"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="69"/>
-      <c r="AX34" s="69"/>
-      <c r="AY34" s="69"/>
-      <c r="AZ34" s="69"/>
-      <c r="BA34" s="69"/>
-      <c r="BB34" s="69"/>
-      <c r="BC34" s="69"/>
-      <c r="BD34" s="69"/>
-      <c r="BE34" s="69"/>
-      <c r="BF34" s="69"/>
-      <c r="BG34" s="74"/>
-      <c r="BH34" s="74"/>
-      <c r="BI34" s="74"/>
-      <c r="BJ34" s="74"/>
-      <c r="BK34" s="74"/>
-      <c r="BL34" s="69"/>
-      <c r="BM34" s="69"/>
-      <c r="BN34" s="69"/>
-      <c r="BO34" s="69"/>
-      <c r="BP34" s="75"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="72"/>
+      <c r="AH34" s="70"/>
+      <c r="AI34" s="70"/>
+      <c r="AJ34" s="70"/>
+      <c r="AK34" s="70"/>
+      <c r="AL34" s="70"/>
+      <c r="AM34" s="70"/>
+      <c r="AN34" s="70"/>
+      <c r="AO34" s="70"/>
+      <c r="AP34" s="70"/>
+      <c r="AQ34" s="70"/>
+      <c r="AR34" s="74"/>
+      <c r="AS34" s="74"/>
+      <c r="AT34" s="74"/>
+      <c r="AU34" s="74"/>
+      <c r="AV34" s="74"/>
+      <c r="AW34" s="70"/>
+      <c r="AX34" s="70"/>
+      <c r="AY34" s="70"/>
+      <c r="AZ34" s="70"/>
+      <c r="BA34" s="70"/>
+      <c r="BB34" s="70"/>
+      <c r="BC34" s="70"/>
+      <c r="BD34" s="70"/>
+      <c r="BE34" s="70"/>
+      <c r="BF34" s="70"/>
+      <c r="BG34" s="75"/>
+      <c r="BH34" s="75"/>
+      <c r="BI34" s="75"/>
+      <c r="BJ34" s="75"/>
+      <c r="BK34" s="75"/>
+      <c r="BL34" s="70"/>
+      <c r="BM34" s="70"/>
+      <c r="BN34" s="70"/>
+      <c r="BO34" s="70"/>
+      <c r="BP34" s="76"/>
       <c r="BQ34" s="60"/>
     </row>
     <row r="35" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A35" s="60"/>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="77" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="62" t="s">
@@ -4501,163 +5035,163 @@
       <c r="D35" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="64">
         <v>45383.0</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="64">
         <v>45385.0</v>
       </c>
-      <c r="G35" s="64">
+      <c r="G35" s="65">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="H35" s="92">
+      <c r="H35" s="93">
         <v>0.0</v>
       </c>
-      <c r="I35" s="88"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="81"/>
-      <c r="X35" s="81"/>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="81"/>
-      <c r="AB35" s="81"/>
-      <c r="AC35" s="83"/>
-      <c r="AD35" s="83"/>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="83"/>
-      <c r="AG35" s="83"/>
-      <c r="AH35" s="81"/>
-      <c r="AI35" s="81"/>
-      <c r="AJ35" s="81"/>
-      <c r="AK35" s="81"/>
-      <c r="AL35" s="81"/>
-      <c r="AM35" s="81"/>
-      <c r="AN35" s="81"/>
-      <c r="AO35" s="81"/>
-      <c r="AP35" s="81"/>
-      <c r="AQ35" s="81"/>
-      <c r="AR35" s="84"/>
-      <c r="AS35" s="84"/>
-      <c r="AT35" s="84"/>
-      <c r="AU35" s="84"/>
-      <c r="AV35" s="84"/>
-      <c r="AW35" s="81"/>
-      <c r="AX35" s="81"/>
-      <c r="AY35" s="81"/>
-      <c r="AZ35" s="81"/>
-      <c r="BA35" s="81"/>
-      <c r="BB35" s="81"/>
-      <c r="BC35" s="81"/>
-      <c r="BD35" s="81"/>
-      <c r="BE35" s="81"/>
-      <c r="BF35" s="81"/>
-      <c r="BG35" s="85"/>
-      <c r="BH35" s="85"/>
-      <c r="BI35" s="85"/>
-      <c r="BJ35" s="85"/>
-      <c r="BK35" s="85"/>
-      <c r="BL35" s="81"/>
-      <c r="BM35" s="81"/>
-      <c r="BN35" s="81"/>
-      <c r="BO35" s="81"/>
-      <c r="BP35" s="86"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="70"/>
+      <c r="V35" s="70"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="84"/>
+      <c r="AD35" s="84"/>
+      <c r="AE35" s="84"/>
+      <c r="AF35" s="84"/>
+      <c r="AG35" s="84"/>
+      <c r="AH35" s="82"/>
+      <c r="AI35" s="82"/>
+      <c r="AJ35" s="82"/>
+      <c r="AK35" s="82"/>
+      <c r="AL35" s="82"/>
+      <c r="AM35" s="82"/>
+      <c r="AN35" s="82"/>
+      <c r="AO35" s="82"/>
+      <c r="AP35" s="82"/>
+      <c r="AQ35" s="82"/>
+      <c r="AR35" s="85"/>
+      <c r="AS35" s="85"/>
+      <c r="AT35" s="85"/>
+      <c r="AU35" s="85"/>
+      <c r="AV35" s="85"/>
+      <c r="AW35" s="82"/>
+      <c r="AX35" s="82"/>
+      <c r="AY35" s="82"/>
+      <c r="AZ35" s="82"/>
+      <c r="BA35" s="82"/>
+      <c r="BB35" s="82"/>
+      <c r="BC35" s="82"/>
+      <c r="BD35" s="82"/>
+      <c r="BE35" s="82"/>
+      <c r="BF35" s="82"/>
+      <c r="BG35" s="86"/>
+      <c r="BH35" s="86"/>
+      <c r="BI35" s="86"/>
+      <c r="BJ35" s="86"/>
+      <c r="BK35" s="86"/>
+      <c r="BL35" s="82"/>
+      <c r="BM35" s="82"/>
+      <c r="BN35" s="82"/>
+      <c r="BO35" s="82"/>
+      <c r="BP35" s="87"/>
       <c r="BQ35" s="60"/>
     </row>
     <row r="36" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A36" s="60"/>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="77" t="s">
         <v>92</v>
       </c>
       <c r="C36" s="62" t="s">
         <v>93</v>
       </c>
       <c r="D36" s="62"/>
-      <c r="E36" s="63">
+      <c r="E36" s="64">
         <v>45385.0</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="64">
         <v>45385.0</v>
       </c>
-      <c r="G36" s="64">
+      <c r="G36" s="65">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H36" s="65">
+      <c r="H36" s="66">
         <v>0.0</v>
       </c>
-      <c r="I36" s="68"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="114"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="69"/>
-      <c r="AC36" s="71"/>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="71"/>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="71"/>
-      <c r="AH36" s="69"/>
-      <c r="AI36" s="69"/>
-      <c r="AJ36" s="69"/>
-      <c r="AK36" s="69"/>
-      <c r="AL36" s="69"/>
-      <c r="AM36" s="69"/>
-      <c r="AN36" s="69"/>
-      <c r="AO36" s="69"/>
-      <c r="AP36" s="69"/>
-      <c r="AQ36" s="69"/>
-      <c r="AR36" s="73"/>
-      <c r="AS36" s="73"/>
-      <c r="AT36" s="73"/>
-      <c r="AU36" s="73"/>
-      <c r="AV36" s="73"/>
-      <c r="AW36" s="69"/>
-      <c r="AX36" s="69"/>
-      <c r="AY36" s="69"/>
-      <c r="AZ36" s="69"/>
-      <c r="BA36" s="69"/>
-      <c r="BB36" s="69"/>
-      <c r="BC36" s="69"/>
-      <c r="BD36" s="69"/>
-      <c r="BE36" s="69"/>
-      <c r="BF36" s="69"/>
-      <c r="BG36" s="74"/>
-      <c r="BH36" s="74"/>
-      <c r="BI36" s="74"/>
-      <c r="BJ36" s="74"/>
-      <c r="BK36" s="74"/>
-      <c r="BL36" s="69"/>
-      <c r="BM36" s="69"/>
-      <c r="BN36" s="69"/>
-      <c r="BO36" s="69"/>
-      <c r="BP36" s="75"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="83"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="70"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="70"/>
+      <c r="V36" s="70"/>
+      <c r="W36" s="70"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="70"/>
+      <c r="Z36" s="70"/>
+      <c r="AA36" s="70"/>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="72"/>
+      <c r="AG36" s="72"/>
+      <c r="AH36" s="70"/>
+      <c r="AI36" s="70"/>
+      <c r="AJ36" s="70"/>
+      <c r="AK36" s="70"/>
+      <c r="AL36" s="70"/>
+      <c r="AM36" s="70"/>
+      <c r="AN36" s="70"/>
+      <c r="AO36" s="70"/>
+      <c r="AP36" s="70"/>
+      <c r="AQ36" s="70"/>
+      <c r="AR36" s="74"/>
+      <c r="AS36" s="74"/>
+      <c r="AT36" s="74"/>
+      <c r="AU36" s="74"/>
+      <c r="AV36" s="74"/>
+      <c r="AW36" s="70"/>
+      <c r="AX36" s="70"/>
+      <c r="AY36" s="70"/>
+      <c r="AZ36" s="70"/>
+      <c r="BA36" s="70"/>
+      <c r="BB36" s="70"/>
+      <c r="BC36" s="70"/>
+      <c r="BD36" s="70"/>
+      <c r="BE36" s="70"/>
+      <c r="BF36" s="70"/>
+      <c r="BG36" s="75"/>
+      <c r="BH36" s="75"/>
+      <c r="BI36" s="75"/>
+      <c r="BJ36" s="75"/>
+      <c r="BK36" s="75"/>
+      <c r="BL36" s="70"/>
+      <c r="BM36" s="70"/>
+      <c r="BN36" s="70"/>
+      <c r="BO36" s="70"/>
+      <c r="BP36" s="76"/>
       <c r="BQ36" s="60"/>
     </row>
     <row r="37" ht="17.25" customHeight="1" outlineLevel="1">
@@ -4671,84 +5205,84 @@
       <c r="D37" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="63">
+      <c r="E37" s="64">
         <v>45385.0</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="64">
         <v>45386.0</v>
       </c>
-      <c r="G37" s="64">
+      <c r="G37" s="65">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H37" s="92">
+      <c r="H37" s="93">
         <v>0.0</v>
       </c>
-      <c r="I37" s="68"/>
+      <c r="I37" s="69"/>
       <c r="J37" s="114"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="71"/>
-      <c r="AD37" s="71"/>
-      <c r="AE37" s="71"/>
-      <c r="AF37" s="71"/>
-      <c r="AG37" s="71"/>
-      <c r="AH37" s="69"/>
-      <c r="AI37" s="69"/>
-      <c r="AJ37" s="69"/>
-      <c r="AK37" s="69"/>
-      <c r="AL37" s="69"/>
-      <c r="AM37" s="69"/>
-      <c r="AN37" s="69"/>
-      <c r="AO37" s="69"/>
-      <c r="AP37" s="69"/>
-      <c r="AQ37" s="69"/>
-      <c r="AR37" s="73"/>
-      <c r="AS37" s="73"/>
-      <c r="AT37" s="73"/>
-      <c r="AU37" s="73"/>
-      <c r="AV37" s="73"/>
-      <c r="AW37" s="69"/>
-      <c r="AX37" s="69"/>
-      <c r="AY37" s="69"/>
-      <c r="AZ37" s="69"/>
-      <c r="BA37" s="69"/>
-      <c r="BB37" s="69"/>
-      <c r="BC37" s="69"/>
-      <c r="BD37" s="69"/>
-      <c r="BE37" s="69"/>
-      <c r="BF37" s="69"/>
-      <c r="BG37" s="74"/>
-      <c r="BH37" s="74"/>
-      <c r="BI37" s="74"/>
-      <c r="BJ37" s="74"/>
-      <c r="BK37" s="74"/>
-      <c r="BL37" s="69"/>
-      <c r="BM37" s="69"/>
-      <c r="BN37" s="69"/>
-      <c r="BO37" s="69"/>
-      <c r="BP37" s="75"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="70"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="70"/>
+      <c r="Z37" s="70"/>
+      <c r="AA37" s="70"/>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="72"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="70"/>
+      <c r="AJ37" s="70"/>
+      <c r="AK37" s="70"/>
+      <c r="AL37" s="70"/>
+      <c r="AM37" s="70"/>
+      <c r="AN37" s="70"/>
+      <c r="AO37" s="70"/>
+      <c r="AP37" s="70"/>
+      <c r="AQ37" s="70"/>
+      <c r="AR37" s="74"/>
+      <c r="AS37" s="74"/>
+      <c r="AT37" s="74"/>
+      <c r="AU37" s="74"/>
+      <c r="AV37" s="74"/>
+      <c r="AW37" s="70"/>
+      <c r="AX37" s="70"/>
+      <c r="AY37" s="70"/>
+      <c r="AZ37" s="70"/>
+      <c r="BA37" s="70"/>
+      <c r="BB37" s="70"/>
+      <c r="BC37" s="70"/>
+      <c r="BD37" s="70"/>
+      <c r="BE37" s="70"/>
+      <c r="BF37" s="70"/>
+      <c r="BG37" s="75"/>
+      <c r="BH37" s="75"/>
+      <c r="BI37" s="75"/>
+      <c r="BJ37" s="75"/>
+      <c r="BK37" s="75"/>
+      <c r="BL37" s="70"/>
+      <c r="BM37" s="70"/>
+      <c r="BN37" s="70"/>
+      <c r="BO37" s="70"/>
+      <c r="BP37" s="76"/>
       <c r="BQ37" s="60"/>
     </row>
     <row r="38" ht="24.75" customHeight="1" outlineLevel="1">
       <c r="A38" s="60"/>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="77" t="s">
         <v>96</v>
       </c>
       <c r="C38" s="62" t="s">
@@ -4757,80 +5291,80 @@
       <c r="D38" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="63">
+      <c r="E38" s="64">
         <v>45386.0</v>
       </c>
-      <c r="F38" s="63">
+      <c r="F38" s="64">
         <v>45387.0</v>
       </c>
-      <c r="G38" s="64">
+      <c r="G38" s="65">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H38" s="92">
+      <c r="H38" s="93">
         <f>AVERAGE(H33:H37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="68"/>
+      <c r="I38" s="69"/>
       <c r="J38" s="114"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="69"/>
-      <c r="AC38" s="71"/>
-      <c r="AD38" s="71"/>
-      <c r="AE38" s="71"/>
-      <c r="AF38" s="71"/>
-      <c r="AG38" s="71"/>
-      <c r="AH38" s="69"/>
-      <c r="AI38" s="69"/>
-      <c r="AJ38" s="69"/>
-      <c r="AK38" s="69"/>
-      <c r="AL38" s="69"/>
-      <c r="AM38" s="69"/>
-      <c r="AN38" s="69"/>
-      <c r="AO38" s="69"/>
-      <c r="AP38" s="69"/>
-      <c r="AQ38" s="69"/>
-      <c r="AR38" s="73"/>
-      <c r="AS38" s="73"/>
-      <c r="AT38" s="73"/>
-      <c r="AU38" s="73"/>
-      <c r="AV38" s="73"/>
-      <c r="AW38" s="69"/>
-      <c r="AX38" s="69"/>
-      <c r="AY38" s="69"/>
-      <c r="AZ38" s="69"/>
-      <c r="BA38" s="69"/>
-      <c r="BB38" s="69"/>
-      <c r="BC38" s="69"/>
-      <c r="BD38" s="69"/>
-      <c r="BE38" s="69"/>
-      <c r="BF38" s="69"/>
-      <c r="BG38" s="74"/>
-      <c r="BH38" s="74"/>
-      <c r="BI38" s="74"/>
-      <c r="BJ38" s="74"/>
-      <c r="BK38" s="74"/>
-      <c r="BL38" s="69"/>
-      <c r="BM38" s="69"/>
-      <c r="BN38" s="69"/>
-      <c r="BO38" s="69"/>
-      <c r="BP38" s="75"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="83"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="72"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="70"/>
+      <c r="AI38" s="70"/>
+      <c r="AJ38" s="70"/>
+      <c r="AK38" s="70"/>
+      <c r="AL38" s="70"/>
+      <c r="AM38" s="70"/>
+      <c r="AN38" s="70"/>
+      <c r="AO38" s="70"/>
+      <c r="AP38" s="70"/>
+      <c r="AQ38" s="70"/>
+      <c r="AR38" s="74"/>
+      <c r="AS38" s="74"/>
+      <c r="AT38" s="74"/>
+      <c r="AU38" s="74"/>
+      <c r="AV38" s="74"/>
+      <c r="AW38" s="70"/>
+      <c r="AX38" s="70"/>
+      <c r="AY38" s="70"/>
+      <c r="AZ38" s="70"/>
+      <c r="BA38" s="70"/>
+      <c r="BB38" s="70"/>
+      <c r="BC38" s="70"/>
+      <c r="BD38" s="70"/>
+      <c r="BE38" s="70"/>
+      <c r="BF38" s="70"/>
+      <c r="BG38" s="75"/>
+      <c r="BH38" s="75"/>
+      <c r="BI38" s="75"/>
+      <c r="BJ38" s="75"/>
+      <c r="BK38" s="75"/>
+      <c r="BL38" s="70"/>
+      <c r="BM38" s="70"/>
+      <c r="BN38" s="70"/>
+      <c r="BO38" s="70"/>
+      <c r="BP38" s="76"/>
       <c r="BQ38" s="60"/>
     </row>
     <row r="39" ht="17.25" customHeight="1" outlineLevel="1">
@@ -4848,7 +5382,7 @@
       <c r="F39" s="127">
         <v>45394.0</v>
       </c>
-      <c r="G39" s="64">
+      <c r="G39" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -4877,7 +5411,7 @@
       <c r="AB39" s="131"/>
       <c r="AC39" s="133"/>
       <c r="AD39" s="133"/>
-      <c r="AE39" s="134"/>
+      <c r="AE39" s="116"/>
       <c r="AF39" s="133"/>
       <c r="AG39" s="133"/>
       <c r="AH39" s="131"/>
@@ -4890,11 +5424,11 @@
       <c r="AO39" s="131"/>
       <c r="AP39" s="131"/>
       <c r="AQ39" s="131"/>
-      <c r="AR39" s="135"/>
-      <c r="AS39" s="135"/>
-      <c r="AT39" s="135"/>
-      <c r="AU39" s="135"/>
-      <c r="AV39" s="135"/>
+      <c r="AR39" s="134"/>
+      <c r="AS39" s="134"/>
+      <c r="AT39" s="134"/>
+      <c r="AU39" s="134"/>
+      <c r="AV39" s="134"/>
       <c r="AW39" s="131"/>
       <c r="AX39" s="131"/>
       <c r="AY39" s="131"/>
@@ -4905,102 +5439,102 @@
       <c r="BD39" s="131"/>
       <c r="BE39" s="131"/>
       <c r="BF39" s="131"/>
-      <c r="BG39" s="136"/>
-      <c r="BH39" s="136"/>
-      <c r="BI39" s="136"/>
-      <c r="BJ39" s="136"/>
-      <c r="BK39" s="136"/>
+      <c r="BG39" s="135"/>
+      <c r="BH39" s="135"/>
+      <c r="BI39" s="135"/>
+      <c r="BJ39" s="135"/>
+      <c r="BK39" s="135"/>
       <c r="BL39" s="131"/>
       <c r="BM39" s="131"/>
       <c r="BN39" s="131"/>
       <c r="BO39" s="131"/>
-      <c r="BP39" s="137"/>
+      <c r="BP39" s="136"/>
       <c r="BQ39" s="116"/>
     </row>
     <row r="40" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="139" t="s">
+      <c r="C40" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="140" t="s">
+      <c r="D40" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="141">
+      <c r="E40" s="140">
         <v>45390.0</v>
       </c>
-      <c r="F40" s="141">
+      <c r="F40" s="140">
         <v>45394.0</v>
       </c>
-      <c r="G40" s="64">
+      <c r="G40" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="H40" s="142">
+      <c r="H40" s="141">
         <v>0.0</v>
       </c>
-      <c r="I40" s="143"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="145"/>
-      <c r="L40" s="145"/>
-      <c r="M40" s="145"/>
-      <c r="N40" s="146"/>
-      <c r="O40" s="146"/>
-      <c r="P40" s="146"/>
-      <c r="Q40" s="146"/>
-      <c r="R40" s="146"/>
-      <c r="S40" s="145"/>
-      <c r="T40" s="145"/>
-      <c r="U40" s="145"/>
-      <c r="V40" s="145"/>
-      <c r="W40" s="145"/>
-      <c r="X40" s="145"/>
-      <c r="Y40" s="145"/>
-      <c r="Z40" s="145"/>
-      <c r="AA40" s="145"/>
-      <c r="AB40" s="145"/>
-      <c r="AC40" s="147"/>
-      <c r="AD40" s="147"/>
-      <c r="AE40" s="147"/>
-      <c r="AF40" s="147"/>
-      <c r="AG40" s="147"/>
-      <c r="AH40" s="145"/>
-      <c r="AI40" s="145"/>
-      <c r="AJ40" s="145"/>
-      <c r="AK40" s="145"/>
-      <c r="AL40" s="145"/>
-      <c r="AM40" s="145"/>
-      <c r="AN40" s="145"/>
-      <c r="AO40" s="145"/>
-      <c r="AP40" s="145"/>
-      <c r="AQ40" s="145"/>
-      <c r="AR40" s="148"/>
-      <c r="AS40" s="148"/>
-      <c r="AT40" s="148"/>
-      <c r="AU40" s="148"/>
-      <c r="AV40" s="148"/>
-      <c r="AW40" s="145"/>
-      <c r="AX40" s="145"/>
-      <c r="AY40" s="145"/>
-      <c r="AZ40" s="145"/>
-      <c r="BA40" s="145"/>
-      <c r="BB40" s="145"/>
-      <c r="BC40" s="145"/>
-      <c r="BD40" s="145"/>
-      <c r="BE40" s="145"/>
-      <c r="BF40" s="145"/>
-      <c r="BG40" s="149"/>
-      <c r="BH40" s="149"/>
-      <c r="BI40" s="149"/>
-      <c r="BJ40" s="149"/>
-      <c r="BK40" s="149"/>
-      <c r="BL40" s="145"/>
-      <c r="BM40" s="145"/>
-      <c r="BN40" s="145"/>
-      <c r="BO40" s="145"/>
-      <c r="BP40" s="150"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="144"/>
+      <c r="L40" s="144"/>
+      <c r="M40" s="144"/>
+      <c r="N40" s="145"/>
+      <c r="O40" s="145"/>
+      <c r="P40" s="145"/>
+      <c r="Q40" s="145"/>
+      <c r="R40" s="145"/>
+      <c r="S40" s="144"/>
+      <c r="T40" s="144"/>
+      <c r="U40" s="144"/>
+      <c r="V40" s="144"/>
+      <c r="W40" s="144"/>
+      <c r="X40" s="144"/>
+      <c r="Y40" s="144"/>
+      <c r="Z40" s="144"/>
+      <c r="AA40" s="144"/>
+      <c r="AB40" s="144"/>
+      <c r="AC40" s="146"/>
+      <c r="AD40" s="146"/>
+      <c r="AE40" s="146"/>
+      <c r="AF40" s="146"/>
+      <c r="AG40" s="146"/>
+      <c r="AH40" s="144"/>
+      <c r="AI40" s="144"/>
+      <c r="AJ40" s="144"/>
+      <c r="AK40" s="144"/>
+      <c r="AL40" s="144"/>
+      <c r="AM40" s="144"/>
+      <c r="AN40" s="144"/>
+      <c r="AO40" s="144"/>
+      <c r="AP40" s="144"/>
+      <c r="AQ40" s="144"/>
+      <c r="AR40" s="147"/>
+      <c r="AS40" s="147"/>
+      <c r="AT40" s="147"/>
+      <c r="AU40" s="147"/>
+      <c r="AV40" s="147"/>
+      <c r="AW40" s="144"/>
+      <c r="AX40" s="144"/>
+      <c r="AY40" s="144"/>
+      <c r="AZ40" s="144"/>
+      <c r="BA40" s="144"/>
+      <c r="BB40" s="144"/>
+      <c r="BC40" s="144"/>
+      <c r="BD40" s="144"/>
+      <c r="BE40" s="144"/>
+      <c r="BF40" s="144"/>
+      <c r="BG40" s="148"/>
+      <c r="BH40" s="148"/>
+      <c r="BI40" s="148"/>
+      <c r="BJ40" s="148"/>
+      <c r="BK40" s="148"/>
+      <c r="BL40" s="144"/>
+      <c r="BM40" s="144"/>
+      <c r="BN40" s="144"/>
+      <c r="BO40" s="144"/>
+      <c r="BP40" s="149"/>
       <c r="BQ40" s="116"/>
     </row>
     <row r="41" ht="21.0" customHeight="1">
@@ -5016,66 +5550,66 @@
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
       <c r="H41" s="55"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="89"/>
-      <c r="T41" s="89"/>
-      <c r="U41" s="89"/>
-      <c r="V41" s="89"/>
-      <c r="W41" s="89"/>
-      <c r="X41" s="89"/>
-      <c r="Y41" s="89"/>
-      <c r="Z41" s="89"/>
-      <c r="AA41" s="89"/>
-      <c r="AB41" s="89"/>
-      <c r="AC41" s="89"/>
-      <c r="AD41" s="89"/>
-      <c r="AE41" s="89"/>
-      <c r="AF41" s="89"/>
-      <c r="AG41" s="89"/>
-      <c r="AH41" s="89"/>
-      <c r="AI41" s="89"/>
-      <c r="AJ41" s="89"/>
-      <c r="AK41" s="89"/>
-      <c r="AL41" s="89"/>
-      <c r="AM41" s="89"/>
-      <c r="AN41" s="89"/>
-      <c r="AO41" s="89"/>
-      <c r="AP41" s="89"/>
-      <c r="AQ41" s="89"/>
-      <c r="AR41" s="89"/>
-      <c r="AS41" s="89"/>
-      <c r="AT41" s="89"/>
-      <c r="AU41" s="89"/>
-      <c r="AV41" s="89"/>
-      <c r="AW41" s="89"/>
-      <c r="AX41" s="89"/>
-      <c r="AY41" s="89"/>
-      <c r="AZ41" s="89"/>
-      <c r="BA41" s="89"/>
-      <c r="BB41" s="89"/>
-      <c r="BC41" s="89"/>
-      <c r="BD41" s="89"/>
-      <c r="BE41" s="89"/>
-      <c r="BF41" s="89"/>
-      <c r="BG41" s="89"/>
-      <c r="BH41" s="89"/>
-      <c r="BI41" s="89"/>
-      <c r="BJ41" s="89"/>
-      <c r="BK41" s="89"/>
-      <c r="BL41" s="89"/>
-      <c r="BM41" s="89"/>
-      <c r="BN41" s="89"/>
-      <c r="BO41" s="89"/>
-      <c r="BP41" s="89"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="90"/>
+      <c r="V41" s="90"/>
+      <c r="W41" s="90"/>
+      <c r="X41" s="90"/>
+      <c r="Y41" s="90"/>
+      <c r="Z41" s="90"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="90"/>
+      <c r="AC41" s="90"/>
+      <c r="AD41" s="90"/>
+      <c r="AE41" s="90"/>
+      <c r="AF41" s="90"/>
+      <c r="AG41" s="90"/>
+      <c r="AH41" s="90"/>
+      <c r="AI41" s="90"/>
+      <c r="AJ41" s="90"/>
+      <c r="AK41" s="90"/>
+      <c r="AL41" s="90"/>
+      <c r="AM41" s="90"/>
+      <c r="AN41" s="90"/>
+      <c r="AO41" s="90"/>
+      <c r="AP41" s="90"/>
+      <c r="AQ41" s="90"/>
+      <c r="AR41" s="90"/>
+      <c r="AS41" s="90"/>
+      <c r="AT41" s="90"/>
+      <c r="AU41" s="90"/>
+      <c r="AV41" s="90"/>
+      <c r="AW41" s="90"/>
+      <c r="AX41" s="90"/>
+      <c r="AY41" s="90"/>
+      <c r="AZ41" s="90"/>
+      <c r="BA41" s="90"/>
+      <c r="BB41" s="90"/>
+      <c r="BC41" s="90"/>
+      <c r="BD41" s="90"/>
+      <c r="BE41" s="90"/>
+      <c r="BF41" s="90"/>
+      <c r="BG41" s="90"/>
+      <c r="BH41" s="90"/>
+      <c r="BI41" s="90"/>
+      <c r="BJ41" s="90"/>
+      <c r="BK41" s="90"/>
+      <c r="BL41" s="90"/>
+      <c r="BM41" s="90"/>
+      <c r="BN41" s="90"/>
+      <c r="BO41" s="90"/>
+      <c r="BP41" s="90"/>
       <c r="BQ41" s="31"/>
     </row>
     <row r="42" ht="17.25" customHeight="1" outlineLevel="1">
@@ -5087,247 +5621,247 @@
         <v>105</v>
       </c>
       <c r="D42" s="62"/>
-      <c r="E42" s="63">
+      <c r="E42" s="64">
         <v>45397.0</v>
       </c>
-      <c r="F42" s="63">
+      <c r="F42" s="64">
         <v>45400.0</v>
       </c>
-      <c r="G42" s="64">
+      <c r="G42" s="65">
         <f t="shared" ref="G42:G47" si="6">NETWORKDAYS(E42,F42)</f>
         <v>4</v>
       </c>
-      <c r="H42" s="92">
+      <c r="H42" s="93">
         <v>0.0</v>
       </c>
-      <c r="I42" s="68"/>
+      <c r="I42" s="69"/>
       <c r="J42" s="114"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="69"/>
-      <c r="X42" s="69"/>
-      <c r="Y42" s="69"/>
-      <c r="Z42" s="69"/>
-      <c r="AA42" s="69"/>
-      <c r="AB42" s="69"/>
-      <c r="AC42" s="71"/>
-      <c r="AD42" s="71"/>
-      <c r="AE42" s="71"/>
-      <c r="AF42" s="71"/>
-      <c r="AG42" s="71"/>
-      <c r="AH42" s="69"/>
-      <c r="AI42" s="69"/>
-      <c r="AJ42" s="69"/>
-      <c r="AK42" s="69"/>
-      <c r="AL42" s="69"/>
-      <c r="AM42" s="69"/>
-      <c r="AN42" s="69"/>
-      <c r="AO42" s="69"/>
-      <c r="AP42" s="69"/>
-      <c r="AQ42" s="69"/>
-      <c r="AR42" s="73"/>
-      <c r="AS42" s="73"/>
-      <c r="AT42" s="73"/>
-      <c r="AU42" s="73"/>
-      <c r="AV42" s="73"/>
-      <c r="AW42" s="69"/>
-      <c r="AX42" s="69"/>
-      <c r="AY42" s="69"/>
-      <c r="AZ42" s="69"/>
-      <c r="BA42" s="69"/>
-      <c r="BB42" s="69"/>
-      <c r="BC42" s="69"/>
-      <c r="BD42" s="69"/>
-      <c r="BE42" s="69"/>
-      <c r="BF42" s="69"/>
-      <c r="BG42" s="74"/>
-      <c r="BH42" s="74"/>
-      <c r="BI42" s="74"/>
-      <c r="BJ42" s="74"/>
-      <c r="BK42" s="74"/>
-      <c r="BL42" s="69"/>
-      <c r="BM42" s="69"/>
-      <c r="BN42" s="69"/>
-      <c r="BO42" s="69"/>
-      <c r="BP42" s="75"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
+      <c r="P42" s="83"/>
+      <c r="Q42" s="83"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="70"/>
+      <c r="V42" s="70"/>
+      <c r="W42" s="70"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="72"/>
+      <c r="AD42" s="72"/>
+      <c r="AE42" s="72"/>
+      <c r="AF42" s="72"/>
+      <c r="AG42" s="72"/>
+      <c r="AH42" s="70"/>
+      <c r="AI42" s="70"/>
+      <c r="AJ42" s="70"/>
+      <c r="AK42" s="70"/>
+      <c r="AL42" s="70"/>
+      <c r="AM42" s="70"/>
+      <c r="AN42" s="70"/>
+      <c r="AO42" s="70"/>
+      <c r="AP42" s="70"/>
+      <c r="AQ42" s="70"/>
+      <c r="AR42" s="74"/>
+      <c r="AS42" s="74"/>
+      <c r="AT42" s="74"/>
+      <c r="AU42" s="74"/>
+      <c r="AV42" s="74"/>
+      <c r="AW42" s="70"/>
+      <c r="AX42" s="70"/>
+      <c r="AY42" s="70"/>
+      <c r="AZ42" s="70"/>
+      <c r="BA42" s="70"/>
+      <c r="BB42" s="70"/>
+      <c r="BC42" s="70"/>
+      <c r="BD42" s="70"/>
+      <c r="BE42" s="70"/>
+      <c r="BF42" s="70"/>
+      <c r="BG42" s="75"/>
+      <c r="BH42" s="75"/>
+      <c r="BI42" s="75"/>
+      <c r="BJ42" s="75"/>
+      <c r="BK42" s="75"/>
+      <c r="BL42" s="70"/>
+      <c r="BM42" s="70"/>
+      <c r="BN42" s="70"/>
+      <c r="BO42" s="70"/>
+      <c r="BP42" s="76"/>
       <c r="BQ42" s="60"/>
     </row>
     <row r="43" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A43" s="60"/>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="77" t="s">
         <v>106</v>
       </c>
       <c r="C43" s="62" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="62"/>
-      <c r="E43" s="63">
+      <c r="E43" s="64">
         <v>45397.0</v>
       </c>
-      <c r="F43" s="63">
+      <c r="F43" s="64">
         <v>45401.0</v>
       </c>
-      <c r="G43" s="64">
+      <c r="G43" s="65">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="H43" s="92">
+      <c r="H43" s="93">
         <v>0.0</v>
       </c>
-      <c r="I43" s="88"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="69"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="81"/>
-      <c r="X43" s="81"/>
-      <c r="Y43" s="81"/>
-      <c r="Z43" s="81"/>
-      <c r="AA43" s="81"/>
-      <c r="AB43" s="81"/>
-      <c r="AC43" s="83"/>
-      <c r="AD43" s="83"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="70"/>
+      <c r="U43" s="70"/>
+      <c r="V43" s="70"/>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="82"/>
+      <c r="AB43" s="82"/>
+      <c r="AC43" s="84"/>
+      <c r="AD43" s="84"/>
       <c r="AE43" s="133"/>
-      <c r="AF43" s="83"/>
-      <c r="AG43" s="83"/>
-      <c r="AH43" s="81"/>
-      <c r="AI43" s="81"/>
-      <c r="AJ43" s="81"/>
-      <c r="AK43" s="81"/>
-      <c r="AL43" s="81"/>
-      <c r="AM43" s="81"/>
-      <c r="AN43" s="81"/>
-      <c r="AO43" s="81"/>
-      <c r="AP43" s="81"/>
-      <c r="AQ43" s="81"/>
-      <c r="AR43" s="84"/>
-      <c r="AS43" s="84"/>
-      <c r="AT43" s="84"/>
-      <c r="AU43" s="84"/>
-      <c r="AV43" s="84"/>
-      <c r="AW43" s="81"/>
-      <c r="AX43" s="81"/>
-      <c r="AY43" s="81"/>
-      <c r="AZ43" s="81"/>
-      <c r="BA43" s="81"/>
-      <c r="BB43" s="81"/>
-      <c r="BC43" s="81"/>
-      <c r="BD43" s="81"/>
-      <c r="BE43" s="81"/>
-      <c r="BF43" s="81"/>
-      <c r="BG43" s="85"/>
-      <c r="BH43" s="85"/>
-      <c r="BI43" s="85"/>
-      <c r="BJ43" s="85"/>
-      <c r="BK43" s="85"/>
-      <c r="BL43" s="81"/>
-      <c r="BM43" s="81"/>
-      <c r="BN43" s="81"/>
-      <c r="BO43" s="81"/>
-      <c r="BP43" s="86"/>
+      <c r="AF43" s="84"/>
+      <c r="AG43" s="84"/>
+      <c r="AH43" s="82"/>
+      <c r="AI43" s="82"/>
+      <c r="AJ43" s="82"/>
+      <c r="AK43" s="82"/>
+      <c r="AL43" s="82"/>
+      <c r="AM43" s="82"/>
+      <c r="AN43" s="82"/>
+      <c r="AO43" s="82"/>
+      <c r="AP43" s="82"/>
+      <c r="AQ43" s="82"/>
+      <c r="AR43" s="85"/>
+      <c r="AS43" s="85"/>
+      <c r="AT43" s="85"/>
+      <c r="AU43" s="85"/>
+      <c r="AV43" s="85"/>
+      <c r="AW43" s="82"/>
+      <c r="AX43" s="82"/>
+      <c r="AY43" s="82"/>
+      <c r="AZ43" s="82"/>
+      <c r="BA43" s="82"/>
+      <c r="BB43" s="82"/>
+      <c r="BC43" s="82"/>
+      <c r="BD43" s="82"/>
+      <c r="BE43" s="82"/>
+      <c r="BF43" s="82"/>
+      <c r="BG43" s="86"/>
+      <c r="BH43" s="86"/>
+      <c r="BI43" s="86"/>
+      <c r="BJ43" s="86"/>
+      <c r="BK43" s="86"/>
+      <c r="BL43" s="82"/>
+      <c r="BM43" s="82"/>
+      <c r="BN43" s="82"/>
+      <c r="BO43" s="82"/>
+      <c r="BP43" s="87"/>
       <c r="BQ43" s="60"/>
     </row>
     <row r="44" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A44" s="60"/>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="77" t="s">
         <v>108</v>
       </c>
       <c r="C44" s="62" t="s">
         <v>109</v>
       </c>
       <c r="D44" s="62"/>
-      <c r="E44" s="63">
+      <c r="E44" s="64">
         <v>45397.0</v>
       </c>
-      <c r="F44" s="63">
+      <c r="F44" s="64">
         <v>45399.0</v>
       </c>
-      <c r="G44" s="64">
+      <c r="G44" s="65">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H44" s="92">
+      <c r="H44" s="93">
         <v>0.0</v>
       </c>
-      <c r="I44" s="88"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="69"/>
-      <c r="T44" s="69"/>
-      <c r="U44" s="69"/>
-      <c r="V44" s="69"/>
-      <c r="W44" s="81"/>
-      <c r="X44" s="81"/>
-      <c r="Y44" s="81"/>
-      <c r="Z44" s="81"/>
-      <c r="AA44" s="81"/>
-      <c r="AB44" s="81"/>
-      <c r="AC44" s="83"/>
-      <c r="AD44" s="83"/>
-      <c r="AE44" s="83"/>
-      <c r="AF44" s="83"/>
-      <c r="AG44" s="83"/>
-      <c r="AH44" s="81"/>
-      <c r="AI44" s="81"/>
-      <c r="AJ44" s="81"/>
-      <c r="AK44" s="81"/>
-      <c r="AL44" s="81"/>
-      <c r="AM44" s="81"/>
-      <c r="AN44" s="81"/>
-      <c r="AO44" s="81"/>
-      <c r="AP44" s="81"/>
-      <c r="AQ44" s="81"/>
-      <c r="AR44" s="84"/>
-      <c r="AS44" s="84"/>
-      <c r="AT44" s="84"/>
-      <c r="AU44" s="84"/>
-      <c r="AV44" s="84"/>
-      <c r="AW44" s="81"/>
-      <c r="AX44" s="81"/>
-      <c r="AY44" s="81"/>
-      <c r="AZ44" s="81"/>
-      <c r="BA44" s="81"/>
-      <c r="BB44" s="81"/>
-      <c r="BC44" s="81"/>
-      <c r="BD44" s="81"/>
-      <c r="BE44" s="81"/>
-      <c r="BF44" s="81"/>
-      <c r="BG44" s="85"/>
-      <c r="BH44" s="85"/>
-      <c r="BI44" s="85"/>
-      <c r="BJ44" s="85"/>
-      <c r="BK44" s="85"/>
-      <c r="BL44" s="81"/>
-      <c r="BM44" s="81"/>
-      <c r="BN44" s="81"/>
-      <c r="BO44" s="81"/>
-      <c r="BP44" s="86"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="83"/>
+      <c r="Q44" s="83"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="70"/>
+      <c r="T44" s="70"/>
+      <c r="U44" s="70"/>
+      <c r="V44" s="70"/>
+      <c r="W44" s="82"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="82"/>
+      <c r="AB44" s="82"/>
+      <c r="AC44" s="84"/>
+      <c r="AD44" s="84"/>
+      <c r="AE44" s="84"/>
+      <c r="AF44" s="84"/>
+      <c r="AG44" s="84"/>
+      <c r="AH44" s="82"/>
+      <c r="AI44" s="82"/>
+      <c r="AJ44" s="82"/>
+      <c r="AK44" s="82"/>
+      <c r="AL44" s="82"/>
+      <c r="AM44" s="82"/>
+      <c r="AN44" s="82"/>
+      <c r="AO44" s="82"/>
+      <c r="AP44" s="82"/>
+      <c r="AQ44" s="82"/>
+      <c r="AR44" s="85"/>
+      <c r="AS44" s="85"/>
+      <c r="AT44" s="85"/>
+      <c r="AU44" s="85"/>
+      <c r="AV44" s="85"/>
+      <c r="AW44" s="82"/>
+      <c r="AX44" s="82"/>
+      <c r="AY44" s="82"/>
+      <c r="AZ44" s="82"/>
+      <c r="BA44" s="82"/>
+      <c r="BB44" s="82"/>
+      <c r="BC44" s="82"/>
+      <c r="BD44" s="82"/>
+      <c r="BE44" s="82"/>
+      <c r="BF44" s="82"/>
+      <c r="BG44" s="86"/>
+      <c r="BH44" s="86"/>
+      <c r="BI44" s="86"/>
+      <c r="BJ44" s="86"/>
+      <c r="BK44" s="86"/>
+      <c r="BL44" s="82"/>
+      <c r="BM44" s="82"/>
+      <c r="BN44" s="82"/>
+      <c r="BO44" s="82"/>
+      <c r="BP44" s="87"/>
       <c r="BQ44" s="60"/>
     </row>
     <row r="45" ht="17.25" customHeight="1" outlineLevel="1">
@@ -5339,79 +5873,79 @@
         <v>111</v>
       </c>
       <c r="D45" s="62"/>
-      <c r="E45" s="63">
+      <c r="E45" s="64">
         <v>45399.0</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="64">
         <v>45406.0</v>
       </c>
-      <c r="G45" s="64">
+      <c r="G45" s="65">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="H45" s="92">
+      <c r="H45" s="93">
         <v>0.0</v>
       </c>
-      <c r="I45" s="88"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="70"/>
-      <c r="O45" s="70"/>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="70"/>
-      <c r="R45" s="70"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="69"/>
-      <c r="U45" s="69"/>
-      <c r="V45" s="69"/>
-      <c r="W45" s="81"/>
-      <c r="X45" s="81"/>
-      <c r="Y45" s="81"/>
-      <c r="Z45" s="81"/>
-      <c r="AA45" s="81"/>
-      <c r="AB45" s="81"/>
-      <c r="AC45" s="83"/>
-      <c r="AD45" s="83"/>
-      <c r="AE45" s="83"/>
-      <c r="AF45" s="83"/>
-      <c r="AG45" s="83"/>
-      <c r="AH45" s="81"/>
-      <c r="AI45" s="81"/>
-      <c r="AJ45" s="81"/>
-      <c r="AK45" s="81"/>
-      <c r="AL45" s="81"/>
-      <c r="AM45" s="81"/>
-      <c r="AN45" s="81"/>
-      <c r="AO45" s="81"/>
-      <c r="AP45" s="81"/>
-      <c r="AQ45" s="81"/>
-      <c r="AR45" s="84"/>
-      <c r="AS45" s="84"/>
-      <c r="AT45" s="84"/>
-      <c r="AU45" s="84"/>
-      <c r="AV45" s="84"/>
-      <c r="AW45" s="81"/>
-      <c r="AX45" s="81"/>
-      <c r="AY45" s="81"/>
-      <c r="AZ45" s="81"/>
-      <c r="BA45" s="81"/>
-      <c r="BB45" s="81"/>
-      <c r="BC45" s="81"/>
-      <c r="BD45" s="81"/>
-      <c r="BE45" s="81"/>
-      <c r="BF45" s="81"/>
-      <c r="BG45" s="85"/>
-      <c r="BH45" s="85"/>
-      <c r="BI45" s="85"/>
-      <c r="BJ45" s="85"/>
-      <c r="BK45" s="85"/>
-      <c r="BL45" s="81"/>
-      <c r="BM45" s="81"/>
-      <c r="BN45" s="81"/>
-      <c r="BO45" s="81"/>
-      <c r="BP45" s="86"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="70"/>
+      <c r="U45" s="70"/>
+      <c r="V45" s="70"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="82"/>
+      <c r="AC45" s="84"/>
+      <c r="AD45" s="84"/>
+      <c r="AE45" s="84"/>
+      <c r="AF45" s="84"/>
+      <c r="AG45" s="84"/>
+      <c r="AH45" s="82"/>
+      <c r="AI45" s="82"/>
+      <c r="AJ45" s="82"/>
+      <c r="AK45" s="82"/>
+      <c r="AL45" s="82"/>
+      <c r="AM45" s="82"/>
+      <c r="AN45" s="82"/>
+      <c r="AO45" s="82"/>
+      <c r="AP45" s="82"/>
+      <c r="AQ45" s="82"/>
+      <c r="AR45" s="85"/>
+      <c r="AS45" s="85"/>
+      <c r="AT45" s="85"/>
+      <c r="AU45" s="85"/>
+      <c r="AV45" s="85"/>
+      <c r="AW45" s="82"/>
+      <c r="AX45" s="82"/>
+      <c r="AY45" s="82"/>
+      <c r="AZ45" s="82"/>
+      <c r="BA45" s="82"/>
+      <c r="BB45" s="82"/>
+      <c r="BC45" s="82"/>
+      <c r="BD45" s="82"/>
+      <c r="BE45" s="82"/>
+      <c r="BF45" s="82"/>
+      <c r="BG45" s="86"/>
+      <c r="BH45" s="86"/>
+      <c r="BI45" s="86"/>
+      <c r="BJ45" s="86"/>
+      <c r="BK45" s="86"/>
+      <c r="BL45" s="82"/>
+      <c r="BM45" s="82"/>
+      <c r="BN45" s="82"/>
+      <c r="BO45" s="82"/>
+      <c r="BP45" s="87"/>
       <c r="BQ45" s="60"/>
     </row>
     <row r="46" ht="17.25" customHeight="1" outlineLevel="1">
@@ -5423,79 +5957,79 @@
         <v>113</v>
       </c>
       <c r="D46" s="62"/>
-      <c r="E46" s="63">
+      <c r="E46" s="64">
         <v>45400.0</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="64">
         <v>45405.0</v>
       </c>
-      <c r="G46" s="64">
+      <c r="G46" s="65">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H46" s="115">
         <v>0.0</v>
       </c>
-      <c r="I46" s="88"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="70"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="69"/>
-      <c r="U46" s="69"/>
-      <c r="V46" s="69"/>
-      <c r="W46" s="81"/>
-      <c r="X46" s="81"/>
-      <c r="Y46" s="81"/>
-      <c r="Z46" s="81"/>
-      <c r="AA46" s="81"/>
-      <c r="AB46" s="81"/>
-      <c r="AC46" s="83"/>
-      <c r="AD46" s="83"/>
-      <c r="AE46" s="83"/>
-      <c r="AF46" s="83"/>
-      <c r="AG46" s="83"/>
-      <c r="AH46" s="81"/>
-      <c r="AI46" s="81"/>
-      <c r="AJ46" s="81"/>
-      <c r="AK46" s="81"/>
-      <c r="AL46" s="81"/>
-      <c r="AM46" s="81"/>
-      <c r="AN46" s="81"/>
-      <c r="AO46" s="81"/>
-      <c r="AP46" s="81"/>
-      <c r="AQ46" s="81"/>
-      <c r="AR46" s="84"/>
-      <c r="AS46" s="84"/>
-      <c r="AT46" s="84"/>
-      <c r="AU46" s="84"/>
-      <c r="AV46" s="84"/>
-      <c r="AW46" s="81"/>
-      <c r="AX46" s="81"/>
-      <c r="AY46" s="81"/>
-      <c r="AZ46" s="81"/>
-      <c r="BA46" s="81"/>
-      <c r="BB46" s="81"/>
-      <c r="BC46" s="81"/>
-      <c r="BD46" s="81"/>
-      <c r="BE46" s="81"/>
-      <c r="BF46" s="81"/>
-      <c r="BG46" s="85"/>
-      <c r="BH46" s="85"/>
-      <c r="BI46" s="85"/>
-      <c r="BJ46" s="85"/>
-      <c r="BK46" s="85"/>
-      <c r="BL46" s="81"/>
-      <c r="BM46" s="81"/>
-      <c r="BN46" s="81"/>
-      <c r="BO46" s="81"/>
-      <c r="BP46" s="86"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="70"/>
+      <c r="U46" s="70"/>
+      <c r="V46" s="70"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="82"/>
+      <c r="Z46" s="82"/>
+      <c r="AA46" s="82"/>
+      <c r="AB46" s="82"/>
+      <c r="AC46" s="84"/>
+      <c r="AD46" s="84"/>
+      <c r="AE46" s="84"/>
+      <c r="AF46" s="84"/>
+      <c r="AG46" s="84"/>
+      <c r="AH46" s="82"/>
+      <c r="AI46" s="82"/>
+      <c r="AJ46" s="82"/>
+      <c r="AK46" s="82"/>
+      <c r="AL46" s="82"/>
+      <c r="AM46" s="82"/>
+      <c r="AN46" s="82"/>
+      <c r="AO46" s="82"/>
+      <c r="AP46" s="82"/>
+      <c r="AQ46" s="82"/>
+      <c r="AR46" s="85"/>
+      <c r="AS46" s="85"/>
+      <c r="AT46" s="85"/>
+      <c r="AU46" s="85"/>
+      <c r="AV46" s="85"/>
+      <c r="AW46" s="82"/>
+      <c r="AX46" s="82"/>
+      <c r="AY46" s="82"/>
+      <c r="AZ46" s="82"/>
+      <c r="BA46" s="82"/>
+      <c r="BB46" s="82"/>
+      <c r="BC46" s="82"/>
+      <c r="BD46" s="82"/>
+      <c r="BE46" s="82"/>
+      <c r="BF46" s="82"/>
+      <c r="BG46" s="86"/>
+      <c r="BH46" s="86"/>
+      <c r="BI46" s="86"/>
+      <c r="BJ46" s="86"/>
+      <c r="BK46" s="86"/>
+      <c r="BL46" s="82"/>
+      <c r="BM46" s="82"/>
+      <c r="BN46" s="82"/>
+      <c r="BO46" s="82"/>
+      <c r="BP46" s="87"/>
       <c r="BQ46" s="60"/>
     </row>
     <row r="47" ht="17.25" customHeight="1" outlineLevel="1">
@@ -5507,79 +6041,79 @@
         <v>115</v>
       </c>
       <c r="D47" s="62"/>
-      <c r="E47" s="151">
+      <c r="E47" s="150">
         <v>45401.0</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="64">
         <v>45406.0</v>
       </c>
-      <c r="G47" s="64">
+      <c r="G47" s="65">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="H47" s="92">
+      <c r="H47" s="93">
         <v>0.0</v>
       </c>
-      <c r="I47" s="68"/>
+      <c r="I47" s="69"/>
       <c r="J47" s="114"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="69"/>
-      <c r="T47" s="69"/>
-      <c r="U47" s="69"/>
-      <c r="V47" s="69"/>
-      <c r="W47" s="69"/>
-      <c r="X47" s="69"/>
-      <c r="Y47" s="69"/>
-      <c r="Z47" s="69"/>
-      <c r="AA47" s="69"/>
-      <c r="AB47" s="69"/>
-      <c r="AC47" s="71"/>
-      <c r="AD47" s="71"/>
-      <c r="AE47" s="71"/>
-      <c r="AF47" s="71"/>
-      <c r="AG47" s="71"/>
-      <c r="AH47" s="69"/>
-      <c r="AI47" s="69"/>
-      <c r="AJ47" s="69"/>
-      <c r="AK47" s="69"/>
-      <c r="AL47" s="69"/>
-      <c r="AM47" s="69"/>
-      <c r="AN47" s="69"/>
-      <c r="AO47" s="69"/>
-      <c r="AP47" s="69"/>
-      <c r="AQ47" s="69"/>
-      <c r="AR47" s="73"/>
-      <c r="AS47" s="73"/>
-      <c r="AT47" s="73"/>
-      <c r="AU47" s="73"/>
-      <c r="AV47" s="73"/>
-      <c r="AW47" s="69"/>
-      <c r="AX47" s="69"/>
-      <c r="AY47" s="69"/>
-      <c r="AZ47" s="69"/>
-      <c r="BA47" s="69"/>
-      <c r="BB47" s="69"/>
-      <c r="BC47" s="69"/>
-      <c r="BD47" s="69"/>
-      <c r="BE47" s="69"/>
-      <c r="BF47" s="69"/>
-      <c r="BG47" s="74"/>
-      <c r="BH47" s="74"/>
-      <c r="BI47" s="74"/>
-      <c r="BJ47" s="74"/>
-      <c r="BK47" s="74"/>
-      <c r="BL47" s="69"/>
-      <c r="BM47" s="69"/>
-      <c r="BN47" s="69"/>
-      <c r="BO47" s="69"/>
-      <c r="BP47" s="75"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="70"/>
+      <c r="T47" s="70"/>
+      <c r="U47" s="70"/>
+      <c r="V47" s="70"/>
+      <c r="W47" s="70"/>
+      <c r="X47" s="70"/>
+      <c r="Y47" s="70"/>
+      <c r="Z47" s="70"/>
+      <c r="AA47" s="70"/>
+      <c r="AB47" s="70"/>
+      <c r="AC47" s="72"/>
+      <c r="AD47" s="72"/>
+      <c r="AE47" s="72"/>
+      <c r="AF47" s="72"/>
+      <c r="AG47" s="72"/>
+      <c r="AH47" s="70"/>
+      <c r="AI47" s="70"/>
+      <c r="AJ47" s="70"/>
+      <c r="AK47" s="70"/>
+      <c r="AL47" s="70"/>
+      <c r="AM47" s="70"/>
+      <c r="AN47" s="70"/>
+      <c r="AO47" s="70"/>
+      <c r="AP47" s="70"/>
+      <c r="AQ47" s="70"/>
+      <c r="AR47" s="74"/>
+      <c r="AS47" s="74"/>
+      <c r="AT47" s="74"/>
+      <c r="AU47" s="74"/>
+      <c r="AV47" s="74"/>
+      <c r="AW47" s="70"/>
+      <c r="AX47" s="70"/>
+      <c r="AY47" s="70"/>
+      <c r="AZ47" s="70"/>
+      <c r="BA47" s="70"/>
+      <c r="BB47" s="70"/>
+      <c r="BC47" s="70"/>
+      <c r="BD47" s="70"/>
+      <c r="BE47" s="70"/>
+      <c r="BF47" s="70"/>
+      <c r="BG47" s="75"/>
+      <c r="BH47" s="75"/>
+      <c r="BI47" s="75"/>
+      <c r="BJ47" s="75"/>
+      <c r="BK47" s="75"/>
+      <c r="BL47" s="70"/>
+      <c r="BM47" s="70"/>
+      <c r="BN47" s="70"/>
+      <c r="BO47" s="70"/>
+      <c r="BP47" s="76"/>
       <c r="BQ47" s="60"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
@@ -5659,170 +6193,170 @@
     </row>
     <row r="49" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A49" s="60"/>
-      <c r="B49" s="76" t="s">
+      <c r="B49" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="151" t="s">
         <v>119</v>
       </c>
       <c r="D49" s="62"/>
-      <c r="E49" s="63">
+      <c r="E49" s="64">
         <v>45397.0</v>
       </c>
-      <c r="F49" s="63">
+      <c r="F49" s="64">
         <v>45408.0</v>
       </c>
-      <c r="G49" s="64">
+      <c r="G49" s="65">
         <f t="shared" ref="G49:G51" si="7">NETWORKDAYS(E49,F49)</f>
         <v>10</v>
       </c>
-      <c r="H49" s="92">
+      <c r="H49" s="93">
         <v>0.0</v>
       </c>
-      <c r="I49" s="88"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="69"/>
-      <c r="T49" s="69"/>
-      <c r="U49" s="69"/>
-      <c r="V49" s="69"/>
-      <c r="W49" s="81"/>
-      <c r="X49" s="81"/>
-      <c r="Y49" s="81"/>
-      <c r="Z49" s="81"/>
-      <c r="AA49" s="81"/>
-      <c r="AB49" s="81"/>
-      <c r="AC49" s="83"/>
-      <c r="AD49" s="83"/>
-      <c r="AE49" s="83"/>
-      <c r="AF49" s="83"/>
-      <c r="AG49" s="83"/>
-      <c r="AH49" s="81"/>
-      <c r="AI49" s="81"/>
-      <c r="AJ49" s="81"/>
-      <c r="AK49" s="81"/>
-      <c r="AL49" s="81"/>
-      <c r="AM49" s="81"/>
-      <c r="AN49" s="81"/>
-      <c r="AO49" s="81"/>
-      <c r="AP49" s="81"/>
-      <c r="AQ49" s="81"/>
-      <c r="AR49" s="84"/>
-      <c r="AS49" s="84"/>
-      <c r="AT49" s="84"/>
-      <c r="AU49" s="84"/>
-      <c r="AV49" s="84"/>
-      <c r="AW49" s="81"/>
-      <c r="AX49" s="81"/>
-      <c r="AY49" s="81"/>
-      <c r="AZ49" s="81"/>
-      <c r="BA49" s="81"/>
-      <c r="BB49" s="81"/>
-      <c r="BC49" s="81"/>
-      <c r="BD49" s="81"/>
-      <c r="BE49" s="81"/>
-      <c r="BF49" s="81"/>
-      <c r="BG49" s="85"/>
-      <c r="BH49" s="85"/>
-      <c r="BI49" s="85"/>
-      <c r="BJ49" s="85"/>
-      <c r="BK49" s="85"/>
-      <c r="BL49" s="81"/>
-      <c r="BM49" s="81"/>
-      <c r="BN49" s="81"/>
-      <c r="BO49" s="81"/>
-      <c r="BP49" s="86"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="83"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="70"/>
+      <c r="T49" s="70"/>
+      <c r="U49" s="70"/>
+      <c r="V49" s="70"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="82"/>
+      <c r="AB49" s="82"/>
+      <c r="AC49" s="84"/>
+      <c r="AD49" s="84"/>
+      <c r="AE49" s="84"/>
+      <c r="AF49" s="84"/>
+      <c r="AG49" s="84"/>
+      <c r="AH49" s="82"/>
+      <c r="AI49" s="82"/>
+      <c r="AJ49" s="82"/>
+      <c r="AK49" s="82"/>
+      <c r="AL49" s="82"/>
+      <c r="AM49" s="82"/>
+      <c r="AN49" s="82"/>
+      <c r="AO49" s="82"/>
+      <c r="AP49" s="82"/>
+      <c r="AQ49" s="82"/>
+      <c r="AR49" s="85"/>
+      <c r="AS49" s="85"/>
+      <c r="AT49" s="85"/>
+      <c r="AU49" s="85"/>
+      <c r="AV49" s="85"/>
+      <c r="AW49" s="82"/>
+      <c r="AX49" s="82"/>
+      <c r="AY49" s="82"/>
+      <c r="AZ49" s="82"/>
+      <c r="BA49" s="82"/>
+      <c r="BB49" s="82"/>
+      <c r="BC49" s="82"/>
+      <c r="BD49" s="82"/>
+      <c r="BE49" s="82"/>
+      <c r="BF49" s="82"/>
+      <c r="BG49" s="86"/>
+      <c r="BH49" s="86"/>
+      <c r="BI49" s="86"/>
+      <c r="BJ49" s="86"/>
+      <c r="BK49" s="86"/>
+      <c r="BL49" s="82"/>
+      <c r="BM49" s="82"/>
+      <c r="BN49" s="82"/>
+      <c r="BO49" s="82"/>
+      <c r="BP49" s="87"/>
       <c r="BQ49" s="60"/>
     </row>
     <row r="50" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A50" s="60"/>
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="151" t="s">
         <v>121</v>
       </c>
       <c r="D50" s="62"/>
-      <c r="E50" s="63">
+      <c r="E50" s="64">
         <v>45404.0</v>
       </c>
-      <c r="F50" s="63">
+      <c r="F50" s="64">
         <v>45408.0</v>
       </c>
-      <c r="G50" s="64">
+      <c r="G50" s="65">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="H50" s="92">
+      <c r="H50" s="93">
         <v>0.0</v>
       </c>
-      <c r="I50" s="88"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="69"/>
-      <c r="T50" s="69"/>
-      <c r="U50" s="69"/>
-      <c r="V50" s="69"/>
-      <c r="W50" s="81"/>
-      <c r="X50" s="81"/>
-      <c r="Y50" s="81"/>
-      <c r="Z50" s="81"/>
-      <c r="AA50" s="81"/>
-      <c r="AB50" s="81"/>
-      <c r="AC50" s="83"/>
-      <c r="AD50" s="83"/>
-      <c r="AE50" s="83"/>
-      <c r="AF50" s="83"/>
-      <c r="AG50" s="83"/>
-      <c r="AH50" s="81"/>
-      <c r="AI50" s="81"/>
-      <c r="AJ50" s="81"/>
-      <c r="AK50" s="81"/>
-      <c r="AL50" s="81"/>
-      <c r="AM50" s="81"/>
-      <c r="AN50" s="81"/>
-      <c r="AO50" s="81"/>
-      <c r="AP50" s="81"/>
-      <c r="AQ50" s="81"/>
-      <c r="AR50" s="84"/>
-      <c r="AS50" s="84"/>
-      <c r="AT50" s="84"/>
-      <c r="AU50" s="84"/>
-      <c r="AV50" s="84"/>
-      <c r="AW50" s="81"/>
-      <c r="AX50" s="81"/>
-      <c r="AY50" s="81"/>
-      <c r="AZ50" s="81"/>
-      <c r="BA50" s="81"/>
-      <c r="BB50" s="81"/>
-      <c r="BC50" s="81"/>
-      <c r="BD50" s="81"/>
-      <c r="BE50" s="81"/>
-      <c r="BF50" s="81"/>
-      <c r="BG50" s="85"/>
-      <c r="BH50" s="85"/>
-      <c r="BI50" s="85"/>
-      <c r="BJ50" s="85"/>
-      <c r="BK50" s="85"/>
-      <c r="BL50" s="81"/>
-      <c r="BM50" s="81"/>
-      <c r="BN50" s="81"/>
-      <c r="BO50" s="81"/>
-      <c r="BP50" s="86"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="83"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="70"/>
+      <c r="T50" s="70"/>
+      <c r="U50" s="70"/>
+      <c r="V50" s="70"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
+      <c r="AB50" s="82"/>
+      <c r="AC50" s="84"/>
+      <c r="AD50" s="84"/>
+      <c r="AE50" s="84"/>
+      <c r="AF50" s="84"/>
+      <c r="AG50" s="84"/>
+      <c r="AH50" s="82"/>
+      <c r="AI50" s="82"/>
+      <c r="AJ50" s="82"/>
+      <c r="AK50" s="82"/>
+      <c r="AL50" s="82"/>
+      <c r="AM50" s="82"/>
+      <c r="AN50" s="82"/>
+      <c r="AO50" s="82"/>
+      <c r="AP50" s="82"/>
+      <c r="AQ50" s="82"/>
+      <c r="AR50" s="85"/>
+      <c r="AS50" s="85"/>
+      <c r="AT50" s="85"/>
+      <c r="AU50" s="85"/>
+      <c r="AV50" s="85"/>
+      <c r="AW50" s="82"/>
+      <c r="AX50" s="82"/>
+      <c r="AY50" s="82"/>
+      <c r="AZ50" s="82"/>
+      <c r="BA50" s="82"/>
+      <c r="BB50" s="82"/>
+      <c r="BC50" s="82"/>
+      <c r="BD50" s="82"/>
+      <c r="BE50" s="82"/>
+      <c r="BF50" s="82"/>
+      <c r="BG50" s="86"/>
+      <c r="BH50" s="86"/>
+      <c r="BI50" s="86"/>
+      <c r="BJ50" s="86"/>
+      <c r="BK50" s="86"/>
+      <c r="BL50" s="82"/>
+      <c r="BM50" s="82"/>
+      <c r="BN50" s="82"/>
+      <c r="BO50" s="82"/>
+      <c r="BP50" s="87"/>
       <c r="BQ50" s="60"/>
     </row>
     <row r="51" ht="17.25" customHeight="1" outlineLevel="1">
@@ -5830,8 +6364,8 @@
       <c r="B51" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="125" t="s">
-        <v>99</v>
+      <c r="C51" s="152" t="s">
+        <v>123</v>
       </c>
       <c r="D51" s="126"/>
       <c r="E51" s="127">
@@ -5840,7 +6374,7 @@
       <c r="F51" s="127">
         <v>45408.0</v>
       </c>
-      <c r="G51" s="64">
+      <c r="G51" s="65">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -5882,11 +6416,11 @@
       <c r="AO51" s="131"/>
       <c r="AP51" s="131"/>
       <c r="AQ51" s="131"/>
-      <c r="AR51" s="135"/>
-      <c r="AS51" s="135"/>
-      <c r="AT51" s="135"/>
-      <c r="AU51" s="135"/>
-      <c r="AV51" s="135"/>
+      <c r="AR51" s="134"/>
+      <c r="AS51" s="134"/>
+      <c r="AT51" s="134"/>
+      <c r="AU51" s="134"/>
+      <c r="AV51" s="134"/>
       <c r="AW51" s="131"/>
       <c r="AX51" s="131"/>
       <c r="AY51" s="131"/>
@@ -5897,25 +6431,25 @@
       <c r="BD51" s="131"/>
       <c r="BE51" s="131"/>
       <c r="BF51" s="131"/>
-      <c r="BG51" s="136"/>
-      <c r="BH51" s="136"/>
-      <c r="BI51" s="136"/>
-      <c r="BJ51" s="136"/>
-      <c r="BK51" s="136"/>
+      <c r="BG51" s="135"/>
+      <c r="BH51" s="135"/>
+      <c r="BI51" s="135"/>
+      <c r="BJ51" s="135"/>
+      <c r="BK51" s="135"/>
       <c r="BL51" s="131"/>
       <c r="BM51" s="131"/>
       <c r="BN51" s="131"/>
       <c r="BO51" s="131"/>
-      <c r="BP51" s="137"/>
+      <c r="BP51" s="136"/>
       <c r="BQ51" s="116"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="116"/>
       <c r="B52" s="117" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C52" s="118" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D52" s="119"/>
       <c r="E52" s="119"/>
@@ -5987,200 +6521,2507 @@
     <row r="53" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A53" s="60"/>
       <c r="B53" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="62" t="s">
         <v>126</v>
       </c>
+      <c r="C53" s="151" t="s">
+        <v>127</v>
+      </c>
       <c r="D53" s="62"/>
-      <c r="E53" s="63">
+      <c r="E53" s="64">
         <v>45411.0</v>
       </c>
-      <c r="F53" s="63">
+      <c r="F53" s="64">
         <v>45413.0</v>
       </c>
-      <c r="G53" s="64">
+      <c r="G53" s="65">
         <f t="shared" ref="G53:G54" si="8">NETWORKDAYS(E53,F53)</f>
         <v>3</v>
       </c>
       <c r="H53" s="115">
         <v>0.0</v>
       </c>
-      <c r="I53" s="88"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="69"/>
-      <c r="U53" s="69"/>
-      <c r="V53" s="69"/>
-      <c r="W53" s="81"/>
-      <c r="X53" s="81"/>
-      <c r="Y53" s="81"/>
-      <c r="Z53" s="81"/>
-      <c r="AA53" s="81"/>
-      <c r="AB53" s="81"/>
-      <c r="AC53" s="83"/>
-      <c r="AD53" s="83"/>
-      <c r="AE53" s="83"/>
-      <c r="AF53" s="83"/>
-      <c r="AG53" s="83"/>
-      <c r="AH53" s="81"/>
-      <c r="AI53" s="81"/>
-      <c r="AJ53" s="81"/>
-      <c r="AK53" s="81"/>
-      <c r="AL53" s="81"/>
-      <c r="AM53" s="81"/>
-      <c r="AN53" s="81"/>
-      <c r="AO53" s="81"/>
-      <c r="AP53" s="81"/>
-      <c r="AQ53" s="81"/>
-      <c r="AR53" s="84"/>
-      <c r="AS53" s="84"/>
-      <c r="AT53" s="84"/>
-      <c r="AU53" s="84"/>
-      <c r="AV53" s="84"/>
-      <c r="AW53" s="81"/>
-      <c r="AX53" s="81"/>
-      <c r="AY53" s="81"/>
-      <c r="AZ53" s="81"/>
-      <c r="BA53" s="81"/>
-      <c r="BB53" s="81"/>
-      <c r="BC53" s="81"/>
-      <c r="BD53" s="81"/>
-      <c r="BE53" s="81"/>
-      <c r="BF53" s="81"/>
-      <c r="BG53" s="85"/>
-      <c r="BH53" s="85"/>
-      <c r="BI53" s="85"/>
-      <c r="BJ53" s="85"/>
-      <c r="BK53" s="85"/>
-      <c r="BL53" s="81"/>
-      <c r="BM53" s="81"/>
-      <c r="BN53" s="81"/>
-      <c r="BO53" s="81"/>
-      <c r="BP53" s="86"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="70"/>
+      <c r="W53" s="82"/>
+      <c r="X53" s="82"/>
+      <c r="Y53" s="82"/>
+      <c r="Z53" s="82"/>
+      <c r="AA53" s="82"/>
+      <c r="AB53" s="82"/>
+      <c r="AC53" s="84"/>
+      <c r="AD53" s="84"/>
+      <c r="AE53" s="84"/>
+      <c r="AF53" s="84"/>
+      <c r="AG53" s="84"/>
+      <c r="AH53" s="82"/>
+      <c r="AI53" s="82"/>
+      <c r="AJ53" s="82"/>
+      <c r="AK53" s="82"/>
+      <c r="AL53" s="82"/>
+      <c r="AM53" s="82"/>
+      <c r="AN53" s="82"/>
+      <c r="AO53" s="82"/>
+      <c r="AP53" s="82"/>
+      <c r="AQ53" s="82"/>
+      <c r="AR53" s="85"/>
+      <c r="AS53" s="85"/>
+      <c r="AT53" s="85"/>
+      <c r="AU53" s="85"/>
+      <c r="AV53" s="85"/>
+      <c r="AW53" s="82"/>
+      <c r="AX53" s="82"/>
+      <c r="AY53" s="82"/>
+      <c r="AZ53" s="82"/>
+      <c r="BA53" s="82"/>
+      <c r="BB53" s="82"/>
+      <c r="BC53" s="82"/>
+      <c r="BD53" s="82"/>
+      <c r="BE53" s="82"/>
+      <c r="BF53" s="82"/>
+      <c r="BG53" s="86"/>
+      <c r="BH53" s="86"/>
+      <c r="BI53" s="86"/>
+      <c r="BJ53" s="86"/>
+      <c r="BK53" s="86"/>
+      <c r="BL53" s="82"/>
+      <c r="BM53" s="82"/>
+      <c r="BN53" s="82"/>
+      <c r="BO53" s="82"/>
+      <c r="BP53" s="87"/>
       <c r="BQ53" s="60"/>
     </row>
     <row r="54" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A54" s="60"/>
       <c r="B54" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="62" t="s">
         <v>128</v>
       </c>
+      <c r="C54" s="151" t="s">
+        <v>129</v>
+      </c>
       <c r="D54" s="62"/>
-      <c r="E54" s="63">
+      <c r="E54" s="64">
         <v>45412.0</v>
       </c>
-      <c r="F54" s="63">
+      <c r="F54" s="64">
         <v>45413.0</v>
       </c>
-      <c r="G54" s="64">
+      <c r="G54" s="65">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H54" s="115">
         <v>0.0</v>
       </c>
-      <c r="I54" s="88"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="81"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="69"/>
-      <c r="T54" s="69"/>
-      <c r="U54" s="69"/>
-      <c r="V54" s="69"/>
-      <c r="W54" s="81"/>
-      <c r="X54" s="81"/>
-      <c r="Y54" s="81"/>
-      <c r="Z54" s="81"/>
-      <c r="AA54" s="81"/>
-      <c r="AB54" s="81"/>
-      <c r="AC54" s="83"/>
-      <c r="AD54" s="83"/>
-      <c r="AE54" s="83"/>
-      <c r="AF54" s="83"/>
-      <c r="AG54" s="83"/>
-      <c r="AH54" s="81"/>
-      <c r="AI54" s="81"/>
-      <c r="AJ54" s="81"/>
-      <c r="AK54" s="81"/>
-      <c r="AL54" s="81"/>
-      <c r="AM54" s="81"/>
-      <c r="AN54" s="81"/>
-      <c r="AO54" s="81"/>
-      <c r="AP54" s="81"/>
-      <c r="AQ54" s="81"/>
-      <c r="AR54" s="84"/>
-      <c r="AS54" s="84"/>
-      <c r="AT54" s="84"/>
-      <c r="AU54" s="84"/>
-      <c r="AV54" s="84"/>
-      <c r="AW54" s="81"/>
-      <c r="AX54" s="81"/>
-      <c r="AY54" s="81"/>
-      <c r="AZ54" s="81"/>
-      <c r="BA54" s="81"/>
-      <c r="BB54" s="81"/>
-      <c r="BC54" s="81"/>
-      <c r="BD54" s="81"/>
-      <c r="BE54" s="81"/>
-      <c r="BF54" s="81"/>
-      <c r="BG54" s="85"/>
-      <c r="BH54" s="85"/>
-      <c r="BI54" s="85"/>
-      <c r="BJ54" s="85"/>
-      <c r="BK54" s="85"/>
-      <c r="BL54" s="81"/>
-      <c r="BM54" s="81"/>
-      <c r="BN54" s="81"/>
-      <c r="BO54" s="81"/>
-      <c r="BP54" s="86"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="82"/>
+      <c r="X54" s="82"/>
+      <c r="Y54" s="82"/>
+      <c r="Z54" s="82"/>
+      <c r="AA54" s="82"/>
+      <c r="AB54" s="82"/>
+      <c r="AC54" s="84"/>
+      <c r="AD54" s="84"/>
+      <c r="AE54" s="84"/>
+      <c r="AF54" s="84"/>
+      <c r="AG54" s="84"/>
+      <c r="AH54" s="82"/>
+      <c r="AI54" s="82"/>
+      <c r="AJ54" s="82"/>
+      <c r="AK54" s="82"/>
+      <c r="AL54" s="82"/>
+      <c r="AM54" s="82"/>
+      <c r="AN54" s="82"/>
+      <c r="AO54" s="82"/>
+      <c r="AP54" s="82"/>
+      <c r="AQ54" s="82"/>
+      <c r="AR54" s="85"/>
+      <c r="AS54" s="85"/>
+      <c r="AT54" s="85"/>
+      <c r="AU54" s="85"/>
+      <c r="AV54" s="85"/>
+      <c r="AW54" s="82"/>
+      <c r="AX54" s="82"/>
+      <c r="AY54" s="82"/>
+      <c r="AZ54" s="82"/>
+      <c r="BA54" s="82"/>
+      <c r="BB54" s="82"/>
+      <c r="BC54" s="82"/>
+      <c r="BD54" s="82"/>
+      <c r="BE54" s="82"/>
+      <c r="BF54" s="82"/>
+      <c r="BG54" s="86"/>
+      <c r="BH54" s="86"/>
+      <c r="BI54" s="86"/>
+      <c r="BJ54" s="86"/>
+      <c r="BK54" s="86"/>
+      <c r="BL54" s="82"/>
+      <c r="BM54" s="82"/>
+      <c r="BN54" s="82"/>
+      <c r="BO54" s="82"/>
+      <c r="BP54" s="87"/>
       <c r="BQ54" s="60"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="55" ht="21.0" customHeight="1">
+      <c r="A55" s="116"/>
+      <c r="B55" s="153"/>
+      <c r="C55" s="154" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="119"/>
+      <c r="J55" s="121"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="119"/>
+      <c r="N55" s="123"/>
+      <c r="O55" s="123"/>
+      <c r="P55" s="123"/>
+      <c r="Q55" s="123"/>
+      <c r="R55" s="123"/>
+      <c r="S55" s="119"/>
+      <c r="T55" s="119"/>
+      <c r="U55" s="119"/>
+      <c r="V55" s="119"/>
+      <c r="W55" s="119"/>
+      <c r="X55" s="119"/>
+      <c r="Y55" s="119"/>
+      <c r="Z55" s="119"/>
+      <c r="AA55" s="119"/>
+      <c r="AB55" s="119"/>
+      <c r="AC55" s="119"/>
+      <c r="AD55" s="119"/>
+      <c r="AE55" s="119"/>
+      <c r="AF55" s="119"/>
+      <c r="AG55" s="119"/>
+      <c r="AH55" s="119"/>
+      <c r="AI55" s="119"/>
+      <c r="AJ55" s="119"/>
+      <c r="AK55" s="119"/>
+      <c r="AL55" s="119"/>
+      <c r="AM55" s="119"/>
+      <c r="AN55" s="119"/>
+      <c r="AO55" s="119"/>
+      <c r="AP55" s="119"/>
+      <c r="AQ55" s="119"/>
+      <c r="AR55" s="119"/>
+      <c r="AS55" s="119"/>
+      <c r="AT55" s="119"/>
+      <c r="AU55" s="119"/>
+      <c r="AV55" s="119"/>
+      <c r="AW55" s="119"/>
+      <c r="AX55" s="119"/>
+      <c r="AY55" s="119"/>
+      <c r="AZ55" s="119"/>
+      <c r="BA55" s="119"/>
+      <c r="BB55" s="119"/>
+      <c r="BC55" s="119"/>
+      <c r="BD55" s="119"/>
+      <c r="BE55" s="119"/>
+      <c r="BF55" s="119"/>
+      <c r="BG55" s="119"/>
+      <c r="BH55" s="119"/>
+      <c r="BI55" s="119"/>
+      <c r="BJ55" s="119"/>
+      <c r="BK55" s="119"/>
+      <c r="BL55" s="119"/>
+      <c r="BM55" s="119"/>
+      <c r="BN55" s="119"/>
+      <c r="BO55" s="119"/>
+      <c r="BP55" s="119"/>
+      <c r="BQ55" s="116"/>
+    </row>
+    <row r="56" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A56" s="60"/>
+      <c r="B56" s="155"/>
+      <c r="C56" s="151" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="62"/>
+      <c r="E56" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F56" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G56" s="65">
+        <f t="shared" ref="G56:G57" si="9">NETWORKDAYS(E56,F56)</f>
+        <v>38</v>
+      </c>
+      <c r="H56" s="156">
+        <v>1623984.0</v>
+      </c>
+      <c r="I56" s="89"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="70"/>
+      <c r="T56" s="70"/>
+      <c r="U56" s="70"/>
+      <c r="V56" s="70"/>
+      <c r="W56" s="82"/>
+      <c r="X56" s="82"/>
+      <c r="Y56" s="82"/>
+      <c r="Z56" s="82"/>
+      <c r="AA56" s="82"/>
+      <c r="AB56" s="82"/>
+      <c r="AC56" s="84"/>
+      <c r="AD56" s="84"/>
+      <c r="AE56" s="84"/>
+      <c r="AF56" s="84"/>
+      <c r="AG56" s="84"/>
+      <c r="AH56" s="82"/>
+      <c r="AI56" s="82"/>
+      <c r="AJ56" s="82"/>
+      <c r="AK56" s="82"/>
+      <c r="AL56" s="82"/>
+      <c r="AM56" s="82"/>
+      <c r="AN56" s="82"/>
+      <c r="AO56" s="82"/>
+      <c r="AP56" s="82"/>
+      <c r="AQ56" s="82"/>
+      <c r="AR56" s="85"/>
+      <c r="AS56" s="85"/>
+      <c r="AT56" s="85"/>
+      <c r="AU56" s="85"/>
+      <c r="AV56" s="85"/>
+      <c r="AW56" s="82"/>
+      <c r="AX56" s="82"/>
+      <c r="AY56" s="82"/>
+      <c r="AZ56" s="82"/>
+      <c r="BA56" s="82"/>
+      <c r="BB56" s="82"/>
+      <c r="BC56" s="82"/>
+      <c r="BD56" s="82"/>
+      <c r="BE56" s="82"/>
+      <c r="BF56" s="82"/>
+      <c r="BG56" s="86"/>
+      <c r="BH56" s="86"/>
+      <c r="BI56" s="86"/>
+      <c r="BJ56" s="86"/>
+      <c r="BK56" s="86"/>
+      <c r="BL56" s="82"/>
+      <c r="BM56" s="82"/>
+      <c r="BN56" s="82"/>
+      <c r="BO56" s="82"/>
+      <c r="BP56" s="87"/>
+      <c r="BQ56" s="60"/>
+    </row>
+    <row r="57" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A57" s="60"/>
+      <c r="B57" s="155"/>
+      <c r="C57" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F57" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G57" s="65">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="H57" s="156">
+        <v>100000.0</v>
+      </c>
+      <c r="I57" s="89"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="70"/>
+      <c r="T57" s="70"/>
+      <c r="U57" s="70"/>
+      <c r="V57" s="70"/>
+      <c r="W57" s="82"/>
+      <c r="X57" s="82"/>
+      <c r="Y57" s="82"/>
+      <c r="Z57" s="82"/>
+      <c r="AA57" s="82"/>
+      <c r="AB57" s="82"/>
+      <c r="AC57" s="84"/>
+      <c r="AD57" s="84"/>
+      <c r="AE57" s="84"/>
+      <c r="AF57" s="84"/>
+      <c r="AG57" s="84"/>
+      <c r="AH57" s="82"/>
+      <c r="AI57" s="82"/>
+      <c r="AJ57" s="82"/>
+      <c r="AK57" s="82"/>
+      <c r="AL57" s="82"/>
+      <c r="AM57" s="82"/>
+      <c r="AN57" s="82"/>
+      <c r="AO57" s="82"/>
+      <c r="AP57" s="82"/>
+      <c r="AQ57" s="82"/>
+      <c r="AR57" s="85"/>
+      <c r="AS57" s="85"/>
+      <c r="AT57" s="85"/>
+      <c r="AU57" s="85"/>
+      <c r="AV57" s="85"/>
+      <c r="AW57" s="82"/>
+      <c r="AX57" s="82"/>
+      <c r="AY57" s="82"/>
+      <c r="AZ57" s="82"/>
+      <c r="BA57" s="82"/>
+      <c r="BB57" s="82"/>
+      <c r="BC57" s="82"/>
+      <c r="BD57" s="82"/>
+      <c r="BE57" s="82"/>
+      <c r="BF57" s="82"/>
+      <c r="BG57" s="86"/>
+      <c r="BH57" s="86"/>
+      <c r="BI57" s="86"/>
+      <c r="BJ57" s="86"/>
+      <c r="BK57" s="86"/>
+      <c r="BL57" s="82"/>
+      <c r="BM57" s="82"/>
+      <c r="BN57" s="82"/>
+      <c r="BO57" s="82"/>
+      <c r="BP57" s="87"/>
+      <c r="BQ57" s="60"/>
+    </row>
+    <row r="58" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A58" s="60"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F58" s="63">
+        <v>45413.0</v>
+      </c>
+      <c r="G58" s="65">
+        <f>NETWORKDAYS(E56,F56)</f>
+        <v>38</v>
+      </c>
+      <c r="H58" s="156">
+        <v>500000.0</v>
+      </c>
+      <c r="I58" s="89"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="70"/>
+      <c r="U58" s="70"/>
+      <c r="V58" s="70"/>
+      <c r="W58" s="82"/>
+      <c r="X58" s="82"/>
+      <c r="Y58" s="82"/>
+      <c r="Z58" s="82"/>
+      <c r="AA58" s="82"/>
+      <c r="AB58" s="82"/>
+      <c r="AC58" s="84"/>
+      <c r="AD58" s="84"/>
+      <c r="AE58" s="84"/>
+      <c r="AF58" s="84"/>
+      <c r="AG58" s="84"/>
+      <c r="AH58" s="82"/>
+      <c r="AI58" s="82"/>
+      <c r="AJ58" s="82"/>
+      <c r="AK58" s="82"/>
+      <c r="AL58" s="82"/>
+      <c r="AM58" s="82"/>
+      <c r="AN58" s="82"/>
+      <c r="AO58" s="82"/>
+      <c r="AP58" s="82"/>
+      <c r="AQ58" s="82"/>
+      <c r="AR58" s="85"/>
+      <c r="AS58" s="85"/>
+      <c r="AT58" s="85"/>
+      <c r="AU58" s="85"/>
+      <c r="AV58" s="85"/>
+      <c r="AW58" s="82"/>
+      <c r="AX58" s="82"/>
+      <c r="AY58" s="82"/>
+      <c r="AZ58" s="82"/>
+      <c r="BA58" s="82"/>
+      <c r="BB58" s="82"/>
+      <c r="BC58" s="82"/>
+      <c r="BD58" s="82"/>
+      <c r="BE58" s="82"/>
+      <c r="BF58" s="82"/>
+      <c r="BG58" s="86"/>
+      <c r="BH58" s="86"/>
+      <c r="BI58" s="86"/>
+      <c r="BJ58" s="86"/>
+      <c r="BK58" s="86"/>
+      <c r="BL58" s="82"/>
+      <c r="BM58" s="82"/>
+      <c r="BN58" s="82"/>
+      <c r="BO58" s="82"/>
+      <c r="BP58" s="87"/>
+      <c r="BQ58" s="60"/>
+    </row>
+    <row r="59" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A59" s="60"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="62"/>
+      <c r="E59" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F59" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G59" s="65">
+        <f t="shared" ref="G59:G63" si="10">NETWORKDAYS(E59,F59)</f>
+        <v>38</v>
+      </c>
+      <c r="H59" s="156">
+        <v>33000.0</v>
+      </c>
+      <c r="I59" s="89"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="82"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="70"/>
+      <c r="T59" s="70"/>
+      <c r="U59" s="70"/>
+      <c r="V59" s="70"/>
+      <c r="W59" s="82"/>
+      <c r="X59" s="82"/>
+      <c r="Y59" s="82"/>
+      <c r="Z59" s="82"/>
+      <c r="AA59" s="82"/>
+      <c r="AB59" s="82"/>
+      <c r="AC59" s="84"/>
+      <c r="AD59" s="84"/>
+      <c r="AE59" s="84"/>
+      <c r="AF59" s="84"/>
+      <c r="AG59" s="84"/>
+      <c r="AH59" s="82"/>
+      <c r="AI59" s="82"/>
+      <c r="AJ59" s="82"/>
+      <c r="AK59" s="82"/>
+      <c r="AL59" s="82"/>
+      <c r="AM59" s="82"/>
+      <c r="AN59" s="82"/>
+      <c r="AO59" s="82"/>
+      <c r="AP59" s="82"/>
+      <c r="AQ59" s="82"/>
+      <c r="AR59" s="85"/>
+      <c r="AS59" s="85"/>
+      <c r="AT59" s="85"/>
+      <c r="AU59" s="85"/>
+      <c r="AV59" s="85"/>
+      <c r="AW59" s="82"/>
+      <c r="AX59" s="82"/>
+      <c r="AY59" s="82"/>
+      <c r="AZ59" s="82"/>
+      <c r="BA59" s="82"/>
+      <c r="BB59" s="82"/>
+      <c r="BC59" s="82"/>
+      <c r="BD59" s="82"/>
+      <c r="BE59" s="82"/>
+      <c r="BF59" s="82"/>
+      <c r="BG59" s="86"/>
+      <c r="BH59" s="86"/>
+      <c r="BI59" s="86"/>
+      <c r="BJ59" s="86"/>
+      <c r="BK59" s="86"/>
+      <c r="BL59" s="82"/>
+      <c r="BM59" s="82"/>
+      <c r="BN59" s="82"/>
+      <c r="BO59" s="82"/>
+      <c r="BP59" s="87"/>
+      <c r="BQ59" s="60"/>
+    </row>
+    <row r="60" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A60" s="60"/>
+      <c r="B60" s="155"/>
+      <c r="C60" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="62"/>
+      <c r="E60" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F60" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G60" s="65">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="H60" s="156">
+        <v>33000.0</v>
+      </c>
+      <c r="I60" s="89"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="70"/>
+      <c r="T60" s="70"/>
+      <c r="U60" s="70"/>
+      <c r="V60" s="70"/>
+      <c r="W60" s="82"/>
+      <c r="X60" s="82"/>
+      <c r="Y60" s="82"/>
+      <c r="Z60" s="82"/>
+      <c r="AA60" s="82"/>
+      <c r="AB60" s="82"/>
+      <c r="AC60" s="84"/>
+      <c r="AD60" s="84"/>
+      <c r="AE60" s="84"/>
+      <c r="AF60" s="84"/>
+      <c r="AG60" s="84"/>
+      <c r="AH60" s="82"/>
+      <c r="AI60" s="82"/>
+      <c r="AJ60" s="82"/>
+      <c r="AK60" s="82"/>
+      <c r="AL60" s="82"/>
+      <c r="AM60" s="82"/>
+      <c r="AN60" s="82"/>
+      <c r="AO60" s="82"/>
+      <c r="AP60" s="82"/>
+      <c r="AQ60" s="82"/>
+      <c r="AR60" s="85"/>
+      <c r="AS60" s="85"/>
+      <c r="AT60" s="85"/>
+      <c r="AU60" s="85"/>
+      <c r="AV60" s="85"/>
+      <c r="AW60" s="82"/>
+      <c r="AX60" s="82"/>
+      <c r="AY60" s="82"/>
+      <c r="AZ60" s="82"/>
+      <c r="BA60" s="82"/>
+      <c r="BB60" s="82"/>
+      <c r="BC60" s="82"/>
+      <c r="BD60" s="82"/>
+      <c r="BE60" s="82"/>
+      <c r="BF60" s="82"/>
+      <c r="BG60" s="86"/>
+      <c r="BH60" s="86"/>
+      <c r="BI60" s="86"/>
+      <c r="BJ60" s="86"/>
+      <c r="BK60" s="86"/>
+      <c r="BL60" s="82"/>
+      <c r="BM60" s="82"/>
+      <c r="BN60" s="82"/>
+      <c r="BO60" s="82"/>
+      <c r="BP60" s="87"/>
+      <c r="BQ60" s="60"/>
+    </row>
+    <row r="61" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A61" s="60"/>
+      <c r="B61" s="155"/>
+      <c r="C61" s="151" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="62"/>
+      <c r="E61" s="63">
+        <v>45411.0</v>
+      </c>
+      <c r="F61" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G61" s="65">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H61" s="156">
+        <v>150.0</v>
+      </c>
+      <c r="I61" s="89"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="82"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="70"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="70"/>
+      <c r="V61" s="70"/>
+      <c r="W61" s="82"/>
+      <c r="X61" s="82"/>
+      <c r="Y61" s="82"/>
+      <c r="Z61" s="82"/>
+      <c r="AA61" s="82"/>
+      <c r="AB61" s="82"/>
+      <c r="AC61" s="84"/>
+      <c r="AD61" s="84"/>
+      <c r="AE61" s="84"/>
+      <c r="AF61" s="84"/>
+      <c r="AG61" s="84"/>
+      <c r="AH61" s="82"/>
+      <c r="AI61" s="82"/>
+      <c r="AJ61" s="82"/>
+      <c r="AK61" s="82"/>
+      <c r="AL61" s="82"/>
+      <c r="AM61" s="82"/>
+      <c r="AN61" s="82"/>
+      <c r="AO61" s="82"/>
+      <c r="AP61" s="82"/>
+      <c r="AQ61" s="82"/>
+      <c r="AR61" s="85"/>
+      <c r="AS61" s="85"/>
+      <c r="AT61" s="85"/>
+      <c r="AU61" s="85"/>
+      <c r="AV61" s="85"/>
+      <c r="AW61" s="82"/>
+      <c r="AX61" s="82"/>
+      <c r="AY61" s="82"/>
+      <c r="AZ61" s="82"/>
+      <c r="BA61" s="82"/>
+      <c r="BB61" s="82"/>
+      <c r="BC61" s="82"/>
+      <c r="BD61" s="82"/>
+      <c r="BE61" s="82"/>
+      <c r="BF61" s="82"/>
+      <c r="BG61" s="86"/>
+      <c r="BH61" s="86"/>
+      <c r="BI61" s="86"/>
+      <c r="BJ61" s="86"/>
+      <c r="BK61" s="86"/>
+      <c r="BL61" s="82"/>
+      <c r="BM61" s="82"/>
+      <c r="BN61" s="82"/>
+      <c r="BO61" s="82"/>
+      <c r="BP61" s="87"/>
+      <c r="BQ61" s="60"/>
+    </row>
+    <row r="62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A62" s="60"/>
+      <c r="B62" s="155"/>
+      <c r="C62" s="157" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="62"/>
+      <c r="E62" s="158">
+        <v>45362.0</v>
+      </c>
+      <c r="F62" s="64">
+        <f>H62</f>
+        <v>45381</v>
+      </c>
+      <c r="G62" s="65">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="H62" s="159">
+        <f>DATE(2024,3,11+(QUOTIENT(SUM(H58),(SUM((H56/(DATEVALUE(F56)-DATEVALUE(E56))))-SUM((H59/30),H60/DAY(EOMONTH("11.03.2024",0))*5,IF(TODAY()&gt;E61,H61,0))))))
+</f>
+        <v>45381</v>
+      </c>
+      <c r="I62" s="89"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="82"/>
+      <c r="L62" s="82"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="70"/>
+      <c r="W62" s="82"/>
+      <c r="X62" s="82"/>
+      <c r="Y62" s="82"/>
+      <c r="Z62" s="82"/>
+      <c r="AA62" s="82"/>
+      <c r="AB62" s="82"/>
+      <c r="AC62" s="84"/>
+      <c r="AD62" s="84"/>
+      <c r="AE62" s="84"/>
+      <c r="AF62" s="84"/>
+      <c r="AG62" s="84"/>
+      <c r="AH62" s="82"/>
+      <c r="AI62" s="82"/>
+      <c r="AJ62" s="82"/>
+      <c r="AK62" s="82"/>
+      <c r="AL62" s="82"/>
+      <c r="AM62" s="82"/>
+      <c r="AN62" s="82"/>
+      <c r="AO62" s="82"/>
+      <c r="AP62" s="82"/>
+      <c r="AQ62" s="82"/>
+      <c r="AR62" s="85"/>
+      <c r="AS62" s="85"/>
+      <c r="AT62" s="85"/>
+      <c r="AU62" s="85"/>
+      <c r="AV62" s="85"/>
+      <c r="AW62" s="82"/>
+      <c r="AX62" s="82"/>
+      <c r="AY62" s="82"/>
+      <c r="AZ62" s="82"/>
+      <c r="BA62" s="82"/>
+      <c r="BB62" s="82"/>
+      <c r="BC62" s="82"/>
+      <c r="BD62" s="82"/>
+      <c r="BE62" s="82"/>
+      <c r="BF62" s="82"/>
+      <c r="BG62" s="86"/>
+      <c r="BH62" s="86"/>
+      <c r="BI62" s="86"/>
+      <c r="BJ62" s="86"/>
+      <c r="BK62" s="86"/>
+      <c r="BL62" s="82"/>
+      <c r="BM62" s="82"/>
+      <c r="BN62" s="82"/>
+      <c r="BO62" s="82"/>
+      <c r="BP62" s="87"/>
+      <c r="BQ62" s="60"/>
+    </row>
+    <row r="63" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A63" s="60"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="157" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="62"/>
+      <c r="E63" s="158">
+        <v>45362.0</v>
+      </c>
+      <c r="F63" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G63" s="65">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="H63" s="160">
+        <f>SUM((H56/(DATEVALUE(F56)-DATEVALUE(E56)))*(TODAY()-E56))-SUM(H58,(H59/DAY(EOMONTH("11.03.2024",0)))*(TODAY()-E59),H60/DAY(EOMONTH("11.03.2024",0))*5,IF(TODAY()&gt;E61,H61,0))</f>
+        <v>-105204.5844</v>
+      </c>
+      <c r="I63" s="89"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="82"/>
+      <c r="L63" s="82"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="70"/>
+      <c r="T63" s="70"/>
+      <c r="U63" s="70"/>
+      <c r="V63" s="70"/>
+      <c r="W63" s="82"/>
+      <c r="X63" s="82"/>
+      <c r="Y63" s="82"/>
+      <c r="Z63" s="82"/>
+      <c r="AA63" s="82"/>
+      <c r="AB63" s="82"/>
+      <c r="AC63" s="84"/>
+      <c r="AD63" s="84"/>
+      <c r="AE63" s="84"/>
+      <c r="AF63" s="84"/>
+      <c r="AG63" s="84"/>
+      <c r="AH63" s="82"/>
+      <c r="AI63" s="82"/>
+      <c r="AJ63" s="82"/>
+      <c r="AK63" s="82"/>
+      <c r="AL63" s="82"/>
+      <c r="AM63" s="82"/>
+      <c r="AN63" s="82"/>
+      <c r="AO63" s="82"/>
+      <c r="AP63" s="82"/>
+      <c r="AQ63" s="82"/>
+      <c r="AR63" s="85"/>
+      <c r="AS63" s="85"/>
+      <c r="AT63" s="85"/>
+      <c r="AU63" s="85"/>
+      <c r="AV63" s="85"/>
+      <c r="AW63" s="82"/>
+      <c r="AX63" s="82"/>
+      <c r="AY63" s="82"/>
+      <c r="AZ63" s="82"/>
+      <c r="BA63" s="82"/>
+      <c r="BB63" s="82"/>
+      <c r="BC63" s="82"/>
+      <c r="BD63" s="82"/>
+      <c r="BE63" s="82"/>
+      <c r="BF63" s="82"/>
+      <c r="BG63" s="86"/>
+      <c r="BH63" s="86"/>
+      <c r="BI63" s="86"/>
+      <c r="BJ63" s="86"/>
+      <c r="BK63" s="86"/>
+      <c r="BL63" s="82"/>
+      <c r="BM63" s="82"/>
+      <c r="BN63" s="82"/>
+      <c r="BO63" s="82"/>
+      <c r="BP63" s="87"/>
+      <c r="BQ63" s="60"/>
+    </row>
+    <row r="64" ht="21.0" customHeight="1">
+      <c r="A64" s="116"/>
+      <c r="B64" s="153"/>
+      <c r="C64" s="161" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="119"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
+      <c r="G64" s="119"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="119"/>
+      <c r="J64" s="121"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="122"/>
+      <c r="M64" s="119"/>
+      <c r="N64" s="123"/>
+      <c r="O64" s="123"/>
+      <c r="P64" s="123"/>
+      <c r="Q64" s="123"/>
+      <c r="R64" s="123"/>
+      <c r="S64" s="119"/>
+      <c r="T64" s="119"/>
+      <c r="U64" s="119"/>
+      <c r="V64" s="119"/>
+      <c r="W64" s="119"/>
+      <c r="X64" s="119"/>
+      <c r="Y64" s="119"/>
+      <c r="Z64" s="119"/>
+      <c r="AA64" s="119"/>
+      <c r="AB64" s="119"/>
+      <c r="AC64" s="119"/>
+      <c r="AD64" s="119"/>
+      <c r="AE64" s="119"/>
+      <c r="AF64" s="119"/>
+      <c r="AG64" s="119"/>
+      <c r="AH64" s="119"/>
+      <c r="AI64" s="119"/>
+      <c r="AJ64" s="119"/>
+      <c r="AK64" s="119"/>
+      <c r="AL64" s="119"/>
+      <c r="AM64" s="119"/>
+      <c r="AN64" s="119"/>
+      <c r="AO64" s="119"/>
+      <c r="AP64" s="119"/>
+      <c r="AQ64" s="119"/>
+      <c r="AR64" s="119"/>
+      <c r="AS64" s="119"/>
+      <c r="AT64" s="119"/>
+      <c r="AU64" s="119"/>
+      <c r="AV64" s="119"/>
+      <c r="AW64" s="119"/>
+      <c r="AX64" s="119"/>
+      <c r="AY64" s="119"/>
+      <c r="AZ64" s="119"/>
+      <c r="BA64" s="119"/>
+      <c r="BB64" s="119"/>
+      <c r="BC64" s="119"/>
+      <c r="BD64" s="119"/>
+      <c r="BE64" s="119"/>
+      <c r="BF64" s="119"/>
+      <c r="BG64" s="119"/>
+      <c r="BH64" s="119"/>
+      <c r="BI64" s="119"/>
+      <c r="BJ64" s="119"/>
+      <c r="BK64" s="119"/>
+      <c r="BL64" s="119"/>
+      <c r="BM64" s="119"/>
+      <c r="BN64" s="119"/>
+      <c r="BO64" s="119"/>
+      <c r="BP64" s="119"/>
+      <c r="BQ64" s="116"/>
+    </row>
+    <row r="65" ht="21.0" customHeight="1">
+      <c r="A65" s="116"/>
+      <c r="B65" s="153"/>
+      <c r="C65" s="161" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
+      <c r="G65" s="119"/>
+      <c r="H65" s="162"/>
+      <c r="I65" s="119"/>
+      <c r="J65" s="121"/>
+      <c r="K65" s="122"/>
+      <c r="L65" s="122"/>
+      <c r="M65" s="119"/>
+      <c r="N65" s="123"/>
+      <c r="O65" s="123"/>
+      <c r="P65" s="123"/>
+      <c r="Q65" s="123"/>
+      <c r="R65" s="123"/>
+      <c r="S65" s="119"/>
+      <c r="T65" s="119"/>
+      <c r="U65" s="119"/>
+      <c r="V65" s="119"/>
+      <c r="W65" s="119"/>
+      <c r="X65" s="119"/>
+      <c r="Y65" s="119"/>
+      <c r="Z65" s="119"/>
+      <c r="AA65" s="119"/>
+      <c r="AB65" s="119"/>
+      <c r="AC65" s="119"/>
+      <c r="AD65" s="119"/>
+      <c r="AE65" s="119"/>
+      <c r="AF65" s="119"/>
+      <c r="AG65" s="119"/>
+      <c r="AH65" s="119"/>
+      <c r="AI65" s="119"/>
+      <c r="AJ65" s="119"/>
+      <c r="AK65" s="119"/>
+      <c r="AL65" s="119"/>
+      <c r="AM65" s="119"/>
+      <c r="AN65" s="119"/>
+      <c r="AO65" s="119"/>
+      <c r="AP65" s="119"/>
+      <c r="AQ65" s="119"/>
+      <c r="AR65" s="119"/>
+      <c r="AS65" s="119"/>
+      <c r="AT65" s="119"/>
+      <c r="AU65" s="119"/>
+      <c r="AV65" s="119"/>
+      <c r="AW65" s="119"/>
+      <c r="AX65" s="119"/>
+      <c r="AY65" s="119"/>
+      <c r="AZ65" s="119"/>
+      <c r="BA65" s="119"/>
+      <c r="BB65" s="119"/>
+      <c r="BC65" s="119"/>
+      <c r="BD65" s="119"/>
+      <c r="BE65" s="119"/>
+      <c r="BF65" s="119"/>
+      <c r="BG65" s="119"/>
+      <c r="BH65" s="119"/>
+      <c r="BI65" s="119"/>
+      <c r="BJ65" s="119"/>
+      <c r="BK65" s="119"/>
+      <c r="BL65" s="119"/>
+      <c r="BM65" s="119"/>
+      <c r="BN65" s="119"/>
+      <c r="BO65" s="119"/>
+      <c r="BP65" s="119"/>
+      <c r="BQ65" s="116"/>
+    </row>
+    <row r="66" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A66" s="60"/>
+      <c r="B66" s="155"/>
+      <c r="C66" s="151" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="62"/>
+      <c r="E66" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F66" s="63">
+        <v>45413.0</v>
+      </c>
+      <c r="G66" s="65">
+        <f t="shared" ref="G66:G68" si="11">NETWORKDAYS(E66,F66)</f>
+        <v>38</v>
+      </c>
+      <c r="H66" s="156">
+        <f>H56/(DATEVALUE(F56)-DATEVALUE(E56))</f>
+        <v>31842.82353</v>
+      </c>
+      <c r="I66" s="89"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="70"/>
+      <c r="T66" s="70"/>
+      <c r="U66" s="70"/>
+      <c r="V66" s="70"/>
+      <c r="W66" s="82"/>
+      <c r="X66" s="82"/>
+      <c r="Y66" s="82"/>
+      <c r="Z66" s="82"/>
+      <c r="AA66" s="82"/>
+      <c r="AB66" s="82"/>
+      <c r="AC66" s="84"/>
+      <c r="AD66" s="84"/>
+      <c r="AE66" s="84"/>
+      <c r="AF66" s="84"/>
+      <c r="AG66" s="84"/>
+      <c r="AH66" s="82"/>
+      <c r="AI66" s="82"/>
+      <c r="AJ66" s="82"/>
+      <c r="AK66" s="82"/>
+      <c r="AL66" s="82"/>
+      <c r="AM66" s="82"/>
+      <c r="AN66" s="82"/>
+      <c r="AO66" s="82"/>
+      <c r="AP66" s="82"/>
+      <c r="AQ66" s="82"/>
+      <c r="AR66" s="85"/>
+      <c r="AS66" s="85"/>
+      <c r="AT66" s="85"/>
+      <c r="AU66" s="85"/>
+      <c r="AV66" s="85"/>
+      <c r="AW66" s="82"/>
+      <c r="AX66" s="82"/>
+      <c r="AY66" s="82"/>
+      <c r="AZ66" s="82"/>
+      <c r="BA66" s="82"/>
+      <c r="BB66" s="82"/>
+      <c r="BC66" s="82"/>
+      <c r="BD66" s="82"/>
+      <c r="BE66" s="82"/>
+      <c r="BF66" s="82"/>
+      <c r="BG66" s="86"/>
+      <c r="BH66" s="86"/>
+      <c r="BI66" s="86"/>
+      <c r="BJ66" s="86"/>
+      <c r="BK66" s="86"/>
+      <c r="BL66" s="82"/>
+      <c r="BM66" s="82"/>
+      <c r="BN66" s="82"/>
+      <c r="BO66" s="82"/>
+      <c r="BP66" s="87"/>
+      <c r="BQ66" s="60"/>
+    </row>
+    <row r="67" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A67" s="60"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="62"/>
+      <c r="E67" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F67" s="63">
+        <v>45413.0</v>
+      </c>
+      <c r="G67" s="65">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="H67" s="156">
+        <f>H56-SUM(H74:H77)</f>
+        <v>791704.9677</v>
+      </c>
+      <c r="I67" s="89"/>
+      <c r="J67" s="95"/>
+      <c r="K67" s="82"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="70"/>
+      <c r="T67" s="70"/>
+      <c r="U67" s="70"/>
+      <c r="V67" s="70"/>
+      <c r="W67" s="82"/>
+      <c r="X67" s="82"/>
+      <c r="Y67" s="82"/>
+      <c r="Z67" s="82"/>
+      <c r="AA67" s="82"/>
+      <c r="AB67" s="82"/>
+      <c r="AC67" s="84"/>
+      <c r="AD67" s="84"/>
+      <c r="AE67" s="84"/>
+      <c r="AF67" s="84"/>
+      <c r="AG67" s="84"/>
+      <c r="AH67" s="82"/>
+      <c r="AI67" s="82"/>
+      <c r="AJ67" s="82"/>
+      <c r="AK67" s="82"/>
+      <c r="AL67" s="82"/>
+      <c r="AM67" s="82"/>
+      <c r="AN67" s="82"/>
+      <c r="AO67" s="82"/>
+      <c r="AP67" s="82"/>
+      <c r="AQ67" s="82"/>
+      <c r="AR67" s="85"/>
+      <c r="AS67" s="85"/>
+      <c r="AT67" s="85"/>
+      <c r="AU67" s="85"/>
+      <c r="AV67" s="85"/>
+      <c r="AW67" s="82"/>
+      <c r="AX67" s="82"/>
+      <c r="AY67" s="82"/>
+      <c r="AZ67" s="82"/>
+      <c r="BA67" s="82"/>
+      <c r="BB67" s="82"/>
+      <c r="BC67" s="82"/>
+      <c r="BD67" s="82"/>
+      <c r="BE67" s="82"/>
+      <c r="BF67" s="82"/>
+      <c r="BG67" s="86"/>
+      <c r="BH67" s="86"/>
+      <c r="BI67" s="86"/>
+      <c r="BJ67" s="86"/>
+      <c r="BK67" s="86"/>
+      <c r="BL67" s="82"/>
+      <c r="BM67" s="82"/>
+      <c r="BN67" s="82"/>
+      <c r="BO67" s="82"/>
+      <c r="BP67" s="87"/>
+      <c r="BQ67" s="60"/>
+    </row>
+    <row r="68" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A68" s="60"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="151" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="62"/>
+      <c r="E68" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F68" s="63">
+        <v>45413.0</v>
+      </c>
+      <c r="G68" s="65">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="H68" s="156">
+        <f>H57-H75</f>
+        <v>93462.90323</v>
+      </c>
+      <c r="I68" s="89"/>
+      <c r="J68" s="95"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="70"/>
+      <c r="U68" s="70"/>
+      <c r="V68" s="70"/>
+      <c r="W68" s="82"/>
+      <c r="X68" s="82"/>
+      <c r="Y68" s="82"/>
+      <c r="Z68" s="82"/>
+      <c r="AA68" s="82"/>
+      <c r="AB68" s="82"/>
+      <c r="AC68" s="84"/>
+      <c r="AD68" s="84"/>
+      <c r="AE68" s="84"/>
+      <c r="AF68" s="84"/>
+      <c r="AG68" s="84"/>
+      <c r="AH68" s="82"/>
+      <c r="AI68" s="82"/>
+      <c r="AJ68" s="82"/>
+      <c r="AK68" s="82"/>
+      <c r="AL68" s="82"/>
+      <c r="AM68" s="82"/>
+      <c r="AN68" s="82"/>
+      <c r="AO68" s="82"/>
+      <c r="AP68" s="82"/>
+      <c r="AQ68" s="82"/>
+      <c r="AR68" s="85"/>
+      <c r="AS68" s="85"/>
+      <c r="AT68" s="85"/>
+      <c r="AU68" s="85"/>
+      <c r="AV68" s="85"/>
+      <c r="AW68" s="82"/>
+      <c r="AX68" s="82"/>
+      <c r="AY68" s="82"/>
+      <c r="AZ68" s="82"/>
+      <c r="BA68" s="82"/>
+      <c r="BB68" s="82"/>
+      <c r="BC68" s="82"/>
+      <c r="BD68" s="82"/>
+      <c r="BE68" s="82"/>
+      <c r="BF68" s="82"/>
+      <c r="BG68" s="86"/>
+      <c r="BH68" s="86"/>
+      <c r="BI68" s="86"/>
+      <c r="BJ68" s="86"/>
+      <c r="BK68" s="86"/>
+      <c r="BL68" s="82"/>
+      <c r="BM68" s="82"/>
+      <c r="BN68" s="82"/>
+      <c r="BO68" s="82"/>
+      <c r="BP68" s="87"/>
+      <c r="BQ68" s="60"/>
+    </row>
+    <row r="69" ht="21.0" customHeight="1">
+      <c r="A69" s="116"/>
+      <c r="B69" s="153"/>
+      <c r="C69" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="119"/>
+      <c r="E69" s="119"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="162"/>
+      <c r="I69" s="119"/>
+      <c r="J69" s="121"/>
+      <c r="K69" s="122"/>
+      <c r="L69" s="122"/>
+      <c r="M69" s="119"/>
+      <c r="N69" s="123"/>
+      <c r="O69" s="123"/>
+      <c r="P69" s="123"/>
+      <c r="Q69" s="123"/>
+      <c r="R69" s="123"/>
+      <c r="S69" s="119"/>
+      <c r="T69" s="119"/>
+      <c r="U69" s="119"/>
+      <c r="V69" s="119"/>
+      <c r="W69" s="119"/>
+      <c r="X69" s="119"/>
+      <c r="Y69" s="119"/>
+      <c r="Z69" s="119"/>
+      <c r="AA69" s="119"/>
+      <c r="AB69" s="119"/>
+      <c r="AC69" s="119"/>
+      <c r="AD69" s="119"/>
+      <c r="AE69" s="119"/>
+      <c r="AF69" s="119"/>
+      <c r="AG69" s="119"/>
+      <c r="AH69" s="119"/>
+      <c r="AI69" s="119"/>
+      <c r="AJ69" s="119"/>
+      <c r="AK69" s="119"/>
+      <c r="AL69" s="119"/>
+      <c r="AM69" s="119"/>
+      <c r="AN69" s="119"/>
+      <c r="AO69" s="119"/>
+      <c r="AP69" s="119"/>
+      <c r="AQ69" s="119"/>
+      <c r="AR69" s="119"/>
+      <c r="AS69" s="119"/>
+      <c r="AT69" s="119"/>
+      <c r="AU69" s="119"/>
+      <c r="AV69" s="119"/>
+      <c r="AW69" s="119"/>
+      <c r="AX69" s="119"/>
+      <c r="AY69" s="119"/>
+      <c r="AZ69" s="119"/>
+      <c r="BA69" s="119"/>
+      <c r="BB69" s="119"/>
+      <c r="BC69" s="119"/>
+      <c r="BD69" s="119"/>
+      <c r="BE69" s="119"/>
+      <c r="BF69" s="119"/>
+      <c r="BG69" s="119"/>
+      <c r="BH69" s="119"/>
+      <c r="BI69" s="119"/>
+      <c r="BJ69" s="119"/>
+      <c r="BK69" s="119"/>
+      <c r="BL69" s="119"/>
+      <c r="BM69" s="119"/>
+      <c r="BN69" s="119"/>
+      <c r="BO69" s="119"/>
+      <c r="BP69" s="119"/>
+      <c r="BQ69" s="116"/>
+    </row>
+    <row r="70" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A70" s="60"/>
+      <c r="B70" s="155"/>
+      <c r="C70" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="62"/>
+      <c r="E70" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F70" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G70" s="65">
+        <f t="shared" ref="G70:G78" si="12">NETWORKDAYS(E70,F70)</f>
+        <v>38</v>
+      </c>
+      <c r="H70" s="156">
+        <f t="shared" ref="H70:H71" si="13">H59/DAY(EOMONTH(TODAY(),0))</f>
+        <v>1064.516129</v>
+      </c>
+      <c r="I70" s="89"/>
+      <c r="J70" s="95"/>
+      <c r="K70" s="82"/>
+      <c r="L70" s="82"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="71"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="71"/>
+      <c r="S70" s="70"/>
+      <c r="T70" s="70"/>
+      <c r="U70" s="70"/>
+      <c r="V70" s="70"/>
+      <c r="W70" s="82"/>
+      <c r="X70" s="82"/>
+      <c r="Y70" s="82"/>
+      <c r="Z70" s="82"/>
+      <c r="AA70" s="82"/>
+      <c r="AB70" s="82"/>
+      <c r="AC70" s="84"/>
+      <c r="AD70" s="84"/>
+      <c r="AE70" s="84"/>
+      <c r="AF70" s="84"/>
+      <c r="AG70" s="84"/>
+      <c r="AH70" s="82"/>
+      <c r="AI70" s="82"/>
+      <c r="AJ70" s="82"/>
+      <c r="AK70" s="82"/>
+      <c r="AL70" s="82"/>
+      <c r="AM70" s="82"/>
+      <c r="AN70" s="82"/>
+      <c r="AO70" s="82"/>
+      <c r="AP70" s="82"/>
+      <c r="AQ70" s="82"/>
+      <c r="AR70" s="85"/>
+      <c r="AS70" s="85"/>
+      <c r="AT70" s="85"/>
+      <c r="AU70" s="85"/>
+      <c r="AV70" s="85"/>
+      <c r="AW70" s="82"/>
+      <c r="AX70" s="82"/>
+      <c r="AY70" s="82"/>
+      <c r="AZ70" s="82"/>
+      <c r="BA70" s="82"/>
+      <c r="BB70" s="82"/>
+      <c r="BC70" s="82"/>
+      <c r="BD70" s="82"/>
+      <c r="BE70" s="82"/>
+      <c r="BF70" s="82"/>
+      <c r="BG70" s="86"/>
+      <c r="BH70" s="86"/>
+      <c r="BI70" s="86"/>
+      <c r="BJ70" s="86"/>
+      <c r="BK70" s="86"/>
+      <c r="BL70" s="82"/>
+      <c r="BM70" s="82"/>
+      <c r="BN70" s="82"/>
+      <c r="BO70" s="82"/>
+      <c r="BP70" s="87"/>
+      <c r="BQ70" s="60"/>
+    </row>
+    <row r="71" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A71" s="60"/>
+      <c r="B71" s="155"/>
+      <c r="C71" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="62"/>
+      <c r="E71" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F71" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G71" s="65">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="H71" s="160">
+        <f t="shared" si="13"/>
+        <v>1064.516129</v>
+      </c>
+      <c r="I71" s="89"/>
+      <c r="J71" s="95"/>
+      <c r="K71" s="82"/>
+      <c r="L71" s="82"/>
+      <c r="M71" s="82"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="71"/>
+      <c r="Q71" s="71"/>
+      <c r="R71" s="71"/>
+      <c r="S71" s="70"/>
+      <c r="T71" s="70"/>
+      <c r="U71" s="70"/>
+      <c r="V71" s="70"/>
+      <c r="W71" s="82"/>
+      <c r="X71" s="82"/>
+      <c r="Y71" s="82"/>
+      <c r="Z71" s="82"/>
+      <c r="AA71" s="82"/>
+      <c r="AB71" s="82"/>
+      <c r="AC71" s="84"/>
+      <c r="AD71" s="84"/>
+      <c r="AE71" s="84"/>
+      <c r="AF71" s="84"/>
+      <c r="AG71" s="84"/>
+      <c r="AH71" s="82"/>
+      <c r="AI71" s="82"/>
+      <c r="AJ71" s="82"/>
+      <c r="AK71" s="82"/>
+      <c r="AL71" s="82"/>
+      <c r="AM71" s="82"/>
+      <c r="AN71" s="82"/>
+      <c r="AO71" s="82"/>
+      <c r="AP71" s="82"/>
+      <c r="AQ71" s="82"/>
+      <c r="AR71" s="85"/>
+      <c r="AS71" s="85"/>
+      <c r="AT71" s="85"/>
+      <c r="AU71" s="85"/>
+      <c r="AV71" s="85"/>
+      <c r="AW71" s="82"/>
+      <c r="AX71" s="82"/>
+      <c r="AY71" s="82"/>
+      <c r="AZ71" s="82"/>
+      <c r="BA71" s="82"/>
+      <c r="BB71" s="82"/>
+      <c r="BC71" s="82"/>
+      <c r="BD71" s="82"/>
+      <c r="BE71" s="82"/>
+      <c r="BF71" s="82"/>
+      <c r="BG71" s="86"/>
+      <c r="BH71" s="86"/>
+      <c r="BI71" s="86"/>
+      <c r="BJ71" s="86"/>
+      <c r="BK71" s="86"/>
+      <c r="BL71" s="82"/>
+      <c r="BM71" s="82"/>
+      <c r="BN71" s="82"/>
+      <c r="BO71" s="82"/>
+      <c r="BP71" s="87"/>
+      <c r="BQ71" s="60"/>
+    </row>
+    <row r="72" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A72" s="60"/>
+      <c r="B72" s="155"/>
+      <c r="C72" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" s="62"/>
+      <c r="E72" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F72" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G72" s="65">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="H72" s="156">
+        <f t="shared" ref="H72:H73" si="14">H59</f>
+        <v>33000</v>
+      </c>
+      <c r="I72" s="89"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="82"/>
+      <c r="L72" s="82"/>
+      <c r="M72" s="82"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="71"/>
+      <c r="Q72" s="71"/>
+      <c r="R72" s="71"/>
+      <c r="S72" s="70"/>
+      <c r="T72" s="70"/>
+      <c r="U72" s="70"/>
+      <c r="V72" s="70"/>
+      <c r="W72" s="82"/>
+      <c r="X72" s="82"/>
+      <c r="Y72" s="82"/>
+      <c r="Z72" s="82"/>
+      <c r="AA72" s="82"/>
+      <c r="AB72" s="82"/>
+      <c r="AC72" s="84"/>
+      <c r="AD72" s="84"/>
+      <c r="AE72" s="84"/>
+      <c r="AF72" s="84"/>
+      <c r="AG72" s="84"/>
+      <c r="AH72" s="82"/>
+      <c r="AI72" s="82"/>
+      <c r="AJ72" s="82"/>
+      <c r="AK72" s="82"/>
+      <c r="AL72" s="82"/>
+      <c r="AM72" s="82"/>
+      <c r="AN72" s="82"/>
+      <c r="AO72" s="82"/>
+      <c r="AP72" s="82"/>
+      <c r="AQ72" s="82"/>
+      <c r="AR72" s="85"/>
+      <c r="AS72" s="85"/>
+      <c r="AT72" s="85"/>
+      <c r="AU72" s="85"/>
+      <c r="AV72" s="85"/>
+      <c r="AW72" s="82"/>
+      <c r="AX72" s="82"/>
+      <c r="AY72" s="82"/>
+      <c r="AZ72" s="82"/>
+      <c r="BA72" s="82"/>
+      <c r="BB72" s="82"/>
+      <c r="BC72" s="82"/>
+      <c r="BD72" s="82"/>
+      <c r="BE72" s="82"/>
+      <c r="BF72" s="82"/>
+      <c r="BG72" s="86"/>
+      <c r="BH72" s="86"/>
+      <c r="BI72" s="86"/>
+      <c r="BJ72" s="86"/>
+      <c r="BK72" s="86"/>
+      <c r="BL72" s="82"/>
+      <c r="BM72" s="82"/>
+      <c r="BN72" s="82"/>
+      <c r="BO72" s="82"/>
+      <c r="BP72" s="87"/>
+      <c r="BQ72" s="60"/>
+    </row>
+    <row r="73" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A73" s="60"/>
+      <c r="B73" s="155"/>
+      <c r="C73" s="151" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="62"/>
+      <c r="E73" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F73" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G73" s="65">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="H73" s="156">
+        <f t="shared" si="14"/>
+        <v>33000</v>
+      </c>
+      <c r="I73" s="89"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="82"/>
+      <c r="L73" s="82"/>
+      <c r="M73" s="82"/>
+      <c r="N73" s="71"/>
+      <c r="O73" s="71"/>
+      <c r="P73" s="71"/>
+      <c r="Q73" s="71"/>
+      <c r="R73" s="71"/>
+      <c r="S73" s="70"/>
+      <c r="T73" s="70"/>
+      <c r="U73" s="70"/>
+      <c r="V73" s="70"/>
+      <c r="W73" s="82"/>
+      <c r="X73" s="82"/>
+      <c r="Y73" s="82"/>
+      <c r="Z73" s="82"/>
+      <c r="AA73" s="82"/>
+      <c r="AB73" s="82"/>
+      <c r="AC73" s="84"/>
+      <c r="AD73" s="84"/>
+      <c r="AE73" s="84"/>
+      <c r="AF73" s="84"/>
+      <c r="AG73" s="84"/>
+      <c r="AH73" s="82"/>
+      <c r="AI73" s="82"/>
+      <c r="AJ73" s="82"/>
+      <c r="AK73" s="82"/>
+      <c r="AL73" s="82"/>
+      <c r="AM73" s="82"/>
+      <c r="AN73" s="82"/>
+      <c r="AO73" s="82"/>
+      <c r="AP73" s="82"/>
+      <c r="AQ73" s="82"/>
+      <c r="AR73" s="85"/>
+      <c r="AS73" s="85"/>
+      <c r="AT73" s="85"/>
+      <c r="AU73" s="85"/>
+      <c r="AV73" s="85"/>
+      <c r="AW73" s="82"/>
+      <c r="AX73" s="82"/>
+      <c r="AY73" s="82"/>
+      <c r="AZ73" s="82"/>
+      <c r="BA73" s="82"/>
+      <c r="BB73" s="82"/>
+      <c r="BC73" s="82"/>
+      <c r="BD73" s="82"/>
+      <c r="BE73" s="82"/>
+      <c r="BF73" s="82"/>
+      <c r="BG73" s="86"/>
+      <c r="BH73" s="86"/>
+      <c r="BI73" s="86"/>
+      <c r="BJ73" s="86"/>
+      <c r="BK73" s="86"/>
+      <c r="BL73" s="82"/>
+      <c r="BM73" s="82"/>
+      <c r="BN73" s="82"/>
+      <c r="BO73" s="82"/>
+      <c r="BP73" s="87"/>
+      <c r="BQ73" s="60"/>
+    </row>
+    <row r="74" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A74" s="60"/>
+      <c r="B74" s="155"/>
+      <c r="C74" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="62"/>
+      <c r="E74" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F74" s="63">
+        <v>45413.0</v>
+      </c>
+      <c r="G74" s="65">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="H74" s="156">
+        <f>H58</f>
+        <v>500000</v>
+      </c>
+      <c r="I74" s="89"/>
+      <c r="J74" s="95"/>
+      <c r="K74" s="82"/>
+      <c r="L74" s="82"/>
+      <c r="M74" s="82"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="71"/>
+      <c r="S74" s="70"/>
+      <c r="T74" s="70"/>
+      <c r="U74" s="70"/>
+      <c r="V74" s="70"/>
+      <c r="W74" s="82"/>
+      <c r="X74" s="82"/>
+      <c r="Y74" s="82"/>
+      <c r="Z74" s="82"/>
+      <c r="AA74" s="82"/>
+      <c r="AB74" s="82"/>
+      <c r="AC74" s="84"/>
+      <c r="AD74" s="84"/>
+      <c r="AE74" s="84"/>
+      <c r="AF74" s="84"/>
+      <c r="AG74" s="84"/>
+      <c r="AH74" s="82"/>
+      <c r="AI74" s="82"/>
+      <c r="AJ74" s="82"/>
+      <c r="AK74" s="82"/>
+      <c r="AL74" s="82"/>
+      <c r="AM74" s="82"/>
+      <c r="AN74" s="82"/>
+      <c r="AO74" s="82"/>
+      <c r="AP74" s="82"/>
+      <c r="AQ74" s="82"/>
+      <c r="AR74" s="85"/>
+      <c r="AS74" s="85"/>
+      <c r="AT74" s="85"/>
+      <c r="AU74" s="85"/>
+      <c r="AV74" s="85"/>
+      <c r="AW74" s="82"/>
+      <c r="AX74" s="82"/>
+      <c r="AY74" s="82"/>
+      <c r="AZ74" s="82"/>
+      <c r="BA74" s="82"/>
+      <c r="BB74" s="82"/>
+      <c r="BC74" s="82"/>
+      <c r="BD74" s="82"/>
+      <c r="BE74" s="82"/>
+      <c r="BF74" s="82"/>
+      <c r="BG74" s="86"/>
+      <c r="BH74" s="86"/>
+      <c r="BI74" s="86"/>
+      <c r="BJ74" s="86"/>
+      <c r="BK74" s="86"/>
+      <c r="BL74" s="82"/>
+      <c r="BM74" s="82"/>
+      <c r="BN74" s="82"/>
+      <c r="BO74" s="82"/>
+      <c r="BP74" s="87"/>
+      <c r="BQ74" s="60"/>
+    </row>
+    <row r="75" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A75" s="60"/>
+      <c r="B75" s="155"/>
+      <c r="C75" s="151" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" s="62"/>
+      <c r="E75" s="63">
+        <v>45411.0</v>
+      </c>
+      <c r="F75" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G75" s="65">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="H75" s="156">
+        <f>H61+(H71/2)*12</f>
+        <v>6537.096774</v>
+      </c>
+      <c r="I75" s="89"/>
+      <c r="J75" s="95"/>
+      <c r="K75" s="82"/>
+      <c r="L75" s="82"/>
+      <c r="M75" s="82"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
+      <c r="S75" s="70"/>
+      <c r="T75" s="70"/>
+      <c r="U75" s="70"/>
+      <c r="V75" s="70"/>
+      <c r="W75" s="82"/>
+      <c r="X75" s="82"/>
+      <c r="Y75" s="82"/>
+      <c r="Z75" s="82"/>
+      <c r="AA75" s="82"/>
+      <c r="AB75" s="82"/>
+      <c r="AC75" s="84"/>
+      <c r="AD75" s="84"/>
+      <c r="AE75" s="84"/>
+      <c r="AF75" s="84"/>
+      <c r="AG75" s="84"/>
+      <c r="AH75" s="82"/>
+      <c r="AI75" s="82"/>
+      <c r="AJ75" s="82"/>
+      <c r="AK75" s="82"/>
+      <c r="AL75" s="82"/>
+      <c r="AM75" s="82"/>
+      <c r="AN75" s="82"/>
+      <c r="AO75" s="82"/>
+      <c r="AP75" s="82"/>
+      <c r="AQ75" s="82"/>
+      <c r="AR75" s="85"/>
+      <c r="AS75" s="85"/>
+      <c r="AT75" s="85"/>
+      <c r="AU75" s="85"/>
+      <c r="AV75" s="85"/>
+      <c r="AW75" s="82"/>
+      <c r="AX75" s="82"/>
+      <c r="AY75" s="82"/>
+      <c r="AZ75" s="82"/>
+      <c r="BA75" s="82"/>
+      <c r="BB75" s="82"/>
+      <c r="BC75" s="82"/>
+      <c r="BD75" s="82"/>
+      <c r="BE75" s="82"/>
+      <c r="BF75" s="82"/>
+      <c r="BG75" s="86"/>
+      <c r="BH75" s="86"/>
+      <c r="BI75" s="86"/>
+      <c r="BJ75" s="86"/>
+      <c r="BK75" s="86"/>
+      <c r="BL75" s="82"/>
+      <c r="BM75" s="82"/>
+      <c r="BN75" s="82"/>
+      <c r="BO75" s="82"/>
+      <c r="BP75" s="87"/>
+      <c r="BQ75" s="60"/>
+    </row>
+    <row r="76" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A76" s="60"/>
+      <c r="B76" s="155"/>
+      <c r="C76" s="151" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="62"/>
+      <c r="E76" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F76" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G76" s="65">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="H76" s="156">
+        <f>H70*H80</f>
+        <v>54290.32258</v>
+      </c>
+      <c r="I76" s="89"/>
+      <c r="J76" s="95"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="71"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="71"/>
+      <c r="Q76" s="71"/>
+      <c r="R76" s="71"/>
+      <c r="S76" s="70"/>
+      <c r="T76" s="70"/>
+      <c r="U76" s="70"/>
+      <c r="V76" s="70"/>
+      <c r="W76" s="82"/>
+      <c r="X76" s="82"/>
+      <c r="Y76" s="82"/>
+      <c r="Z76" s="82"/>
+      <c r="AA76" s="82"/>
+      <c r="AB76" s="82"/>
+      <c r="AC76" s="84"/>
+      <c r="AD76" s="84"/>
+      <c r="AE76" s="84"/>
+      <c r="AF76" s="84"/>
+      <c r="AG76" s="84"/>
+      <c r="AH76" s="82"/>
+      <c r="AI76" s="82"/>
+      <c r="AJ76" s="82"/>
+      <c r="AK76" s="82"/>
+      <c r="AL76" s="82"/>
+      <c r="AM76" s="82"/>
+      <c r="AN76" s="82"/>
+      <c r="AO76" s="82"/>
+      <c r="AP76" s="82"/>
+      <c r="AQ76" s="82"/>
+      <c r="AR76" s="85"/>
+      <c r="AS76" s="85"/>
+      <c r="AT76" s="85"/>
+      <c r="AU76" s="85"/>
+      <c r="AV76" s="85"/>
+      <c r="AW76" s="82"/>
+      <c r="AX76" s="82"/>
+      <c r="AY76" s="82"/>
+      <c r="AZ76" s="82"/>
+      <c r="BA76" s="82"/>
+      <c r="BB76" s="82"/>
+      <c r="BC76" s="82"/>
+      <c r="BD76" s="82"/>
+      <c r="BE76" s="82"/>
+      <c r="BF76" s="82"/>
+      <c r="BG76" s="86"/>
+      <c r="BH76" s="86"/>
+      <c r="BI76" s="86"/>
+      <c r="BJ76" s="86"/>
+      <c r="BK76" s="86"/>
+      <c r="BL76" s="82"/>
+      <c r="BM76" s="82"/>
+      <c r="BN76" s="82"/>
+      <c r="BO76" s="82"/>
+      <c r="BP76" s="87"/>
+      <c r="BQ76" s="60"/>
+    </row>
+    <row r="77" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A77" s="60"/>
+      <c r="B77" s="155"/>
+      <c r="C77" s="151" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" s="62"/>
+      <c r="E77" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F77" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G77" s="65">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="H77" s="156">
+        <f>H71*5*H80</f>
+        <v>271451.6129</v>
+      </c>
+      <c r="I77" s="89"/>
+      <c r="J77" s="95"/>
+      <c r="K77" s="82"/>
+      <c r="L77" s="82"/>
+      <c r="M77" s="82"/>
+      <c r="N77" s="71"/>
+      <c r="O77" s="71"/>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="71"/>
+      <c r="R77" s="71"/>
+      <c r="S77" s="70"/>
+      <c r="T77" s="70"/>
+      <c r="U77" s="70"/>
+      <c r="V77" s="70"/>
+      <c r="W77" s="82"/>
+      <c r="X77" s="82"/>
+      <c r="Y77" s="82"/>
+      <c r="Z77" s="82"/>
+      <c r="AA77" s="82"/>
+      <c r="AB77" s="82"/>
+      <c r="AC77" s="84"/>
+      <c r="AD77" s="84"/>
+      <c r="AE77" s="84"/>
+      <c r="AF77" s="84"/>
+      <c r="AG77" s="84"/>
+      <c r="AH77" s="82"/>
+      <c r="AI77" s="82"/>
+      <c r="AJ77" s="82"/>
+      <c r="AK77" s="82"/>
+      <c r="AL77" s="82"/>
+      <c r="AM77" s="82"/>
+      <c r="AN77" s="82"/>
+      <c r="AO77" s="82"/>
+      <c r="AP77" s="82"/>
+      <c r="AQ77" s="82"/>
+      <c r="AR77" s="85"/>
+      <c r="AS77" s="85"/>
+      <c r="AT77" s="85"/>
+      <c r="AU77" s="85"/>
+      <c r="AV77" s="85"/>
+      <c r="AW77" s="82"/>
+      <c r="AX77" s="82"/>
+      <c r="AY77" s="82"/>
+      <c r="AZ77" s="82"/>
+      <c r="BA77" s="82"/>
+      <c r="BB77" s="82"/>
+      <c r="BC77" s="82"/>
+      <c r="BD77" s="82"/>
+      <c r="BE77" s="82"/>
+      <c r="BF77" s="82"/>
+      <c r="BG77" s="86"/>
+      <c r="BH77" s="86"/>
+      <c r="BI77" s="86"/>
+      <c r="BJ77" s="86"/>
+      <c r="BK77" s="86"/>
+      <c r="BL77" s="82"/>
+      <c r="BM77" s="82"/>
+      <c r="BN77" s="82"/>
+      <c r="BO77" s="82"/>
+      <c r="BP77" s="87"/>
+      <c r="BQ77" s="60"/>
+    </row>
+    <row r="78" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A78" s="60"/>
+      <c r="B78" s="155"/>
+      <c r="C78" s="151" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="62"/>
+      <c r="E78" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F78" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G78" s="65">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="H78" s="156">
+        <f>SUM(H74:H77)</f>
+        <v>832279.0323</v>
+      </c>
+      <c r="I78" s="89"/>
+      <c r="J78" s="95"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
+      <c r="Q78" s="71"/>
+      <c r="R78" s="71"/>
+      <c r="S78" s="70"/>
+      <c r="T78" s="70"/>
+      <c r="U78" s="70"/>
+      <c r="V78" s="70"/>
+      <c r="W78" s="82"/>
+      <c r="X78" s="82"/>
+      <c r="Y78" s="82"/>
+      <c r="Z78" s="82"/>
+      <c r="AA78" s="82"/>
+      <c r="AB78" s="82"/>
+      <c r="AC78" s="84"/>
+      <c r="AD78" s="84"/>
+      <c r="AE78" s="84"/>
+      <c r="AF78" s="84"/>
+      <c r="AG78" s="84"/>
+      <c r="AH78" s="82"/>
+      <c r="AI78" s="82"/>
+      <c r="AJ78" s="82"/>
+      <c r="AK78" s="82"/>
+      <c r="AL78" s="82"/>
+      <c r="AM78" s="82"/>
+      <c r="AN78" s="82"/>
+      <c r="AO78" s="82"/>
+      <c r="AP78" s="82"/>
+      <c r="AQ78" s="82"/>
+      <c r="AR78" s="85"/>
+      <c r="AS78" s="85"/>
+      <c r="AT78" s="85"/>
+      <c r="AU78" s="85"/>
+      <c r="AV78" s="85"/>
+      <c r="AW78" s="82"/>
+      <c r="AX78" s="82"/>
+      <c r="AY78" s="82"/>
+      <c r="AZ78" s="82"/>
+      <c r="BA78" s="82"/>
+      <c r="BB78" s="82"/>
+      <c r="BC78" s="82"/>
+      <c r="BD78" s="82"/>
+      <c r="BE78" s="82"/>
+      <c r="BF78" s="82"/>
+      <c r="BG78" s="86"/>
+      <c r="BH78" s="86"/>
+      <c r="BI78" s="86"/>
+      <c r="BJ78" s="86"/>
+      <c r="BK78" s="86"/>
+      <c r="BL78" s="82"/>
+      <c r="BM78" s="82"/>
+      <c r="BN78" s="82"/>
+      <c r="BO78" s="82"/>
+      <c r="BP78" s="87"/>
+      <c r="BQ78" s="60"/>
+    </row>
+    <row r="79" ht="21.0" customHeight="1">
+      <c r="A79" s="116"/>
+      <c r="B79" s="153"/>
+      <c r="C79" s="161" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="119"/>
+      <c r="E79" s="119"/>
+      <c r="F79" s="119"/>
+      <c r="G79" s="119"/>
+      <c r="H79" s="162"/>
+      <c r="I79" s="119"/>
+      <c r="J79" s="121"/>
+      <c r="K79" s="122"/>
+      <c r="L79" s="122"/>
+      <c r="M79" s="119"/>
+      <c r="N79" s="123"/>
+      <c r="O79" s="123"/>
+      <c r="P79" s="123"/>
+      <c r="Q79" s="123"/>
+      <c r="R79" s="123"/>
+      <c r="S79" s="119"/>
+      <c r="T79" s="119"/>
+      <c r="U79" s="119"/>
+      <c r="V79" s="119"/>
+      <c r="W79" s="119"/>
+      <c r="X79" s="119"/>
+      <c r="Y79" s="119"/>
+      <c r="Z79" s="119"/>
+      <c r="AA79" s="119"/>
+      <c r="AB79" s="119"/>
+      <c r="AC79" s="119"/>
+      <c r="AD79" s="119"/>
+      <c r="AE79" s="119"/>
+      <c r="AF79" s="119"/>
+      <c r="AG79" s="119"/>
+      <c r="AH79" s="119"/>
+      <c r="AI79" s="119"/>
+      <c r="AJ79" s="119"/>
+      <c r="AK79" s="119"/>
+      <c r="AL79" s="119"/>
+      <c r="AM79" s="119"/>
+      <c r="AN79" s="119"/>
+      <c r="AO79" s="119"/>
+      <c r="AP79" s="119"/>
+      <c r="AQ79" s="119"/>
+      <c r="AR79" s="119"/>
+      <c r="AS79" s="119"/>
+      <c r="AT79" s="119"/>
+      <c r="AU79" s="119"/>
+      <c r="AV79" s="119"/>
+      <c r="AW79" s="119"/>
+      <c r="AX79" s="119"/>
+      <c r="AY79" s="119"/>
+      <c r="AZ79" s="119"/>
+      <c r="BA79" s="119"/>
+      <c r="BB79" s="119"/>
+      <c r="BC79" s="119"/>
+      <c r="BD79" s="119"/>
+      <c r="BE79" s="119"/>
+      <c r="BF79" s="119"/>
+      <c r="BG79" s="119"/>
+      <c r="BH79" s="119"/>
+      <c r="BI79" s="119"/>
+      <c r="BJ79" s="119"/>
+      <c r="BK79" s="119"/>
+      <c r="BL79" s="119"/>
+      <c r="BM79" s="119"/>
+      <c r="BN79" s="119"/>
+      <c r="BO79" s="119"/>
+      <c r="BP79" s="119"/>
+      <c r="BQ79" s="116"/>
+    </row>
+    <row r="80" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A80" s="60"/>
+      <c r="B80" s="155"/>
+      <c r="C80" s="151" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="62"/>
+      <c r="E80" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F80" s="63">
+        <v>45413.0</v>
+      </c>
+      <c r="G80" s="65">
+        <f t="shared" ref="G80:G81" si="15">NETWORKDAYS(E80,F80)</f>
+        <v>38</v>
+      </c>
+      <c r="H80" s="163">
+        <f>DATEVALUE(F56)-DATEVALUE(E56)</f>
+        <v>51</v>
+      </c>
+      <c r="I80" s="89"/>
+      <c r="J80" s="95"/>
+      <c r="K80" s="82"/>
+      <c r="L80" s="82"/>
+      <c r="M80" s="82"/>
+      <c r="N80" s="71"/>
+      <c r="O80" s="71"/>
+      <c r="P80" s="71"/>
+      <c r="Q80" s="71"/>
+      <c r="R80" s="71"/>
+      <c r="S80" s="70"/>
+      <c r="T80" s="70"/>
+      <c r="U80" s="70"/>
+      <c r="V80" s="70"/>
+      <c r="W80" s="82"/>
+      <c r="X80" s="82"/>
+      <c r="Y80" s="82"/>
+      <c r="Z80" s="82"/>
+      <c r="AA80" s="82"/>
+      <c r="AB80" s="82"/>
+      <c r="AC80" s="84"/>
+      <c r="AD80" s="84"/>
+      <c r="AE80" s="84"/>
+      <c r="AF80" s="84"/>
+      <c r="AG80" s="84"/>
+      <c r="AH80" s="82"/>
+      <c r="AI80" s="82"/>
+      <c r="AJ80" s="82"/>
+      <c r="AK80" s="82"/>
+      <c r="AL80" s="82"/>
+      <c r="AM80" s="82"/>
+      <c r="AN80" s="82"/>
+      <c r="AO80" s="82"/>
+      <c r="AP80" s="82"/>
+      <c r="AQ80" s="82"/>
+      <c r="AR80" s="85"/>
+      <c r="AS80" s="85"/>
+      <c r="AT80" s="85"/>
+      <c r="AU80" s="85"/>
+      <c r="AV80" s="85"/>
+      <c r="AW80" s="82"/>
+      <c r="AX80" s="82"/>
+      <c r="AY80" s="82"/>
+      <c r="AZ80" s="82"/>
+      <c r="BA80" s="82"/>
+      <c r="BB80" s="82"/>
+      <c r="BC80" s="82"/>
+      <c r="BD80" s="82"/>
+      <c r="BE80" s="82"/>
+      <c r="BF80" s="82"/>
+      <c r="BG80" s="86"/>
+      <c r="BH80" s="86"/>
+      <c r="BI80" s="86"/>
+      <c r="BJ80" s="86"/>
+      <c r="BK80" s="86"/>
+      <c r="BL80" s="82"/>
+      <c r="BM80" s="82"/>
+      <c r="BN80" s="82"/>
+      <c r="BO80" s="82"/>
+      <c r="BP80" s="87"/>
+      <c r="BQ80" s="60"/>
+    </row>
+    <row r="81" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A81" s="60"/>
+      <c r="B81" s="155"/>
+      <c r="C81" s="151" t="s">
+        <v>154</v>
+      </c>
+      <c r="D81" s="62"/>
+      <c r="E81" s="63">
+        <v>45362.0</v>
+      </c>
+      <c r="F81" s="64">
+        <v>45413.0</v>
+      </c>
+      <c r="G81" s="65">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="H81" s="163">
+        <f>QUOTIENT(SUM(H58),(SUM(H66)-SUM((H70),H71*5,IF(TODAY()&gt;E61,H61,0))))</f>
+        <v>19</v>
+      </c>
+      <c r="I81" s="89"/>
+      <c r="J81" s="95"/>
+      <c r="K81" s="82"/>
+      <c r="L81" s="82"/>
+      <c r="M81" s="82"/>
+      <c r="N81" s="71"/>
+      <c r="O81" s="71"/>
+      <c r="P81" s="71"/>
+      <c r="Q81" s="71"/>
+      <c r="R81" s="71"/>
+      <c r="S81" s="70"/>
+      <c r="T81" s="70"/>
+      <c r="U81" s="70"/>
+      <c r="V81" s="70"/>
+      <c r="W81" s="82"/>
+      <c r="X81" s="82"/>
+      <c r="Y81" s="82"/>
+      <c r="Z81" s="82"/>
+      <c r="AA81" s="82"/>
+      <c r="AB81" s="82"/>
+      <c r="AC81" s="84"/>
+      <c r="AD81" s="84"/>
+      <c r="AE81" s="84"/>
+      <c r="AF81" s="84"/>
+      <c r="AG81" s="84"/>
+      <c r="AH81" s="82"/>
+      <c r="AI81" s="82"/>
+      <c r="AJ81" s="82"/>
+      <c r="AK81" s="82"/>
+      <c r="AL81" s="82"/>
+      <c r="AM81" s="82"/>
+      <c r="AN81" s="82"/>
+      <c r="AO81" s="82"/>
+      <c r="AP81" s="82"/>
+      <c r="AQ81" s="82"/>
+      <c r="AR81" s="85"/>
+      <c r="AS81" s="85"/>
+      <c r="AT81" s="85"/>
+      <c r="AU81" s="85"/>
+      <c r="AV81" s="85"/>
+      <c r="AW81" s="82"/>
+      <c r="AX81" s="82"/>
+      <c r="AY81" s="82"/>
+      <c r="AZ81" s="82"/>
+      <c r="BA81" s="82"/>
+      <c r="BB81" s="82"/>
+      <c r="BC81" s="82"/>
+      <c r="BD81" s="82"/>
+      <c r="BE81" s="82"/>
+      <c r="BF81" s="82"/>
+      <c r="BG81" s="86"/>
+      <c r="BH81" s="86"/>
+      <c r="BI81" s="86"/>
+      <c r="BJ81" s="86"/>
+      <c r="BK81" s="86"/>
+      <c r="BL81" s="82"/>
+      <c r="BM81" s="82"/>
+      <c r="BN81" s="82"/>
+      <c r="BO81" s="82"/>
+      <c r="BP81" s="87"/>
+      <c r="BQ81" s="60"/>
+    </row>
+    <row r="82" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A82" s="60"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="D82" s="62"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="163">
+        <f>H80-H81</f>
+        <v>32</v>
+      </c>
+      <c r="I82" s="89"/>
+      <c r="J82" s="95"/>
+      <c r="K82" s="82"/>
+      <c r="L82" s="82"/>
+      <c r="M82" s="82"/>
+      <c r="N82" s="71"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="71"/>
+      <c r="Q82" s="71"/>
+      <c r="R82" s="71"/>
+      <c r="S82" s="70"/>
+      <c r="T82" s="70"/>
+      <c r="U82" s="70"/>
+      <c r="V82" s="70"/>
+      <c r="W82" s="82"/>
+      <c r="X82" s="82"/>
+      <c r="Y82" s="82"/>
+      <c r="Z82" s="82"/>
+      <c r="AA82" s="82"/>
+      <c r="AB82" s="82"/>
+      <c r="AC82" s="84"/>
+      <c r="AD82" s="84"/>
+      <c r="AE82" s="84"/>
+      <c r="AF82" s="84"/>
+      <c r="AG82" s="84"/>
+      <c r="AH82" s="82"/>
+      <c r="AI82" s="82"/>
+      <c r="AJ82" s="82"/>
+      <c r="AK82" s="82"/>
+      <c r="AL82" s="82"/>
+      <c r="AM82" s="82"/>
+      <c r="AN82" s="82"/>
+      <c r="AO82" s="82"/>
+      <c r="AP82" s="82"/>
+      <c r="AQ82" s="82"/>
+      <c r="AR82" s="85"/>
+      <c r="AS82" s="85"/>
+      <c r="AT82" s="85"/>
+      <c r="AU82" s="85"/>
+      <c r="AV82" s="85"/>
+      <c r="AW82" s="82"/>
+      <c r="AX82" s="82"/>
+      <c r="AY82" s="82"/>
+      <c r="AZ82" s="82"/>
+      <c r="BA82" s="82"/>
+      <c r="BB82" s="82"/>
+      <c r="BC82" s="82"/>
+      <c r="BD82" s="82"/>
+      <c r="BE82" s="82"/>
+      <c r="BF82" s="82"/>
+      <c r="BG82" s="86"/>
+      <c r="BH82" s="86"/>
+      <c r="BI82" s="86"/>
+      <c r="BJ82" s="86"/>
+      <c r="BK82" s="86"/>
+      <c r="BL82" s="82"/>
+      <c r="BM82" s="82"/>
+      <c r="BN82" s="82"/>
+      <c r="BO82" s="82"/>
+      <c r="BP82" s="87"/>
+      <c r="BQ82" s="60"/>
+    </row>
+    <row r="83" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A83" s="60"/>
+      <c r="B83" s="155"/>
+      <c r="C83" s="151"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="163">
+        <v>0.0</v>
+      </c>
+      <c r="I83" s="89"/>
+      <c r="J83" s="95"/>
+      <c r="K83" s="82"/>
+      <c r="L83" s="82"/>
+      <c r="M83" s="82"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="71"/>
+      <c r="P83" s="71"/>
+      <c r="Q83" s="71"/>
+      <c r="R83" s="71"/>
+      <c r="S83" s="70"/>
+      <c r="T83" s="70"/>
+      <c r="U83" s="70"/>
+      <c r="V83" s="70"/>
+      <c r="W83" s="82"/>
+      <c r="X83" s="82"/>
+      <c r="Y83" s="82"/>
+      <c r="Z83" s="82"/>
+      <c r="AA83" s="82"/>
+      <c r="AB83" s="82"/>
+      <c r="AC83" s="84"/>
+      <c r="AD83" s="84"/>
+      <c r="AE83" s="84"/>
+      <c r="AF83" s="84"/>
+      <c r="AG83" s="84"/>
+      <c r="AH83" s="82"/>
+      <c r="AI83" s="82"/>
+      <c r="AJ83" s="82"/>
+      <c r="AK83" s="82"/>
+      <c r="AL83" s="82"/>
+      <c r="AM83" s="82"/>
+      <c r="AN83" s="82"/>
+      <c r="AO83" s="82"/>
+      <c r="AP83" s="82"/>
+      <c r="AQ83" s="82"/>
+      <c r="AR83" s="85"/>
+      <c r="AS83" s="85"/>
+      <c r="AT83" s="85"/>
+      <c r="AU83" s="85"/>
+      <c r="AV83" s="85"/>
+      <c r="AW83" s="82"/>
+      <c r="AX83" s="82"/>
+      <c r="AY83" s="82"/>
+      <c r="AZ83" s="82"/>
+      <c r="BA83" s="82"/>
+      <c r="BB83" s="82"/>
+      <c r="BC83" s="82"/>
+      <c r="BD83" s="82"/>
+      <c r="BE83" s="82"/>
+      <c r="BF83" s="82"/>
+      <c r="BG83" s="86"/>
+      <c r="BH83" s="86"/>
+      <c r="BI83" s="86"/>
+      <c r="BJ83" s="86"/>
+      <c r="BK83" s="86"/>
+      <c r="BL83" s="82"/>
+      <c r="BM83" s="82"/>
+      <c r="BN83" s="82"/>
+      <c r="BO83" s="82"/>
+      <c r="BP83" s="87"/>
+      <c r="BQ83" s="60"/>
+    </row>
     <row r="84" ht="15.75" customHeight="1"/>
     <row r="85" ht="15.75" customHeight="1"/>
     <row r="86" ht="15.75" customHeight="1"/>
@@ -7091,13 +9932,6 @@
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="B2:G2"/>
@@ -7135,7 +9969,7 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12:H31 H33:H40 H42:H47 H49:H54">
+  <conditionalFormatting sqref="H12:H54">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7145,64 +9979,94 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:M54">
+  <conditionalFormatting sqref="I12:M83">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(1&gt;=WEEKNUM(INDIRECT("E"&amp;ROW()))-10,WEEKNUM(INDIRECT("F"&amp;ROW()))-10&gt;=1,INDIRECT("E"&amp;ROW())&lt;=DATE(2024,3,COLUMN()+2),DATE(2024,3,COLUMN()+2)&lt;=INDIRECT("F"&amp;ROW()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:R54">
+  <conditionalFormatting sqref="N12:R83">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND(2&gt;=WEEKNUM(INDIRECT("E"&amp;ROW()))-10,WEEKNUM(INDIRECT("F"&amp;ROW()))-10&gt;=2,INDIRECT("E"&amp;ROW())&lt;=DATE(2024,3,COLUMN()+4),DATE(2024,3,COLUMN()+4)&lt;=INDIRECT("F"&amp;ROW()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:W54">
+  <conditionalFormatting sqref="S12:W83">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(3&gt;=WEEKNUM(INDIRECT("E"&amp;ROW()))-10,WEEKNUM(INDIRECT("F"&amp;ROW()))-10&gt;=3,INDIRECT("E"&amp;ROW())&lt;=DATE(2024,3,COLUMN()+6),DATE(2024,3,COLUMN()+6)&lt;=INDIRECT("F"&amp;ROW()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12:AB54">
+  <conditionalFormatting sqref="X12:AB83">
     <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(4&gt;=WEEKNUM(INDIRECT("E"&amp;ROW()))-10,WEEKNUM(INDIRECT("F"&amp;ROW()))-10&gt;=4,INDIRECT("E"&amp;ROW())&lt;=DATE(2024,4,COLUMN()-23),DATE(2024,4,COLUMN()-23)&lt;=INDIRECT("F"&amp;ROW()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC12:AG54">
+  <conditionalFormatting sqref="AC12:AG83">
     <cfRule type="expression" dxfId="1" priority="6">
       <formula>AND(5&gt;=WEEKNUM(INDIRECT("E"&amp;ROW()))-10,WEEKNUM(INDIRECT("F"&amp;ROW()))-10&gt;=5,INDIRECT("E"&amp;ROW())&lt;=DATE(2024,4,COLUMN()-21),DATE(2024,4,COLUMN()-21)&lt;=INDIRECT("F"&amp;ROW()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH12:AL54">
+  <conditionalFormatting sqref="AH12:AL83">
     <cfRule type="expression" dxfId="1" priority="7">
       <formula>AND(6&gt;=WEEKNUM(INDIRECT("E"&amp;ROW()))-10,WEEKNUM(INDIRECT("F"&amp;ROW()))-10&gt;=6,INDIRECT("E"&amp;ROW())&lt;=DATE(2024,4,COLUMN()-19),DATE(2024,4,COLUMN()-19)&lt;=INDIRECT("F"&amp;ROW()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM12:AQ54">
+  <conditionalFormatting sqref="AM12:AQ83">
     <cfRule type="expression" dxfId="2" priority="8">
       <formula>AND(7&gt;=WEEKNUM(INDIRECT("E"&amp;ROW()))-10,WEEKNUM(INDIRECT("F"&amp;ROW()))-10&gt;=7,INDIRECT("E"&amp;ROW())&lt;=DATE(2024,4,COLUMN()-17),DATE(2024,4,COLUMN()-17)&lt;=INDIRECT("F"&amp;ROW()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR12:AV54">
+  <conditionalFormatting sqref="AR12:AV83">
     <cfRule type="expression" dxfId="2" priority="9">
       <formula>AND(8&gt;=WEEKNUM(INDIRECT("E"&amp;ROW()))-10,WEEKNUM(INDIRECT("F"&amp;ROW()))-10&gt;=8,INDIRECT("E"&amp;ROW())&lt;=DATE(2024,4,COLUMN()-15),DATE(2024,4,COLUMN()-15)&lt;=INDIRECT("F"&amp;ROW()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW12:BA54">
+  <conditionalFormatting sqref="AW12:BA83">
     <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(9&gt;=WEEKNUM(INDIRECT("E"&amp;ROW()))-10,WEEKNUM(INDIRECT("F"&amp;ROW()))-10&gt;=9,INDIRECT("E"&amp;ROW())&lt;=DATE(2024,4,COLUMN()-13),DATE(2024,4,COLUMN()-13)&lt;=INDIRECT("F"&amp;ROW()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB12:BF54">
+  <conditionalFormatting sqref="BB12:BF83">
     <cfRule type="expression" dxfId="3" priority="11">
       <formula>AND(10&gt;=WEEKNUM(INDIRECT("E"&amp;ROW()))-10,WEEKNUM(INDIRECT("F"&amp;ROW()))-10&gt;=10,INDIRECT("E"&amp;ROW())&lt;=DATE(2024,5,COLUMN()-13),DATE(2024,5,COLUMN()-13)&lt;=INDIRECT("F"&amp;ROW()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG12:BK54">
+  <conditionalFormatting sqref="BG12:BK83">
     <cfRule type="expression" dxfId="3" priority="12">
       <formula>AND(11&gt;=WEEKNUM(INDIRECT("E"&amp;ROW()))-11,WEEKNUM(INDIRECT("F"&amp;ROW()))-10&gt;=10,INDIRECT("E"&amp;ROW())&lt;=DATE(2024,5,COLUMN()-13),DATE(2024,5,COLUMN()-13)&lt;=INDIRECT("F"&amp;ROW()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL12:BP54">
+  <conditionalFormatting sqref="BL12:BP83">
     <cfRule type="expression" dxfId="3" priority="13">
       <formula>AND(12&gt;=WEEKNUM(INDIRECT("E"&amp;ROW()))-12,WEEKNUM(INDIRECT("F"&amp;ROW()))-10&gt;=10,INDIRECT("E"&amp;ROW())&lt;=DATE(2024,5,COLUMN()-13),DATE(2024,5,COLUMN()-13)&lt;=INDIRECT("F"&amp;ROW()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56:H63">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66:H68">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70:H78">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <printOptions gridLines="1" horizontalCentered="1"/>
